--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -3,15 +3,37 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="onlyIf31" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Test Sampling" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="F9">
+      <text>
+        <t xml:space="preserve">284{2, 4, 71, 142}:Power</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I9">
+      <text>
+        <t xml:space="preserve">340{2, 4, 5, 10, 17, 20, 34, 68, 85, 170}:Dream</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="380">
   <si>
     <t>परिचय.</t>
   </si>
@@ -1034,13 +1056,731 @@
   </si>
   <si>
     <t>fund</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>2, 29</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Palm</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>Electric UPS</t>
+  </si>
+  <si>
+    <t>Tea Cup</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>367</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>2, 4, 8, 47, 94, 188</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Claim</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>Display Unit</t>
+  </si>
+  <si>
+    <t>Sleeping Pillow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>323</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>17, 19</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>USB Hub</t>
+  </si>
+  <si>
+    <t>Electric Extension</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>355</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>5, 71</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Capital</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>USB Light</t>
+  </si>
+  <si>
+    <t>Remote Lighting</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>162</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>2, 3, 6, 9, 18, 27, 54, 81</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Watch</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>Mosquito Zapper</t>
+  </si>
+  <si>
+    <t>Insect Protector</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>267</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>3, 89</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Task</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>Thermal Paste</t>
+  </si>
+  <si>
+    <t>Body Perfume</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>497</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>7, 71</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Entertainment</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>TV Mount</t>
+  </si>
+  <si>
+    <t>= 7007</t>
+  </si>
+  <si>
+    <t>Table Fan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>575</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>5, 23, 25, 115</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Board</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <t>Electronic Slate</t>
+  </si>
+  <si>
+    <t>Musical Device</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>322</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>2, 7, 14, 23, 46, 161</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Project</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>234</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>2, 3, 6, 9, 13, 18, 26, 39, 78, 117</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Mode</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>301</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>7, 43</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Win</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>168</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>2, 3, 4, 6, 7, 8, 12, 14, 21, 24, 28, 42, 56, 84</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Metal</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>306</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>2, 3, 6, 9, 17, 18, 34, 51, 102, 153</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Compile</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <u/>
+      </rPr>
+      <t>191</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>{}:#</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Hype</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>##</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1048,6 +1788,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1067,7 +1827,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1080,6 +1840,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1089,6 +1860,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1290,6 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7477,6 +8257,3246 @@
       <c r="D1000" s="1"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToWidth="0" paperSize="9" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="5.25"/>
+    <col customWidth="1" min="3" max="3" width="44.88"/>
+    <col customWidth="1" min="4" max="4" width="13.5"/>
+    <col customWidth="1" min="5" max="5" width="4.75"/>
+    <col customWidth="1" min="6" max="6" width="5.13"/>
+    <col customWidth="1" min="7" max="7" width="14.25"/>
+    <col customWidth="1" min="8" max="8" width="4.5"/>
+    <col customWidth="1" min="9" max="9" width="4.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2699.0</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3265.0</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="3">
+        <v>184.0</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="3">
+        <v>155.0</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E7" s="3">
+        <v>362.0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="3">
+        <v>135.0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="3">
+        <v>207.0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="3">
+        <v>247.0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67">
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71">
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82">
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84">
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87">
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88">
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89">
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90">
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91">
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92">
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93">
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94">
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95">
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96">
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98">
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99">
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100">
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101">
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102">
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103">
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104">
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105">
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106">
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107">
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108">
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109">
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110">
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111">
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112">
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113">
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114">
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115">
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116">
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117">
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118">
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119">
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120">
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121">
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122">
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123">
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124">
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125">
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126">
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130">
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133">
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134">
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135">
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136">
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137">
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138">
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139">
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140">
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141">
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142">
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143">
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144">
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145">
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146">
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147">
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148">
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149">
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150">
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151">
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153">
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154">
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155">
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156">
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157">
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158">
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159">
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160">
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161">
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162">
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163">
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164">
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165">
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166">
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167">
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168">
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169">
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170">
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171">
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172">
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173">
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174">
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175">
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176">
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177">
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178">
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179">
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180">
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181">
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182">
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183">
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184">
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185">
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186">
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187">
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188">
+      <c r="F188" s="6"/>
+    </row>
+    <row r="189">
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190">
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191">
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192">
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193">
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194">
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195">
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196">
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197">
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198">
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199">
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200">
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201">
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202">
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203">
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204">
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205">
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206">
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207">
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208">
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209">
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210">
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211">
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212">
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213">
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214">
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215">
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216">
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217">
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218">
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219">
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220">
+      <c r="F220" s="6"/>
+    </row>
+    <row r="221">
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222">
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223">
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224">
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225">
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226">
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227">
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228">
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229">
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230">
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231">
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232">
+      <c r="F232" s="6"/>
+    </row>
+    <row r="233">
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234">
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235">
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236">
+      <c r="F236" s="6"/>
+    </row>
+    <row r="237">
+      <c r="F237" s="6"/>
+    </row>
+    <row r="238">
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239">
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240">
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241">
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242">
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243">
+      <c r="F243" s="6"/>
+    </row>
+    <row r="244">
+      <c r="F244" s="6"/>
+    </row>
+    <row r="245">
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246">
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247">
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248">
+      <c r="F248" s="6"/>
+    </row>
+    <row r="249">
+      <c r="F249" s="6"/>
+    </row>
+    <row r="250">
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251">
+      <c r="F251" s="6"/>
+    </row>
+    <row r="252">
+      <c r="F252" s="6"/>
+    </row>
+    <row r="253">
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254">
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255">
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256">
+      <c r="F256" s="6"/>
+    </row>
+    <row r="257">
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258">
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259">
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260">
+      <c r="F260" s="6"/>
+    </row>
+    <row r="261">
+      <c r="F261" s="6"/>
+    </row>
+    <row r="262">
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263">
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264">
+      <c r="F264" s="6"/>
+    </row>
+    <row r="265">
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266">
+      <c r="F266" s="6"/>
+    </row>
+    <row r="267">
+      <c r="F267" s="6"/>
+    </row>
+    <row r="268">
+      <c r="F268" s="6"/>
+    </row>
+    <row r="269">
+      <c r="F269" s="6"/>
+    </row>
+    <row r="270">
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271">
+      <c r="F271" s="6"/>
+    </row>
+    <row r="272">
+      <c r="F272" s="6"/>
+    </row>
+    <row r="273">
+      <c r="F273" s="6"/>
+    </row>
+    <row r="274">
+      <c r="F274" s="6"/>
+    </row>
+    <row r="275">
+      <c r="F275" s="6"/>
+    </row>
+    <row r="276">
+      <c r="F276" s="6"/>
+    </row>
+    <row r="277">
+      <c r="F277" s="6"/>
+    </row>
+    <row r="278">
+      <c r="F278" s="6"/>
+    </row>
+    <row r="279">
+      <c r="F279" s="6"/>
+    </row>
+    <row r="280">
+      <c r="F280" s="6"/>
+    </row>
+    <row r="281">
+      <c r="F281" s="6"/>
+    </row>
+    <row r="282">
+      <c r="F282" s="6"/>
+    </row>
+    <row r="283">
+      <c r="F283" s="6"/>
+    </row>
+    <row r="284">
+      <c r="F284" s="6"/>
+    </row>
+    <row r="285">
+      <c r="F285" s="6"/>
+    </row>
+    <row r="286">
+      <c r="F286" s="6"/>
+    </row>
+    <row r="287">
+      <c r="F287" s="6"/>
+    </row>
+    <row r="288">
+      <c r="F288" s="6"/>
+    </row>
+    <row r="289">
+      <c r="F289" s="6"/>
+    </row>
+    <row r="290">
+      <c r="F290" s="6"/>
+    </row>
+    <row r="291">
+      <c r="F291" s="6"/>
+    </row>
+    <row r="292">
+      <c r="F292" s="6"/>
+    </row>
+    <row r="293">
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294">
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295">
+      <c r="F295" s="6"/>
+    </row>
+    <row r="296">
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297">
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298">
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299">
+      <c r="F299" s="6"/>
+    </row>
+    <row r="300">
+      <c r="F300" s="6"/>
+    </row>
+    <row r="301">
+      <c r="F301" s="6"/>
+    </row>
+    <row r="302">
+      <c r="F302" s="6"/>
+    </row>
+    <row r="303">
+      <c r="F303" s="6"/>
+    </row>
+    <row r="304">
+      <c r="F304" s="6"/>
+    </row>
+    <row r="305">
+      <c r="F305" s="6"/>
+    </row>
+    <row r="306">
+      <c r="F306" s="6"/>
+    </row>
+    <row r="307">
+      <c r="F307" s="6"/>
+    </row>
+    <row r="308">
+      <c r="F308" s="6"/>
+    </row>
+    <row r="309">
+      <c r="F309" s="6"/>
+    </row>
+    <row r="310">
+      <c r="F310" s="6"/>
+    </row>
+    <row r="311">
+      <c r="F311" s="6"/>
+    </row>
+    <row r="312">
+      <c r="F312" s="6"/>
+    </row>
+    <row r="313">
+      <c r="F313" s="6"/>
+    </row>
+    <row r="314">
+      <c r="F314" s="6"/>
+    </row>
+    <row r="315">
+      <c r="F315" s="6"/>
+    </row>
+    <row r="316">
+      <c r="F316" s="6"/>
+    </row>
+    <row r="317">
+      <c r="F317" s="6"/>
+    </row>
+    <row r="318">
+      <c r="F318" s="6"/>
+    </row>
+    <row r="319">
+      <c r="F319" s="6"/>
+    </row>
+    <row r="320">
+      <c r="F320" s="6"/>
+    </row>
+    <row r="321">
+      <c r="F321" s="6"/>
+    </row>
+    <row r="322">
+      <c r="F322" s="6"/>
+    </row>
+    <row r="323">
+      <c r="F323" s="6"/>
+    </row>
+    <row r="324">
+      <c r="F324" s="6"/>
+    </row>
+    <row r="325">
+      <c r="F325" s="6"/>
+    </row>
+    <row r="326">
+      <c r="F326" s="6"/>
+    </row>
+    <row r="327">
+      <c r="F327" s="6"/>
+    </row>
+    <row r="328">
+      <c r="F328" s="6"/>
+    </row>
+    <row r="329">
+      <c r="F329" s="6"/>
+    </row>
+    <row r="330">
+      <c r="F330" s="6"/>
+    </row>
+    <row r="331">
+      <c r="F331" s="6"/>
+    </row>
+    <row r="332">
+      <c r="F332" s="6"/>
+    </row>
+    <row r="333">
+      <c r="F333" s="6"/>
+    </row>
+    <row r="334">
+      <c r="F334" s="6"/>
+    </row>
+    <row r="335">
+      <c r="F335" s="6"/>
+    </row>
+    <row r="336">
+      <c r="F336" s="6"/>
+    </row>
+    <row r="337">
+      <c r="F337" s="6"/>
+    </row>
+    <row r="338">
+      <c r="F338" s="6"/>
+    </row>
+    <row r="339">
+      <c r="F339" s="6"/>
+    </row>
+    <row r="340">
+      <c r="F340" s="6"/>
+    </row>
+    <row r="341">
+      <c r="F341" s="6"/>
+    </row>
+    <row r="342">
+      <c r="F342" s="6"/>
+    </row>
+    <row r="343">
+      <c r="F343" s="6"/>
+    </row>
+    <row r="344">
+      <c r="F344" s="6"/>
+    </row>
+    <row r="345">
+      <c r="F345" s="6"/>
+    </row>
+    <row r="346">
+      <c r="F346" s="6"/>
+    </row>
+    <row r="347">
+      <c r="F347" s="6"/>
+    </row>
+    <row r="348">
+      <c r="F348" s="6"/>
+    </row>
+    <row r="349">
+      <c r="F349" s="6"/>
+    </row>
+    <row r="350">
+      <c r="F350" s="6"/>
+    </row>
+    <row r="351">
+      <c r="F351" s="6"/>
+    </row>
+    <row r="352">
+      <c r="F352" s="6"/>
+    </row>
+    <row r="353">
+      <c r="F353" s="6"/>
+    </row>
+    <row r="354">
+      <c r="F354" s="6"/>
+    </row>
+    <row r="355">
+      <c r="F355" s="6"/>
+    </row>
+    <row r="356">
+      <c r="F356" s="6"/>
+    </row>
+    <row r="357">
+      <c r="F357" s="6"/>
+    </row>
+    <row r="358">
+      <c r="F358" s="6"/>
+    </row>
+    <row r="359">
+      <c r="F359" s="6"/>
+    </row>
+    <row r="360">
+      <c r="F360" s="6"/>
+    </row>
+    <row r="361">
+      <c r="F361" s="6"/>
+    </row>
+    <row r="362">
+      <c r="F362" s="6"/>
+    </row>
+    <row r="363">
+      <c r="F363" s="6"/>
+    </row>
+    <row r="364">
+      <c r="F364" s="6"/>
+    </row>
+    <row r="365">
+      <c r="F365" s="6"/>
+    </row>
+    <row r="366">
+      <c r="F366" s="6"/>
+    </row>
+    <row r="367">
+      <c r="F367" s="6"/>
+    </row>
+    <row r="368">
+      <c r="F368" s="6"/>
+    </row>
+    <row r="369">
+      <c r="F369" s="6"/>
+    </row>
+    <row r="370">
+      <c r="F370" s="6"/>
+    </row>
+    <row r="371">
+      <c r="F371" s="6"/>
+    </row>
+    <row r="372">
+      <c r="F372" s="6"/>
+    </row>
+    <row r="373">
+      <c r="F373" s="6"/>
+    </row>
+    <row r="374">
+      <c r="F374" s="6"/>
+    </row>
+    <row r="375">
+      <c r="F375" s="6"/>
+    </row>
+    <row r="376">
+      <c r="F376" s="6"/>
+    </row>
+    <row r="377">
+      <c r="F377" s="6"/>
+    </row>
+    <row r="378">
+      <c r="F378" s="6"/>
+    </row>
+    <row r="379">
+      <c r="F379" s="6"/>
+    </row>
+    <row r="380">
+      <c r="F380" s="6"/>
+    </row>
+    <row r="381">
+      <c r="F381" s="6"/>
+    </row>
+    <row r="382">
+      <c r="F382" s="6"/>
+    </row>
+    <row r="383">
+      <c r="F383" s="6"/>
+    </row>
+    <row r="384">
+      <c r="F384" s="6"/>
+    </row>
+    <row r="385">
+      <c r="F385" s="6"/>
+    </row>
+    <row r="386">
+      <c r="F386" s="6"/>
+    </row>
+    <row r="387">
+      <c r="F387" s="6"/>
+    </row>
+    <row r="388">
+      <c r="F388" s="6"/>
+    </row>
+    <row r="389">
+      <c r="F389" s="6"/>
+    </row>
+    <row r="390">
+      <c r="F390" s="6"/>
+    </row>
+    <row r="391">
+      <c r="F391" s="6"/>
+    </row>
+    <row r="392">
+      <c r="F392" s="6"/>
+    </row>
+    <row r="393">
+      <c r="F393" s="6"/>
+    </row>
+    <row r="394">
+      <c r="F394" s="6"/>
+    </row>
+    <row r="395">
+      <c r="F395" s="6"/>
+    </row>
+    <row r="396">
+      <c r="F396" s="6"/>
+    </row>
+    <row r="397">
+      <c r="F397" s="6"/>
+    </row>
+    <row r="398">
+      <c r="F398" s="6"/>
+    </row>
+    <row r="399">
+      <c r="F399" s="6"/>
+    </row>
+    <row r="400">
+      <c r="F400" s="6"/>
+    </row>
+    <row r="401">
+      <c r="F401" s="6"/>
+    </row>
+    <row r="402">
+      <c r="F402" s="6"/>
+    </row>
+    <row r="403">
+      <c r="F403" s="6"/>
+    </row>
+    <row r="404">
+      <c r="F404" s="6"/>
+    </row>
+    <row r="405">
+      <c r="F405" s="6"/>
+    </row>
+    <row r="406">
+      <c r="F406" s="6"/>
+    </row>
+    <row r="407">
+      <c r="F407" s="6"/>
+    </row>
+    <row r="408">
+      <c r="F408" s="6"/>
+    </row>
+    <row r="409">
+      <c r="F409" s="6"/>
+    </row>
+    <row r="410">
+      <c r="F410" s="6"/>
+    </row>
+    <row r="411">
+      <c r="F411" s="6"/>
+    </row>
+    <row r="412">
+      <c r="F412" s="6"/>
+    </row>
+    <row r="413">
+      <c r="F413" s="6"/>
+    </row>
+    <row r="414">
+      <c r="F414" s="6"/>
+    </row>
+    <row r="415">
+      <c r="F415" s="6"/>
+    </row>
+    <row r="416">
+      <c r="F416" s="6"/>
+    </row>
+    <row r="417">
+      <c r="F417" s="6"/>
+    </row>
+    <row r="418">
+      <c r="F418" s="6"/>
+    </row>
+    <row r="419">
+      <c r="F419" s="6"/>
+    </row>
+    <row r="420">
+      <c r="F420" s="6"/>
+    </row>
+    <row r="421">
+      <c r="F421" s="6"/>
+    </row>
+    <row r="422">
+      <c r="F422" s="6"/>
+    </row>
+    <row r="423">
+      <c r="F423" s="6"/>
+    </row>
+    <row r="424">
+      <c r="F424" s="6"/>
+    </row>
+    <row r="425">
+      <c r="F425" s="6"/>
+    </row>
+    <row r="426">
+      <c r="F426" s="6"/>
+    </row>
+    <row r="427">
+      <c r="F427" s="6"/>
+    </row>
+    <row r="428">
+      <c r="F428" s="6"/>
+    </row>
+    <row r="429">
+      <c r="F429" s="6"/>
+    </row>
+    <row r="430">
+      <c r="F430" s="6"/>
+    </row>
+    <row r="431">
+      <c r="F431" s="6"/>
+    </row>
+    <row r="432">
+      <c r="F432" s="6"/>
+    </row>
+    <row r="433">
+      <c r="F433" s="6"/>
+    </row>
+    <row r="434">
+      <c r="F434" s="6"/>
+    </row>
+    <row r="435">
+      <c r="F435" s="6"/>
+    </row>
+    <row r="436">
+      <c r="F436" s="6"/>
+    </row>
+    <row r="437">
+      <c r="F437" s="6"/>
+    </row>
+    <row r="438">
+      <c r="F438" s="6"/>
+    </row>
+    <row r="439">
+      <c r="F439" s="6"/>
+    </row>
+    <row r="440">
+      <c r="F440" s="6"/>
+    </row>
+    <row r="441">
+      <c r="F441" s="6"/>
+    </row>
+    <row r="442">
+      <c r="F442" s="6"/>
+    </row>
+    <row r="443">
+      <c r="F443" s="6"/>
+    </row>
+    <row r="444">
+      <c r="F444" s="6"/>
+    </row>
+    <row r="445">
+      <c r="F445" s="6"/>
+    </row>
+    <row r="446">
+      <c r="F446" s="6"/>
+    </row>
+    <row r="447">
+      <c r="F447" s="6"/>
+    </row>
+    <row r="448">
+      <c r="F448" s="6"/>
+    </row>
+    <row r="449">
+      <c r="F449" s="6"/>
+    </row>
+    <row r="450">
+      <c r="F450" s="6"/>
+    </row>
+    <row r="451">
+      <c r="F451" s="6"/>
+    </row>
+    <row r="452">
+      <c r="F452" s="6"/>
+    </row>
+    <row r="453">
+      <c r="F453" s="6"/>
+    </row>
+    <row r="454">
+      <c r="F454" s="6"/>
+    </row>
+    <row r="455">
+      <c r="F455" s="6"/>
+    </row>
+    <row r="456">
+      <c r="F456" s="6"/>
+    </row>
+    <row r="457">
+      <c r="F457" s="6"/>
+    </row>
+    <row r="458">
+      <c r="F458" s="6"/>
+    </row>
+    <row r="459">
+      <c r="F459" s="6"/>
+    </row>
+    <row r="460">
+      <c r="F460" s="6"/>
+    </row>
+    <row r="461">
+      <c r="F461" s="6"/>
+    </row>
+    <row r="462">
+      <c r="F462" s="6"/>
+    </row>
+    <row r="463">
+      <c r="F463" s="6"/>
+    </row>
+    <row r="464">
+      <c r="F464" s="6"/>
+    </row>
+    <row r="465">
+      <c r="F465" s="6"/>
+    </row>
+    <row r="466">
+      <c r="F466" s="6"/>
+    </row>
+    <row r="467">
+      <c r="F467" s="6"/>
+    </row>
+    <row r="468">
+      <c r="F468" s="6"/>
+    </row>
+    <row r="469">
+      <c r="F469" s="6"/>
+    </row>
+    <row r="470">
+      <c r="F470" s="6"/>
+    </row>
+    <row r="471">
+      <c r="F471" s="6"/>
+    </row>
+    <row r="472">
+      <c r="F472" s="6"/>
+    </row>
+    <row r="473">
+      <c r="F473" s="6"/>
+    </row>
+    <row r="474">
+      <c r="F474" s="6"/>
+    </row>
+    <row r="475">
+      <c r="F475" s="6"/>
+    </row>
+    <row r="476">
+      <c r="F476" s="6"/>
+    </row>
+    <row r="477">
+      <c r="F477" s="6"/>
+    </row>
+    <row r="478">
+      <c r="F478" s="6"/>
+    </row>
+    <row r="479">
+      <c r="F479" s="6"/>
+    </row>
+    <row r="480">
+      <c r="F480" s="6"/>
+    </row>
+    <row r="481">
+      <c r="F481" s="6"/>
+    </row>
+    <row r="482">
+      <c r="F482" s="6"/>
+    </row>
+    <row r="483">
+      <c r="F483" s="6"/>
+    </row>
+    <row r="484">
+      <c r="F484" s="6"/>
+    </row>
+    <row r="485">
+      <c r="F485" s="6"/>
+    </row>
+    <row r="486">
+      <c r="F486" s="6"/>
+    </row>
+    <row r="487">
+      <c r="F487" s="6"/>
+    </row>
+    <row r="488">
+      <c r="F488" s="6"/>
+    </row>
+    <row r="489">
+      <c r="F489" s="6"/>
+    </row>
+    <row r="490">
+      <c r="F490" s="6"/>
+    </row>
+    <row r="491">
+      <c r="F491" s="6"/>
+    </row>
+    <row r="492">
+      <c r="F492" s="6"/>
+    </row>
+    <row r="493">
+      <c r="F493" s="6"/>
+    </row>
+    <row r="494">
+      <c r="F494" s="6"/>
+    </row>
+    <row r="495">
+      <c r="F495" s="6"/>
+    </row>
+    <row r="496">
+      <c r="F496" s="6"/>
+    </row>
+    <row r="497">
+      <c r="F497" s="6"/>
+    </row>
+    <row r="498">
+      <c r="F498" s="6"/>
+    </row>
+    <row r="499">
+      <c r="F499" s="6"/>
+    </row>
+    <row r="500">
+      <c r="F500" s="6"/>
+    </row>
+    <row r="501">
+      <c r="F501" s="6"/>
+    </row>
+    <row r="502">
+      <c r="F502" s="6"/>
+    </row>
+    <row r="503">
+      <c r="F503" s="6"/>
+    </row>
+    <row r="504">
+      <c r="F504" s="6"/>
+    </row>
+    <row r="505">
+      <c r="F505" s="6"/>
+    </row>
+    <row r="506">
+      <c r="F506" s="6"/>
+    </row>
+    <row r="507">
+      <c r="F507" s="6"/>
+    </row>
+    <row r="508">
+      <c r="F508" s="6"/>
+    </row>
+    <row r="509">
+      <c r="F509" s="6"/>
+    </row>
+    <row r="510">
+      <c r="F510" s="6"/>
+    </row>
+    <row r="511">
+      <c r="F511" s="6"/>
+    </row>
+    <row r="512">
+      <c r="F512" s="6"/>
+    </row>
+    <row r="513">
+      <c r="F513" s="6"/>
+    </row>
+    <row r="514">
+      <c r="F514" s="6"/>
+    </row>
+    <row r="515">
+      <c r="F515" s="6"/>
+    </row>
+    <row r="516">
+      <c r="F516" s="6"/>
+    </row>
+    <row r="517">
+      <c r="F517" s="6"/>
+    </row>
+    <row r="518">
+      <c r="F518" s="6"/>
+    </row>
+    <row r="519">
+      <c r="F519" s="6"/>
+    </row>
+    <row r="520">
+      <c r="F520" s="6"/>
+    </row>
+    <row r="521">
+      <c r="F521" s="6"/>
+    </row>
+    <row r="522">
+      <c r="F522" s="6"/>
+    </row>
+    <row r="523">
+      <c r="F523" s="6"/>
+    </row>
+    <row r="524">
+      <c r="F524" s="6"/>
+    </row>
+    <row r="525">
+      <c r="F525" s="6"/>
+    </row>
+    <row r="526">
+      <c r="F526" s="6"/>
+    </row>
+    <row r="527">
+      <c r="F527" s="6"/>
+    </row>
+    <row r="528">
+      <c r="F528" s="6"/>
+    </row>
+    <row r="529">
+      <c r="F529" s="6"/>
+    </row>
+    <row r="530">
+      <c r="F530" s="6"/>
+    </row>
+    <row r="531">
+      <c r="F531" s="6"/>
+    </row>
+    <row r="532">
+      <c r="F532" s="6"/>
+    </row>
+    <row r="533">
+      <c r="F533" s="6"/>
+    </row>
+    <row r="534">
+      <c r="F534" s="6"/>
+    </row>
+    <row r="535">
+      <c r="F535" s="6"/>
+    </row>
+    <row r="536">
+      <c r="F536" s="6"/>
+    </row>
+    <row r="537">
+      <c r="F537" s="6"/>
+    </row>
+    <row r="538">
+      <c r="F538" s="6"/>
+    </row>
+    <row r="539">
+      <c r="F539" s="6"/>
+    </row>
+    <row r="540">
+      <c r="F540" s="6"/>
+    </row>
+    <row r="541">
+      <c r="F541" s="6"/>
+    </row>
+    <row r="542">
+      <c r="F542" s="6"/>
+    </row>
+    <row r="543">
+      <c r="F543" s="6"/>
+    </row>
+    <row r="544">
+      <c r="F544" s="6"/>
+    </row>
+    <row r="545">
+      <c r="F545" s="6"/>
+    </row>
+    <row r="546">
+      <c r="F546" s="6"/>
+    </row>
+    <row r="547">
+      <c r="F547" s="6"/>
+    </row>
+    <row r="548">
+      <c r="F548" s="6"/>
+    </row>
+    <row r="549">
+      <c r="F549" s="6"/>
+    </row>
+    <row r="550">
+      <c r="F550" s="6"/>
+    </row>
+    <row r="551">
+      <c r="F551" s="6"/>
+    </row>
+    <row r="552">
+      <c r="F552" s="6"/>
+    </row>
+    <row r="553">
+      <c r="F553" s="6"/>
+    </row>
+    <row r="554">
+      <c r="F554" s="6"/>
+    </row>
+    <row r="555">
+      <c r="F555" s="6"/>
+    </row>
+    <row r="556">
+      <c r="F556" s="6"/>
+    </row>
+    <row r="557">
+      <c r="F557" s="6"/>
+    </row>
+    <row r="558">
+      <c r="F558" s="6"/>
+    </row>
+    <row r="559">
+      <c r="F559" s="6"/>
+    </row>
+    <row r="560">
+      <c r="F560" s="6"/>
+    </row>
+    <row r="561">
+      <c r="F561" s="6"/>
+    </row>
+    <row r="562">
+      <c r="F562" s="6"/>
+    </row>
+    <row r="563">
+      <c r="F563" s="6"/>
+    </row>
+    <row r="564">
+      <c r="F564" s="6"/>
+    </row>
+    <row r="565">
+      <c r="F565" s="6"/>
+    </row>
+    <row r="566">
+      <c r="F566" s="6"/>
+    </row>
+    <row r="567">
+      <c r="F567" s="6"/>
+    </row>
+    <row r="568">
+      <c r="F568" s="6"/>
+    </row>
+    <row r="569">
+      <c r="F569" s="6"/>
+    </row>
+    <row r="570">
+      <c r="F570" s="6"/>
+    </row>
+    <row r="571">
+      <c r="F571" s="6"/>
+    </row>
+    <row r="572">
+      <c r="F572" s="6"/>
+    </row>
+    <row r="573">
+      <c r="F573" s="6"/>
+    </row>
+    <row r="574">
+      <c r="F574" s="6"/>
+    </row>
+    <row r="575">
+      <c r="F575" s="6"/>
+    </row>
+    <row r="576">
+      <c r="F576" s="6"/>
+    </row>
+    <row r="577">
+      <c r="F577" s="6"/>
+    </row>
+    <row r="578">
+      <c r="F578" s="6"/>
+    </row>
+    <row r="579">
+      <c r="F579" s="6"/>
+    </row>
+    <row r="580">
+      <c r="F580" s="6"/>
+    </row>
+    <row r="581">
+      <c r="F581" s="6"/>
+    </row>
+    <row r="582">
+      <c r="F582" s="6"/>
+    </row>
+    <row r="583">
+      <c r="F583" s="6"/>
+    </row>
+    <row r="584">
+      <c r="F584" s="6"/>
+    </row>
+    <row r="585">
+      <c r="F585" s="6"/>
+    </row>
+    <row r="586">
+      <c r="F586" s="6"/>
+    </row>
+    <row r="587">
+      <c r="F587" s="6"/>
+    </row>
+    <row r="588">
+      <c r="F588" s="6"/>
+    </row>
+    <row r="589">
+      <c r="F589" s="6"/>
+    </row>
+    <row r="590">
+      <c r="F590" s="6"/>
+    </row>
+    <row r="591">
+      <c r="F591" s="6"/>
+    </row>
+    <row r="592">
+      <c r="F592" s="6"/>
+    </row>
+    <row r="593">
+      <c r="F593" s="6"/>
+    </row>
+    <row r="594">
+      <c r="F594" s="6"/>
+    </row>
+    <row r="595">
+      <c r="F595" s="6"/>
+    </row>
+    <row r="596">
+      <c r="F596" s="6"/>
+    </row>
+    <row r="597">
+      <c r="F597" s="6"/>
+    </row>
+    <row r="598">
+      <c r="F598" s="6"/>
+    </row>
+    <row r="599">
+      <c r="F599" s="6"/>
+    </row>
+    <row r="600">
+      <c r="F600" s="6"/>
+    </row>
+    <row r="601">
+      <c r="F601" s="6"/>
+    </row>
+    <row r="602">
+      <c r="F602" s="6"/>
+    </row>
+    <row r="603">
+      <c r="F603" s="6"/>
+    </row>
+    <row r="604">
+      <c r="F604" s="6"/>
+    </row>
+    <row r="605">
+      <c r="F605" s="6"/>
+    </row>
+    <row r="606">
+      <c r="F606" s="6"/>
+    </row>
+    <row r="607">
+      <c r="F607" s="6"/>
+    </row>
+    <row r="608">
+      <c r="F608" s="6"/>
+    </row>
+    <row r="609">
+      <c r="F609" s="6"/>
+    </row>
+    <row r="610">
+      <c r="F610" s="6"/>
+    </row>
+    <row r="611">
+      <c r="F611" s="6"/>
+    </row>
+    <row r="612">
+      <c r="F612" s="6"/>
+    </row>
+    <row r="613">
+      <c r="F613" s="6"/>
+    </row>
+    <row r="614">
+      <c r="F614" s="6"/>
+    </row>
+    <row r="615">
+      <c r="F615" s="6"/>
+    </row>
+    <row r="616">
+      <c r="F616" s="6"/>
+    </row>
+    <row r="617">
+      <c r="F617" s="6"/>
+    </row>
+    <row r="618">
+      <c r="F618" s="6"/>
+    </row>
+    <row r="619">
+      <c r="F619" s="6"/>
+    </row>
+    <row r="620">
+      <c r="F620" s="6"/>
+    </row>
+    <row r="621">
+      <c r="F621" s="6"/>
+    </row>
+    <row r="622">
+      <c r="F622" s="6"/>
+    </row>
+    <row r="623">
+      <c r="F623" s="6"/>
+    </row>
+    <row r="624">
+      <c r="F624" s="6"/>
+    </row>
+    <row r="625">
+      <c r="F625" s="6"/>
+    </row>
+    <row r="626">
+      <c r="F626" s="6"/>
+    </row>
+    <row r="627">
+      <c r="F627" s="6"/>
+    </row>
+    <row r="628">
+      <c r="F628" s="6"/>
+    </row>
+    <row r="629">
+      <c r="F629" s="6"/>
+    </row>
+    <row r="630">
+      <c r="F630" s="6"/>
+    </row>
+    <row r="631">
+      <c r="F631" s="6"/>
+    </row>
+    <row r="632">
+      <c r="F632" s="6"/>
+    </row>
+    <row r="633">
+      <c r="F633" s="6"/>
+    </row>
+    <row r="634">
+      <c r="F634" s="6"/>
+    </row>
+    <row r="635">
+      <c r="F635" s="6"/>
+    </row>
+    <row r="636">
+      <c r="F636" s="6"/>
+    </row>
+    <row r="637">
+      <c r="F637" s="6"/>
+    </row>
+    <row r="638">
+      <c r="F638" s="6"/>
+    </row>
+    <row r="639">
+      <c r="F639" s="6"/>
+    </row>
+    <row r="640">
+      <c r="F640" s="6"/>
+    </row>
+    <row r="641">
+      <c r="F641" s="6"/>
+    </row>
+    <row r="642">
+      <c r="F642" s="6"/>
+    </row>
+    <row r="643">
+      <c r="F643" s="6"/>
+    </row>
+    <row r="644">
+      <c r="F644" s="6"/>
+    </row>
+    <row r="645">
+      <c r="F645" s="6"/>
+    </row>
+    <row r="646">
+      <c r="F646" s="6"/>
+    </row>
+    <row r="647">
+      <c r="F647" s="6"/>
+    </row>
+    <row r="648">
+      <c r="F648" s="6"/>
+    </row>
+    <row r="649">
+      <c r="F649" s="6"/>
+    </row>
+    <row r="650">
+      <c r="F650" s="6"/>
+    </row>
+    <row r="651">
+      <c r="F651" s="6"/>
+    </row>
+    <row r="652">
+      <c r="F652" s="6"/>
+    </row>
+    <row r="653">
+      <c r="F653" s="6"/>
+    </row>
+    <row r="654">
+      <c r="F654" s="6"/>
+    </row>
+    <row r="655">
+      <c r="F655" s="6"/>
+    </row>
+    <row r="656">
+      <c r="F656" s="6"/>
+    </row>
+    <row r="657">
+      <c r="F657" s="6"/>
+    </row>
+    <row r="658">
+      <c r="F658" s="6"/>
+    </row>
+    <row r="659">
+      <c r="F659" s="6"/>
+    </row>
+    <row r="660">
+      <c r="F660" s="6"/>
+    </row>
+    <row r="661">
+      <c r="F661" s="6"/>
+    </row>
+    <row r="662">
+      <c r="F662" s="6"/>
+    </row>
+    <row r="663">
+      <c r="F663" s="6"/>
+    </row>
+    <row r="664">
+      <c r="F664" s="6"/>
+    </row>
+    <row r="665">
+      <c r="F665" s="6"/>
+    </row>
+    <row r="666">
+      <c r="F666" s="6"/>
+    </row>
+    <row r="667">
+      <c r="F667" s="6"/>
+    </row>
+    <row r="668">
+      <c r="F668" s="6"/>
+    </row>
+    <row r="669">
+      <c r="F669" s="6"/>
+    </row>
+    <row r="670">
+      <c r="F670" s="6"/>
+    </row>
+    <row r="671">
+      <c r="F671" s="6"/>
+    </row>
+    <row r="672">
+      <c r="F672" s="6"/>
+    </row>
+    <row r="673">
+      <c r="F673" s="6"/>
+    </row>
+    <row r="674">
+      <c r="F674" s="6"/>
+    </row>
+    <row r="675">
+      <c r="F675" s="6"/>
+    </row>
+    <row r="676">
+      <c r="F676" s="6"/>
+    </row>
+    <row r="677">
+      <c r="F677" s="6"/>
+    </row>
+    <row r="678">
+      <c r="F678" s="6"/>
+    </row>
+    <row r="679">
+      <c r="F679" s="6"/>
+    </row>
+    <row r="680">
+      <c r="F680" s="6"/>
+    </row>
+    <row r="681">
+      <c r="F681" s="6"/>
+    </row>
+    <row r="682">
+      <c r="F682" s="6"/>
+    </row>
+    <row r="683">
+      <c r="F683" s="6"/>
+    </row>
+    <row r="684">
+      <c r="F684" s="6"/>
+    </row>
+    <row r="685">
+      <c r="F685" s="6"/>
+    </row>
+    <row r="686">
+      <c r="F686" s="6"/>
+    </row>
+    <row r="687">
+      <c r="F687" s="6"/>
+    </row>
+    <row r="688">
+      <c r="F688" s="6"/>
+    </row>
+    <row r="689">
+      <c r="F689" s="6"/>
+    </row>
+    <row r="690">
+      <c r="F690" s="6"/>
+    </row>
+    <row r="691">
+      <c r="F691" s="6"/>
+    </row>
+    <row r="692">
+      <c r="F692" s="6"/>
+    </row>
+    <row r="693">
+      <c r="F693" s="6"/>
+    </row>
+    <row r="694">
+      <c r="F694" s="6"/>
+    </row>
+    <row r="695">
+      <c r="F695" s="6"/>
+    </row>
+    <row r="696">
+      <c r="F696" s="6"/>
+    </row>
+    <row r="697">
+      <c r="F697" s="6"/>
+    </row>
+    <row r="698">
+      <c r="F698" s="6"/>
+    </row>
+    <row r="699">
+      <c r="F699" s="6"/>
+    </row>
+    <row r="700">
+      <c r="F700" s="6"/>
+    </row>
+    <row r="701">
+      <c r="F701" s="6"/>
+    </row>
+    <row r="702">
+      <c r="F702" s="6"/>
+    </row>
+    <row r="703">
+      <c r="F703" s="6"/>
+    </row>
+    <row r="704">
+      <c r="F704" s="6"/>
+    </row>
+    <row r="705">
+      <c r="F705" s="6"/>
+    </row>
+    <row r="706">
+      <c r="F706" s="6"/>
+    </row>
+    <row r="707">
+      <c r="F707" s="6"/>
+    </row>
+    <row r="708">
+      <c r="F708" s="6"/>
+    </row>
+    <row r="709">
+      <c r="F709" s="6"/>
+    </row>
+    <row r="710">
+      <c r="F710" s="6"/>
+    </row>
+    <row r="711">
+      <c r="F711" s="6"/>
+    </row>
+    <row r="712">
+      <c r="F712" s="6"/>
+    </row>
+    <row r="713">
+      <c r="F713" s="6"/>
+    </row>
+    <row r="714">
+      <c r="F714" s="6"/>
+    </row>
+    <row r="715">
+      <c r="F715" s="6"/>
+    </row>
+    <row r="716">
+      <c r="F716" s="6"/>
+    </row>
+    <row r="717">
+      <c r="F717" s="6"/>
+    </row>
+    <row r="718">
+      <c r="F718" s="6"/>
+    </row>
+    <row r="719">
+      <c r="F719" s="6"/>
+    </row>
+    <row r="720">
+      <c r="F720" s="6"/>
+    </row>
+    <row r="721">
+      <c r="F721" s="6"/>
+    </row>
+    <row r="722">
+      <c r="F722" s="6"/>
+    </row>
+    <row r="723">
+      <c r="F723" s="6"/>
+    </row>
+    <row r="724">
+      <c r="F724" s="6"/>
+    </row>
+    <row r="725">
+      <c r="F725" s="6"/>
+    </row>
+    <row r="726">
+      <c r="F726" s="6"/>
+    </row>
+    <row r="727">
+      <c r="F727" s="6"/>
+    </row>
+    <row r="728">
+      <c r="F728" s="6"/>
+    </row>
+    <row r="729">
+      <c r="F729" s="6"/>
+    </row>
+    <row r="730">
+      <c r="F730" s="6"/>
+    </row>
+    <row r="731">
+      <c r="F731" s="6"/>
+    </row>
+    <row r="732">
+      <c r="F732" s="6"/>
+    </row>
+    <row r="733">
+      <c r="F733" s="6"/>
+    </row>
+    <row r="734">
+      <c r="F734" s="6"/>
+    </row>
+    <row r="735">
+      <c r="F735" s="6"/>
+    </row>
+    <row r="736">
+      <c r="F736" s="6"/>
+    </row>
+    <row r="737">
+      <c r="F737" s="6"/>
+    </row>
+    <row r="738">
+      <c r="F738" s="6"/>
+    </row>
+    <row r="739">
+      <c r="F739" s="6"/>
+    </row>
+    <row r="740">
+      <c r="F740" s="6"/>
+    </row>
+    <row r="741">
+      <c r="F741" s="6"/>
+    </row>
+    <row r="742">
+      <c r="F742" s="6"/>
+    </row>
+    <row r="743">
+      <c r="F743" s="6"/>
+    </row>
+    <row r="744">
+      <c r="F744" s="6"/>
+    </row>
+    <row r="745">
+      <c r="F745" s="6"/>
+    </row>
+    <row r="746">
+      <c r="F746" s="6"/>
+    </row>
+    <row r="747">
+      <c r="F747" s="6"/>
+    </row>
+    <row r="748">
+      <c r="F748" s="6"/>
+    </row>
+    <row r="749">
+      <c r="F749" s="6"/>
+    </row>
+    <row r="750">
+      <c r="F750" s="6"/>
+    </row>
+    <row r="751">
+      <c r="F751" s="6"/>
+    </row>
+    <row r="752">
+      <c r="F752" s="6"/>
+    </row>
+    <row r="753">
+      <c r="F753" s="6"/>
+    </row>
+    <row r="754">
+      <c r="F754" s="6"/>
+    </row>
+    <row r="755">
+      <c r="F755" s="6"/>
+    </row>
+    <row r="756">
+      <c r="F756" s="6"/>
+    </row>
+    <row r="757">
+      <c r="F757" s="6"/>
+    </row>
+    <row r="758">
+      <c r="F758" s="6"/>
+    </row>
+    <row r="759">
+      <c r="F759" s="6"/>
+    </row>
+    <row r="760">
+      <c r="F760" s="6"/>
+    </row>
+    <row r="761">
+      <c r="F761" s="6"/>
+    </row>
+    <row r="762">
+      <c r="F762" s="6"/>
+    </row>
+    <row r="763">
+      <c r="F763" s="6"/>
+    </row>
+    <row r="764">
+      <c r="F764" s="6"/>
+    </row>
+    <row r="765">
+      <c r="F765" s="6"/>
+    </row>
+    <row r="766">
+      <c r="F766" s="6"/>
+    </row>
+    <row r="767">
+      <c r="F767" s="6"/>
+    </row>
+    <row r="768">
+      <c r="F768" s="6"/>
+    </row>
+    <row r="769">
+      <c r="F769" s="6"/>
+    </row>
+    <row r="770">
+      <c r="F770" s="6"/>
+    </row>
+    <row r="771">
+      <c r="F771" s="6"/>
+    </row>
+    <row r="772">
+      <c r="F772" s="6"/>
+    </row>
+    <row r="773">
+      <c r="F773" s="6"/>
+    </row>
+    <row r="774">
+      <c r="F774" s="6"/>
+    </row>
+    <row r="775">
+      <c r="F775" s="6"/>
+    </row>
+    <row r="776">
+      <c r="F776" s="6"/>
+    </row>
+    <row r="777">
+      <c r="F777" s="6"/>
+    </row>
+    <row r="778">
+      <c r="F778" s="6"/>
+    </row>
+    <row r="779">
+      <c r="F779" s="6"/>
+    </row>
+    <row r="780">
+      <c r="F780" s="6"/>
+    </row>
+    <row r="781">
+      <c r="F781" s="6"/>
+    </row>
+    <row r="782">
+      <c r="F782" s="6"/>
+    </row>
+    <row r="783">
+      <c r="F783" s="6"/>
+    </row>
+    <row r="784">
+      <c r="F784" s="6"/>
+    </row>
+    <row r="785">
+      <c r="F785" s="6"/>
+    </row>
+    <row r="786">
+      <c r="F786" s="6"/>
+    </row>
+    <row r="787">
+      <c r="F787" s="6"/>
+    </row>
+    <row r="788">
+      <c r="F788" s="6"/>
+    </row>
+    <row r="789">
+      <c r="F789" s="6"/>
+    </row>
+    <row r="790">
+      <c r="F790" s="6"/>
+    </row>
+    <row r="791">
+      <c r="F791" s="6"/>
+    </row>
+    <row r="792">
+      <c r="F792" s="6"/>
+    </row>
+    <row r="793">
+      <c r="F793" s="6"/>
+    </row>
+    <row r="794">
+      <c r="F794" s="6"/>
+    </row>
+    <row r="795">
+      <c r="F795" s="6"/>
+    </row>
+    <row r="796">
+      <c r="F796" s="6"/>
+    </row>
+    <row r="797">
+      <c r="F797" s="6"/>
+    </row>
+    <row r="798">
+      <c r="F798" s="6"/>
+    </row>
+    <row r="799">
+      <c r="F799" s="6"/>
+    </row>
+    <row r="800">
+      <c r="F800" s="6"/>
+    </row>
+    <row r="801">
+      <c r="F801" s="6"/>
+    </row>
+    <row r="802">
+      <c r="F802" s="6"/>
+    </row>
+    <row r="803">
+      <c r="F803" s="6"/>
+    </row>
+    <row r="804">
+      <c r="F804" s="6"/>
+    </row>
+    <row r="805">
+      <c r="F805" s="6"/>
+    </row>
+    <row r="806">
+      <c r="F806" s="6"/>
+    </row>
+    <row r="807">
+      <c r="F807" s="6"/>
+    </row>
+    <row r="808">
+      <c r="F808" s="6"/>
+    </row>
+    <row r="809">
+      <c r="F809" s="6"/>
+    </row>
+    <row r="810">
+      <c r="F810" s="6"/>
+    </row>
+    <row r="811">
+      <c r="F811" s="6"/>
+    </row>
+    <row r="812">
+      <c r="F812" s="6"/>
+    </row>
+    <row r="813">
+      <c r="F813" s="6"/>
+    </row>
+    <row r="814">
+      <c r="F814" s="6"/>
+    </row>
+    <row r="815">
+      <c r="F815" s="6"/>
+    </row>
+    <row r="816">
+      <c r="F816" s="6"/>
+    </row>
+    <row r="817">
+      <c r="F817" s="6"/>
+    </row>
+    <row r="818">
+      <c r="F818" s="6"/>
+    </row>
+    <row r="819">
+      <c r="F819" s="6"/>
+    </row>
+    <row r="820">
+      <c r="F820" s="6"/>
+    </row>
+    <row r="821">
+      <c r="F821" s="6"/>
+    </row>
+    <row r="822">
+      <c r="F822" s="6"/>
+    </row>
+    <row r="823">
+      <c r="F823" s="6"/>
+    </row>
+    <row r="824">
+      <c r="F824" s="6"/>
+    </row>
+    <row r="825">
+      <c r="F825" s="6"/>
+    </row>
+    <row r="826">
+      <c r="F826" s="6"/>
+    </row>
+    <row r="827">
+      <c r="F827" s="6"/>
+    </row>
+    <row r="828">
+      <c r="F828" s="6"/>
+    </row>
+    <row r="829">
+      <c r="F829" s="6"/>
+    </row>
+    <row r="830">
+      <c r="F830" s="6"/>
+    </row>
+    <row r="831">
+      <c r="F831" s="6"/>
+    </row>
+    <row r="832">
+      <c r="F832" s="6"/>
+    </row>
+    <row r="833">
+      <c r="F833" s="6"/>
+    </row>
+    <row r="834">
+      <c r="F834" s="6"/>
+    </row>
+    <row r="835">
+      <c r="F835" s="6"/>
+    </row>
+    <row r="836">
+      <c r="F836" s="6"/>
+    </row>
+    <row r="837">
+      <c r="F837" s="6"/>
+    </row>
+    <row r="838">
+      <c r="F838" s="6"/>
+    </row>
+    <row r="839">
+      <c r="F839" s="6"/>
+    </row>
+    <row r="840">
+      <c r="F840" s="6"/>
+    </row>
+    <row r="841">
+      <c r="F841" s="6"/>
+    </row>
+    <row r="842">
+      <c r="F842" s="6"/>
+    </row>
+    <row r="843">
+      <c r="F843" s="6"/>
+    </row>
+    <row r="844">
+      <c r="F844" s="6"/>
+    </row>
+    <row r="845">
+      <c r="F845" s="6"/>
+    </row>
+    <row r="846">
+      <c r="F846" s="6"/>
+    </row>
+    <row r="847">
+      <c r="F847" s="6"/>
+    </row>
+    <row r="848">
+      <c r="F848" s="6"/>
+    </row>
+    <row r="849">
+      <c r="F849" s="6"/>
+    </row>
+    <row r="850">
+      <c r="F850" s="6"/>
+    </row>
+    <row r="851">
+      <c r="F851" s="6"/>
+    </row>
+    <row r="852">
+      <c r="F852" s="6"/>
+    </row>
+    <row r="853">
+      <c r="F853" s="6"/>
+    </row>
+    <row r="854">
+      <c r="F854" s="6"/>
+    </row>
+    <row r="855">
+      <c r="F855" s="6"/>
+    </row>
+    <row r="856">
+      <c r="F856" s="6"/>
+    </row>
+    <row r="857">
+      <c r="F857" s="6"/>
+    </row>
+    <row r="858">
+      <c r="F858" s="6"/>
+    </row>
+    <row r="859">
+      <c r="F859" s="6"/>
+    </row>
+    <row r="860">
+      <c r="F860" s="6"/>
+    </row>
+    <row r="861">
+      <c r="F861" s="6"/>
+    </row>
+    <row r="862">
+      <c r="F862" s="6"/>
+    </row>
+    <row r="863">
+      <c r="F863" s="6"/>
+    </row>
+    <row r="864">
+      <c r="F864" s="6"/>
+    </row>
+    <row r="865">
+      <c r="F865" s="6"/>
+    </row>
+    <row r="866">
+      <c r="F866" s="6"/>
+    </row>
+    <row r="867">
+      <c r="F867" s="6"/>
+    </row>
+    <row r="868">
+      <c r="F868" s="6"/>
+    </row>
+    <row r="869">
+      <c r="F869" s="6"/>
+    </row>
+    <row r="870">
+      <c r="F870" s="6"/>
+    </row>
+    <row r="871">
+      <c r="F871" s="6"/>
+    </row>
+    <row r="872">
+      <c r="F872" s="6"/>
+    </row>
+    <row r="873">
+      <c r="F873" s="6"/>
+    </row>
+    <row r="874">
+      <c r="F874" s="6"/>
+    </row>
+    <row r="875">
+      <c r="F875" s="6"/>
+    </row>
+    <row r="876">
+      <c r="F876" s="6"/>
+    </row>
+    <row r="877">
+      <c r="F877" s="6"/>
+    </row>
+    <row r="878">
+      <c r="F878" s="6"/>
+    </row>
+    <row r="879">
+      <c r="F879" s="6"/>
+    </row>
+    <row r="880">
+      <c r="F880" s="6"/>
+    </row>
+    <row r="881">
+      <c r="F881" s="6"/>
+    </row>
+    <row r="882">
+      <c r="F882" s="6"/>
+    </row>
+    <row r="883">
+      <c r="F883" s="6"/>
+    </row>
+    <row r="884">
+      <c r="F884" s="6"/>
+    </row>
+    <row r="885">
+      <c r="F885" s="6"/>
+    </row>
+    <row r="886">
+      <c r="F886" s="6"/>
+    </row>
+    <row r="887">
+      <c r="F887" s="6"/>
+    </row>
+    <row r="888">
+      <c r="F888" s="6"/>
+    </row>
+    <row r="889">
+      <c r="F889" s="6"/>
+    </row>
+    <row r="890">
+      <c r="F890" s="6"/>
+    </row>
+    <row r="891">
+      <c r="F891" s="6"/>
+    </row>
+    <row r="892">
+      <c r="F892" s="6"/>
+    </row>
+    <row r="893">
+      <c r="F893" s="6"/>
+    </row>
+    <row r="894">
+      <c r="F894" s="6"/>
+    </row>
+    <row r="895">
+      <c r="F895" s="6"/>
+    </row>
+    <row r="896">
+      <c r="F896" s="6"/>
+    </row>
+    <row r="897">
+      <c r="F897" s="6"/>
+    </row>
+    <row r="898">
+      <c r="F898" s="6"/>
+    </row>
+    <row r="899">
+      <c r="F899" s="6"/>
+    </row>
+    <row r="900">
+      <c r="F900" s="6"/>
+    </row>
+    <row r="901">
+      <c r="F901" s="6"/>
+    </row>
+    <row r="902">
+      <c r="F902" s="6"/>
+    </row>
+    <row r="903">
+      <c r="F903" s="6"/>
+    </row>
+    <row r="904">
+      <c r="F904" s="6"/>
+    </row>
+    <row r="905">
+      <c r="F905" s="6"/>
+    </row>
+    <row r="906">
+      <c r="F906" s="6"/>
+    </row>
+    <row r="907">
+      <c r="F907" s="6"/>
+    </row>
+    <row r="908">
+      <c r="F908" s="6"/>
+    </row>
+    <row r="909">
+      <c r="F909" s="6"/>
+    </row>
+    <row r="910">
+      <c r="F910" s="6"/>
+    </row>
+    <row r="911">
+      <c r="F911" s="6"/>
+    </row>
+    <row r="912">
+      <c r="F912" s="6"/>
+    </row>
+    <row r="913">
+      <c r="F913" s="6"/>
+    </row>
+    <row r="914">
+      <c r="F914" s="6"/>
+    </row>
+    <row r="915">
+      <c r="F915" s="6"/>
+    </row>
+    <row r="916">
+      <c r="F916" s="6"/>
+    </row>
+    <row r="917">
+      <c r="F917" s="6"/>
+    </row>
+    <row r="918">
+      <c r="F918" s="6"/>
+    </row>
+    <row r="919">
+      <c r="F919" s="6"/>
+    </row>
+    <row r="920">
+      <c r="F920" s="6"/>
+    </row>
+    <row r="921">
+      <c r="F921" s="6"/>
+    </row>
+    <row r="922">
+      <c r="F922" s="6"/>
+    </row>
+    <row r="923">
+      <c r="F923" s="6"/>
+    </row>
+    <row r="924">
+      <c r="F924" s="6"/>
+    </row>
+    <row r="925">
+      <c r="F925" s="6"/>
+    </row>
+    <row r="926">
+      <c r="F926" s="6"/>
+    </row>
+    <row r="927">
+      <c r="F927" s="6"/>
+    </row>
+    <row r="928">
+      <c r="F928" s="6"/>
+    </row>
+    <row r="929">
+      <c r="F929" s="6"/>
+    </row>
+    <row r="930">
+      <c r="F930" s="6"/>
+    </row>
+    <row r="931">
+      <c r="F931" s="6"/>
+    </row>
+    <row r="932">
+      <c r="F932" s="6"/>
+    </row>
+    <row r="933">
+      <c r="F933" s="6"/>
+    </row>
+    <row r="934">
+      <c r="F934" s="6"/>
+    </row>
+    <row r="935">
+      <c r="F935" s="6"/>
+    </row>
+    <row r="936">
+      <c r="F936" s="6"/>
+    </row>
+    <row r="937">
+      <c r="F937" s="6"/>
+    </row>
+    <row r="938">
+      <c r="F938" s="6"/>
+    </row>
+    <row r="939">
+      <c r="F939" s="6"/>
+    </row>
+    <row r="940">
+      <c r="F940" s="6"/>
+    </row>
+    <row r="941">
+      <c r="F941" s="6"/>
+    </row>
+    <row r="942">
+      <c r="F942" s="6"/>
+    </row>
+    <row r="943">
+      <c r="F943" s="6"/>
+    </row>
+    <row r="944">
+      <c r="F944" s="6"/>
+    </row>
+    <row r="945">
+      <c r="F945" s="6"/>
+    </row>
+    <row r="946">
+      <c r="F946" s="6"/>
+    </row>
+    <row r="947">
+      <c r="F947" s="6"/>
+    </row>
+    <row r="948">
+      <c r="F948" s="6"/>
+    </row>
+    <row r="949">
+      <c r="F949" s="6"/>
+    </row>
+    <row r="950">
+      <c r="F950" s="6"/>
+    </row>
+    <row r="951">
+      <c r="F951" s="6"/>
+    </row>
+    <row r="952">
+      <c r="F952" s="6"/>
+    </row>
+    <row r="953">
+      <c r="F953" s="6"/>
+    </row>
+    <row r="954">
+      <c r="F954" s="6"/>
+    </row>
+    <row r="955">
+      <c r="F955" s="6"/>
+    </row>
+    <row r="956">
+      <c r="F956" s="6"/>
+    </row>
+    <row r="957">
+      <c r="F957" s="6"/>
+    </row>
+    <row r="958">
+      <c r="F958" s="6"/>
+    </row>
+    <row r="959">
+      <c r="F959" s="6"/>
+    </row>
+    <row r="960">
+      <c r="F960" s="6"/>
+    </row>
+    <row r="961">
+      <c r="F961" s="6"/>
+    </row>
+    <row r="962">
+      <c r="F962" s="6"/>
+    </row>
+    <row r="963">
+      <c r="F963" s="6"/>
+    </row>
+    <row r="964">
+      <c r="F964" s="6"/>
+    </row>
+    <row r="965">
+      <c r="F965" s="6"/>
+    </row>
+    <row r="966">
+      <c r="F966" s="6"/>
+    </row>
+    <row r="967">
+      <c r="F967" s="6"/>
+    </row>
+    <row r="968">
+      <c r="F968" s="6"/>
+    </row>
+    <row r="969">
+      <c r="F969" s="6"/>
+    </row>
+    <row r="970">
+      <c r="F970" s="6"/>
+    </row>
+    <row r="971">
+      <c r="F971" s="6"/>
+    </row>
+    <row r="972">
+      <c r="F972" s="6"/>
+    </row>
+    <row r="973">
+      <c r="F973" s="6"/>
+    </row>
+    <row r="974">
+      <c r="F974" s="6"/>
+    </row>
+    <row r="975">
+      <c r="F975" s="6"/>
+    </row>
+    <row r="976">
+      <c r="F976" s="6"/>
+    </row>
+    <row r="977">
+      <c r="F977" s="6"/>
+    </row>
+    <row r="978">
+      <c r="F978" s="6"/>
+    </row>
+    <row r="979">
+      <c r="F979" s="6"/>
+    </row>
+    <row r="980">
+      <c r="F980" s="6"/>
+    </row>
+    <row r="981">
+      <c r="F981" s="6"/>
+    </row>
+    <row r="982">
+      <c r="F982" s="6"/>
+    </row>
+    <row r="983">
+      <c r="F983" s="6"/>
+    </row>
+    <row r="984">
+      <c r="F984" s="6"/>
+    </row>
+    <row r="985">
+      <c r="F985" s="6"/>
+    </row>
+    <row r="986">
+      <c r="F986" s="6"/>
+    </row>
+    <row r="987">
+      <c r="F987" s="6"/>
+    </row>
+    <row r="988">
+      <c r="F988" s="6"/>
+    </row>
+    <row r="989">
+      <c r="F989" s="6"/>
+    </row>
+    <row r="990">
+      <c r="F990" s="6"/>
+    </row>
+    <row r="991">
+      <c r="F991" s="6"/>
+    </row>
+    <row r="992">
+      <c r="F992" s="6"/>
+    </row>
+    <row r="993">
+      <c r="F993" s="6"/>
+    </row>
+    <row r="994">
+      <c r="F994" s="6"/>
+    </row>
+    <row r="995">
+      <c r="F995" s="6"/>
+    </row>
+    <row r="996">
+      <c r="F996" s="6"/>
+    </row>
+    <row r="997">
+      <c r="F997" s="6"/>
+    </row>
+    <row r="998">
+      <c r="F998" s="6"/>
+    </row>
+    <row r="999">
+      <c r="F999" s="6"/>
+    </row>
+    <row r="1000">
+      <c r="F1000" s="6"/>
+    </row>
+    <row r="1001">
+      <c r="F1001" s="6"/>
+    </row>
+    <row r="1002">
+      <c r="F1002" s="6"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="401">
   <si>
     <t>परिचय.</t>
   </si>
@@ -1655,6 +1655,9 @@
     </r>
   </si>
   <si>
+    <t>Hand Dictionary</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1702,6 +1705,9 @@
     </r>
   </si>
   <si>
+    <t>Mass Carrier</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1749,6 +1755,9 @@
     </r>
   </si>
   <si>
+    <t>First Aid</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1794,6 +1803,9 @@
       </rPr>
       <t>##</t>
     </r>
+  </si>
+  <si>
+    <t>Rechargeable Unit</t>
   </si>
   <si>
     <r>
@@ -9570,7 +9582,9 @@
       <c r="C13" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="18" t="s">
+        <v>379</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -9597,9 +9611,11 @@
         <v>11.0</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>380</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>381</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -9626,9 +9642,11 @@
         <v>12.0</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>382</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>383</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -9655,9 +9673,11 @@
         <v>13.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>384</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>385</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -9684,7 +9704,7 @@
         <v>14.0</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -9713,7 +9733,7 @@
         <v>15.0</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -9742,7 +9762,7 @@
         <v>16.0</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -9771,7 +9791,7 @@
         <v>17.0</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -9800,7 +9820,7 @@
         <v>18.0</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -9829,7 +9849,7 @@
         <v>19.0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -9858,7 +9878,7 @@
         <v>20.0</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -9887,7 +9907,7 @@
         <v>21.0</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -9916,7 +9936,7 @@
         <v>22.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -9945,7 +9965,7 @@
         <v>23.0</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -9974,7 +9994,7 @@
         <v>24.0</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -10003,7 +10023,7 @@
         <v>25.0</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -10032,7 +10052,7 @@
         <v>26.0</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -10058,10 +10078,10 @@
     <row r="30">
       <c r="A30" s="4"/>
       <c r="B30" s="25" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -34737,7 +34757,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToWidth="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -27,12 +27,32 @@
         <t xml:space="preserve">284{2, 4, 71, 142}:Power</t>
       </text>
     </comment>
+    <comment authorId="0" ref="F17">
+      <text>
+        <t xml:space="preserve">309{3, 103}:Problem</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F24">
+      <text>
+        <t xml:space="preserve">300{2, 3, 4, 5, 6, 10, 12, 15, 20, 25, 30, 50, 60, 75, 100, 150}:Mask</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F27">
+      <text>
+        <t xml:space="preserve">168{2, 3, 4, 6, 7, 8, 12, 14, 21, 24, 28, 42, 56, 84}:Metal</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F29">
+      <text>
+        <t xml:space="preserve">124{2, 4, 31, 62}:Mina</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="414">
   <si>
     <t>परिचय.</t>
   </si>
@@ -1855,6 +1875,9 @@
     </r>
   </si>
   <si>
+    <t>Net Coverage</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1902,6 +1925,9 @@
     </r>
   </si>
   <si>
+    <t>Cash Card</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1949,6 +1975,9 @@
     </r>
   </si>
   <si>
+    <t>Superficial Computer</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1996,6 +2025,9 @@
     </r>
   </si>
   <si>
+    <t>Bank Module</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2043,6 +2075,9 @@
     </r>
   </si>
   <si>
+    <t>Utility Gear</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2090,6 +2125,9 @@
     </r>
   </si>
   <si>
+    <t>Note Book</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2137,6 +2175,9 @@
     </r>
   </si>
   <si>
+    <t>Food Tier</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2167,6 +2208,9 @@
       </rPr>
       <t>##</t>
     </r>
+  </si>
+  <si>
+    <t>Series Lock</t>
   </si>
   <si>
     <r>
@@ -2216,6 +2260,9 @@
     </r>
   </si>
   <si>
+    <t>Toy Program</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2263,6 +2310,9 @@
     </r>
   </si>
   <si>
+    <t>Functional Profile</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2293,6 +2343,9 @@
       </rPr>
       <t>##</t>
     </r>
+  </si>
+  <si>
+    <t>Adaptive Socket</t>
   </si>
   <si>
     <r>
@@ -2342,6 +2395,9 @@
     </r>
   </si>
   <si>
+    <t>Time-zone Multitude</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2387,6 +2443,9 @@
       </rPr>
       <t>##</t>
     </r>
+  </si>
+  <si>
+    <t>Painting Studio</t>
   </si>
   <si>
     <t>469{7, 67}:#Tether##</t>
@@ -9158,7 +9217,7 @@
     <col customWidth="1" min="1" max="1" width="2.75"/>
     <col customWidth="1" min="2" max="2" width="25.88"/>
     <col customWidth="1" min="3" max="3" width="49.0"/>
-    <col customWidth="1" min="4" max="4" width="14.25"/>
+    <col customWidth="1" min="4" max="4" width="16.5"/>
     <col customWidth="1" min="5" max="5" width="4.5"/>
     <col customWidth="1" min="6" max="6" width="4.88"/>
     <col customWidth="1" min="7" max="7" width="13.5"/>
@@ -9706,7 +9765,9 @@
       <c r="C17" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -9733,9 +9794,11 @@
         <v>15.0</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>388</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>389</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -9762,9 +9825,11 @@
         <v>16.0</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>390</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>391</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -9791,9 +9856,11 @@
         <v>17.0</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>392</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>393</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -9820,9 +9887,11 @@
         <v>18.0</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>394</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>395</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -9849,9 +9918,11 @@
         <v>19.0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>396</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>397</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -9878,9 +9949,11 @@
         <v>20.0</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>398</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>399</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -9907,9 +9980,11 @@
         <v>21.0</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>400</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>401</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -9936,9 +10011,11 @@
         <v>22.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>402</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>403</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -9965,9 +10042,11 @@
         <v>23.0</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>404</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>405</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -9994,9 +10073,11 @@
         <v>24.0</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>406</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>407</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -10023,9 +10104,11 @@
         <v>25.0</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>408</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>409</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -10052,9 +10135,11 @@
         <v>26.0</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D29" s="23"/>
+        <v>410</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>411</v>
+      </c>
       <c r="E29" s="23"/>
       <c r="F29" s="4"/>
       <c r="G29" s="23"/>
@@ -10078,10 +10163,10 @@
     <row r="30">
       <c r="A30" s="4"/>
       <c r="B30" s="25" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="416">
   <si>
     <t>परिचय.</t>
   </si>
@@ -1151,6 +1151,9 @@
     </r>
   </si>
   <si>
+    <t>Web Site</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2496,6 +2499,9 @@
       </rPr>
       <t>##</t>
     </r>
+  </si>
+  <si>
+    <t>Filter Room</t>
   </si>
 </sst>
 </file>
@@ -9299,7 +9305,9 @@
       <c r="C3" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>351</v>
+      </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
@@ -9326,15 +9334,15 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="4"/>
       <c r="G4" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H4" s="14">
         <v>2699.0</v>
@@ -9361,15 +9369,15 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H5" s="18">
         <v>3265.0</v>
@@ -9396,15 +9404,15 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H6" s="18">
         <v>184.0</v>
@@ -9431,15 +9439,15 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H7" s="18">
         <v>155.0</v>
@@ -9466,15 +9474,15 @@
         <v>5.0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H8" s="18">
         <v>362.0</v>
@@ -9501,15 +9509,15 @@
         <v>6.0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="18" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H9" s="18">
         <v>135.0</v>
@@ -9536,21 +9544,21 @@
         <v>7.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H10" s="18">
         <v>207.0</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -9573,15 +9581,15 @@
         <v>8.0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H11" s="18">
         <v>247.0</v>
@@ -9608,10 +9616,10 @@
         <v>9.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -9639,10 +9647,10 @@
         <v>10.0</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -9670,10 +9678,10 @@
         <v>11.0</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -9701,10 +9709,10 @@
         <v>12.0</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -9732,10 +9740,10 @@
         <v>13.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -9763,10 +9771,10 @@
         <v>14.0</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -9794,10 +9802,10 @@
         <v>15.0</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -9825,10 +9833,10 @@
         <v>16.0</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -9856,10 +9864,10 @@
         <v>17.0</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -9887,10 +9895,10 @@
         <v>18.0</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -9918,10 +9926,10 @@
         <v>19.0</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -9949,10 +9957,10 @@
         <v>20.0</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -9980,10 +9988,10 @@
         <v>21.0</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -10011,10 +10019,10 @@
         <v>22.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -10042,10 +10050,10 @@
         <v>23.0</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -10073,10 +10081,10 @@
         <v>24.0</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -10104,10 +10112,10 @@
         <v>25.0</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -10135,10 +10143,10 @@
         <v>26.0</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="4"/>
@@ -10163,12 +10171,14 @@
     <row r="30">
       <c r="A30" s="4"/>
       <c r="B30" s="25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D30" s="27"/>
+        <v>414</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>415</v>
+      </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="526">
   <si>
     <t>परिचय.</t>
   </si>
@@ -2508,6 +2508,9 @@
     <t>Filter Room</t>
   </si>
   <si>
+    <t>Light Room</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
@@ -2515,6 +2518,9 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>Chimney</t>
   </si>
   <si>
     <t>Tense</t>
@@ -2779,6 +2785,36 @@
   </si>
   <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Mnemonic</t>
+  </si>
+  <si>
+    <t>Spell</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Caution</t>
+  </si>
+  <si>
+    <t>Parse</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
   <si>
     <t>Bill</t>
@@ -10502,7 +10538,9 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="26" t="s">
+        <v>417</v>
+      </c>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
       <c r="J30" s="4"/>
@@ -35236,13 +35274,13 @@
         <v>343</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>346</v>
@@ -35264,24 +35302,26 @@
     </row>
     <row r="3">
       <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>421</v>
+      </c>
       <c r="C3" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -35304,22 +35344,22 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -35342,22 +35382,22 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -35380,22 +35420,22 @@
         <v>3.0</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -35418,22 +35458,22 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -35456,22 +35496,22 @@
         <v>5.0</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -35494,22 +35534,22 @@
         <v>6.0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -35532,22 +35572,22 @@
         <v>7.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -35570,22 +35610,22 @@
         <v>8.0</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -35608,22 +35648,22 @@
         <v>9.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -35646,22 +35686,22 @@
         <v>10.0</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -35684,22 +35724,22 @@
         <v>11.0</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -35722,22 +35762,22 @@
         <v>12.0</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -35760,22 +35800,22 @@
         <v>13.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -35798,7 +35838,7 @@
         <v>14.0</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="4"/>
@@ -35826,7 +35866,7 @@
         <v>15.0</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="4"/>
@@ -35854,7 +35894,7 @@
         <v>16.0</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="4"/>
@@ -35882,7 +35922,7 @@
         <v>17.0</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="4"/>
@@ -35909,7 +35949,9 @@
       <c r="B21" s="17">
         <v>18.0</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="18" t="s">
+        <v>510</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -35935,7 +35977,9 @@
       <c r="B22" s="17">
         <v>19.0</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>511</v>
+      </c>
       <c r="D22" s="18"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -35961,7 +36005,9 @@
       <c r="B23" s="17">
         <v>20.0</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>512</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -35987,7 +36033,9 @@
       <c r="B24" s="17">
         <v>21.0</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="18" t="s">
+        <v>513</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -36013,7 +36061,9 @@
       <c r="B25" s="17">
         <v>22.0</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>514</v>
+      </c>
       <c r="D25" s="18"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -36039,7 +36089,9 @@
       <c r="B26" s="17">
         <v>23.0</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="18" t="s">
+        <v>515</v>
+      </c>
       <c r="D26" s="18"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -36065,7 +36117,9 @@
       <c r="B27" s="17">
         <v>24.0</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>516</v>
+      </c>
       <c r="D27" s="18"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -36091,7 +36145,9 @@
       <c r="B28" s="17">
         <v>25.0</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>517</v>
+      </c>
       <c r="D28" s="18"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -36117,7 +36173,9 @@
       <c r="B29" s="21">
         <v>26.0</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="22" t="s">
+        <v>518</v>
+      </c>
       <c r="D29" s="22"/>
       <c r="E29" s="23"/>
       <c r="F29" s="4"/>
@@ -36140,24 +36198,26 @@
     </row>
     <row r="30">
       <c r="A30" s="4"/>
-      <c r="B30" s="25"/>
+      <c r="B30" s="25" t="s">
+        <v>519</v>
+      </c>
       <c r="C30" s="26" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="581">
   <si>
     <t>Order</t>
   </si>
@@ -1326,6 +1326,9 @@
     <t>Electric Extension</t>
   </si>
   <si>
+    <t>Telemetric</t>
+  </si>
+  <si>
     <t>USB Hub</t>
   </si>
   <si>
@@ -1380,6 +1383,9 @@
   </si>
   <si>
     <t>Remote Lighting</t>
+  </si>
+  <si>
+    <t>Sector</t>
   </si>
   <si>
     <t>USB Light</t>
@@ -1438,6 +1444,9 @@
     <t>Insect Protector</t>
   </si>
   <si>
+    <t>Property</t>
+  </si>
+  <si>
     <t>Mosquito Zapper</t>
   </si>
   <si>
@@ -1492,6 +1501,9 @@
   </si>
   <si>
     <t>Body Perfume</t>
+  </si>
+  <si>
+    <t>Environment</t>
   </si>
   <si>
     <t>Thermal Paste</t>
@@ -1550,6 +1562,9 @@
     <t>Table Fan</t>
   </si>
   <si>
+    <t>Retail</t>
+  </si>
+  <si>
     <t>TV Mount</t>
   </si>
   <si>
@@ -1604,6 +1619,9 @@
   </si>
   <si>
     <t>Musical Device</t>
+  </si>
+  <si>
+    <t>Insurance</t>
   </si>
   <si>
     <t>Electronic Slate</t>
@@ -1662,6 +1680,9 @@
     <t>Leather Belt</t>
   </si>
   <si>
+    <t>Attribute</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1713,6 +1734,9 @@
   </si>
   <si>
     <t>Hand Dictionary</t>
+  </si>
+  <si>
+    <t>Crop</t>
   </si>
   <si>
     <r>
@@ -1768,6 +1792,9 @@
     <t>Mass Carrier</t>
   </si>
   <si>
+    <t>Fuel</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1819,6 +1846,9 @@
   </si>
   <si>
     <t>First Aid</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
   <si>
     <r>
@@ -1874,6 +1904,9 @@
     <t>Rechargeable Unit</t>
   </si>
   <si>
+    <t>Mutual</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1927,6 +1960,9 @@
     <t>Net Coverage</t>
   </si>
   <si>
+    <t>Park</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1975,6 +2011,9 @@
   </si>
   <si>
     <t>Cash Card</t>
+  </si>
+  <si>
+    <t>Factory</t>
   </si>
   <si>
     <r>
@@ -2030,6 +2069,9 @@
     <t>Superficial Computer</t>
   </si>
   <si>
+    <t>Charity</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2081,6 +2123,9 @@
   </si>
   <si>
     <t>Bank Module</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
   </si>
   <si>
     <r>
@@ -2136,6 +2181,9 @@
     <t>Utility Gear</t>
   </si>
   <si>
+    <t>Dimension</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2187,6 +2235,9 @@
   </si>
   <si>
     <t>Note Book</t>
+  </si>
+  <si>
+    <t>Gateway</t>
   </si>
   <si>
     <r>
@@ -2242,6 +2293,9 @@
     <t>Food Tier</t>
   </si>
   <si>
+    <t>Forum</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2295,6 +2349,9 @@
     <t>Series Lock</t>
   </si>
   <si>
+    <t>Agency</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2331,6 +2388,9 @@
   </si>
   <si>
     <t>Toy Program</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
   <si>
     <r>
@@ -2386,6 +2446,9 @@
     <t>Functional Profile</t>
   </si>
   <si>
+    <t>Company</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2439,6 +2502,9 @@
     <t>Adaptive Socket</t>
   </si>
   <si>
+    <t>Brand</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2475,6 +2541,9 @@
   </si>
   <si>
     <t>Time-zone Multitude</t>
+  </si>
+  <si>
+    <t>Market</t>
   </si>
   <si>
     <r>
@@ -29126,7 +29195,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -29434,18 +29503,20 @@
       <c r="D7" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>370</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="53">
         <v>3.0</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="56"/>
@@ -29474,23 +29545,25 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="16"/>
+        <v>374</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>375</v>
+      </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="53">
         <v>4.0</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="56"/>
@@ -29519,23 +29592,25 @@
         <v>5.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>379</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>380</v>
+      </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="21" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="53">
         <v>5.0</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="56"/>
@@ -29564,23 +29639,25 @@
         <v>6.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>384</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="21" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="53">
         <v>6.0</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L10" s="55"/>
       <c r="M10" s="56"/>
@@ -29609,23 +29686,25 @@
         <v>7.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="E11" s="16"/>
+        <v>389</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>390</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="21" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="53">
         <v>7.0</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L11" s="55"/>
       <c r="M11" s="56"/>
@@ -29656,23 +29735,25 @@
         <v>8.0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="E12" s="16"/>
+        <v>394</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>395</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="21" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="53">
         <v>8.0</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L12" s="55"/>
       <c r="M12" s="56"/>
@@ -29701,12 +29782,14 @@
         <v>9.0</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>399</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>400</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="60"/>
@@ -29715,7 +29798,7 @@
         <v>9.0</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="L13" s="55"/>
       <c r="M13" s="56"/>
@@ -29742,12 +29825,14 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>404</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="60"/>
@@ -29756,7 +29841,7 @@
         <v>10.0</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="56"/>
@@ -29783,12 +29868,14 @@
         <v>11.0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>408</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="60"/>
@@ -29797,7 +29884,7 @@
         <v>11.0</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="L15" s="55"/>
       <c r="M15" s="56"/>
@@ -29824,12 +29911,14 @@
         <v>12.0</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>411</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>412</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="60"/>
@@ -29838,7 +29927,7 @@
         <v>12.0</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -29865,12 +29954,14 @@
         <v>13.0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>415</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>416</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="60"/>
@@ -29879,7 +29970,7 @@
         <v>13.0</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -29906,12 +29997,14 @@
         <v>14.0</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>419</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>420</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="60"/>
@@ -29920,7 +30013,7 @@
         <v>14.0</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -29947,12 +30040,14 @@
         <v>15.0</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>423</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="60"/>
@@ -29961,7 +30056,7 @@
         <v>15.0</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -29988,12 +30083,14 @@
         <v>16.0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>426</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>427</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="60"/>
@@ -30002,7 +30099,7 @@
         <v>16.0</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -30029,12 +30126,14 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>431</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="60"/>
@@ -30043,7 +30142,7 @@
         <v>17.0</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
@@ -30070,12 +30169,14 @@
         <v>18.0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>435</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="60"/>
@@ -30084,7 +30185,7 @@
         <v>18.0</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
@@ -30111,12 +30212,14 @@
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>438</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>439</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="60"/>
@@ -30125,7 +30228,7 @@
         <v>19.0</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="56"/>
@@ -30152,12 +30255,14 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>442</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>443</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="60"/>
@@ -30166,7 +30271,7 @@
         <v>20.0</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
@@ -30193,12 +30298,14 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>446</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>447</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="60"/>
@@ -30207,7 +30314,7 @@
         <v>21.0</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
@@ -30234,12 +30341,14 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>451</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="60"/>
@@ -30248,7 +30357,7 @@
         <v>22.0</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -30275,12 +30384,14 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>454</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>455</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="60"/>
@@ -30289,7 +30400,7 @@
         <v>23.0</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="56"/>
@@ -30316,12 +30427,14 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>458</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>459</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="60"/>
@@ -30330,7 +30443,7 @@
         <v>24.0</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -30357,12 +30470,14 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>462</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>463</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="60"/>
@@ -30371,7 +30486,7 @@
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -30398,13 +30513,13 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -30414,7 +30529,7 @@
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -30438,28 +30553,28 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="30" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="63" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="K31" s="64" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="L31" s="65"/>
       <c r="M31" s="66"/>
@@ -30559,25 +30674,25 @@
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="8" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -30607,22 +30722,22 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -30652,22 +30767,22 @@
         <v>2.0</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -30697,22 +30812,22 @@
         <v>3.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -30742,22 +30857,22 @@
         <v>4.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -30787,22 +30902,22 @@
         <v>5.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -30832,22 +30947,22 @@
         <v>6.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -30877,22 +30992,22 @@
         <v>7.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -30922,22 +31037,22 @@
         <v>8.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -30967,22 +31082,22 @@
         <v>9.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -31012,22 +31127,22 @@
         <v>10.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -31057,22 +31172,22 @@
         <v>11.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -31102,22 +31217,22 @@
         <v>12.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -31147,22 +31262,22 @@
         <v>13.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -31192,7 +31307,7 @@
         <v>14.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="1"/>
@@ -31227,7 +31342,7 @@
         <v>15.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="1"/>
@@ -31262,7 +31377,7 @@
         <v>16.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="1"/>
@@ -31297,7 +31412,7 @@
         <v>17.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="1"/>
@@ -31332,7 +31447,7 @@
         <v>18.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="1"/>
@@ -31367,7 +31482,7 @@
         <v>19.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
@@ -31402,7 +31517,7 @@
         <v>20.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -31437,7 +31552,7 @@
         <v>21.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -31472,7 +31587,7 @@
         <v>22.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -31507,7 +31622,7 @@
         <v>23.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -31542,7 +31657,7 @@
         <v>24.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -31577,7 +31692,7 @@
         <v>25.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="1"/>
@@ -31612,7 +31727,7 @@
         <v>26.0</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="69"/>
@@ -31644,25 +31759,25 @@
     <row r="61">
       <c r="A61" s="1"/>
       <c r="B61" s="26" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="H61" s="30" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -72,12 +72,47 @@
         <t xml:space="preserve">124{2, 4, 31, 62}:Mina</t>
       </text>
     </comment>
+    <comment authorId="0" ref="K42">
+      <text>
+        <t xml:space="preserve">203{7, 29}:Fancy</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M42">
+      <text>
+        <t xml:space="preserve">228{2, 3, 4, 6, 12, 19, 38, 57, 76, 114}:Mind</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="O42">
+      <text>
+        <t xml:space="preserve">251{}:Set</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K49">
+      <text>
+        <t xml:space="preserve">227{}:Acrobat</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K56">
+      <text>
+        <t xml:space="preserve">171{3, 9, 19, 57}:Choice</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K59">
+      <text>
+        <t xml:space="preserve">67{}:Lotus</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K61">
+      <text>
+        <t xml:space="preserve">28{2, 4, 7, 14}:Crocodile</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="591">
   <si>
     <t>Order</t>
   </si>
@@ -1144,6 +1179,12 @@
     <t>Rollout</t>
   </si>
   <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
     <t>Laser Panel</t>
   </si>
   <si>
@@ -1154,7 +1195,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>195</t>
@@ -1163,7 +1204,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1172,7 +1213,7 @@
         <rFont val="Arial"/>
         <b/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>3, 5, 13, 15, 39, 65</t>
     </r>
@@ -1180,7 +1221,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1188,7 +1229,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Work</t>
     </r>
@@ -1196,7 +1237,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1211,13 +1252,19 @@
     <t>Amenity</t>
   </si>
   <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
     <t>Electric UPS</t>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>58</t>
@@ -1225,7 +1272,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1233,14 +1280,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 29</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1248,14 +1295,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Palm</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1270,13 +1317,19 @@
     <t>Commodity</t>
   </si>
   <si>
+    <t>Saturate</t>
+  </si>
+  <si>
+    <t>Pastel</t>
+  </si>
+  <si>
     <t>Display Unit</t>
   </si>
   <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>367</t>
@@ -1284,7 +1337,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1292,14 +1345,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 4, 8, 47, 94, 188</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1307,14 +1360,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Claim</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1335,7 +1388,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>323</t>
@@ -1343,7 +1396,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1351,14 +1404,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>17, 19</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1366,14 +1419,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Book</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1394,7 +1447,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>355</t>
@@ -1402,7 +1455,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1410,14 +1463,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>5, 71</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1425,14 +1478,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Capital</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1453,7 +1506,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>162</t>
@@ -1461,7 +1514,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1469,14 +1522,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 3, 6, 9, 18, 27, 54, 81</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1484,14 +1537,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Watch</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1512,7 +1565,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>267</t>
@@ -1520,7 +1573,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1528,14 +1581,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>3, 89</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1543,14 +1596,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Task</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1571,7 +1624,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>497</t>
@@ -1579,7 +1632,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1587,14 +1640,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>7, 71</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1602,14 +1655,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Entertainment</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1630,7 +1683,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>575</t>
@@ -1638,7 +1691,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1646,14 +1699,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>5, 23, 25, 115</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1661,14 +1714,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Board</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1686,7 +1739,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>322</t>
@@ -1694,7 +1747,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1702,14 +1755,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 7, 14, 23, 46, 161</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1717,14 +1770,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Project</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1742,7 +1795,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>234</t>
@@ -1750,7 +1803,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1758,14 +1811,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 3, 6, 9, 13, 18, 26, 39, 78, 117</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1773,14 +1826,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Mode</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1798,7 +1851,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>301</t>
@@ -1806,7 +1859,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1814,14 +1867,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>7, 43</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1829,14 +1882,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Win</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1854,7 +1907,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>168</t>
@@ -1862,7 +1915,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1870,14 +1923,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 3, 4, 6, 7, 8, 12, 14, 21, 24, 28, 42, 56, 84</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1885,14 +1938,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Metal</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1910,7 +1963,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>306</t>
@@ -1918,7 +1971,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1926,14 +1979,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 3, 6, 9, 17, 18, 34, 51, 102, 153</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1941,14 +1994,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Compile</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -1966,7 +2019,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>374</t>
@@ -1974,7 +2027,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -1982,14 +2035,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 11, 17, 22, 34, 187</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -1997,14 +2050,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Clear</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2019,7 +2072,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>234</t>
@@ -2027,7 +2080,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2035,14 +2088,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 3, 6, 9, 13, 18, 26, 39, 78, 117</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2050,14 +2103,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Mode</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2075,7 +2128,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>143</t>
@@ -2083,7 +2136,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2091,14 +2144,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>11, 13</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2106,14 +2159,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Border</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2131,7 +2184,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>346</t>
@@ -2139,7 +2192,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2147,14 +2200,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 173</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2162,14 +2215,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Concept</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2187,7 +2240,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>392</t>
@@ -2195,7 +2248,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2203,14 +2256,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 4, 7, 8, 14, 28, 49, 56, 98, 196</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2218,14 +2271,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Zip</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2243,7 +2296,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>328</t>
@@ -2251,7 +2304,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2259,14 +2312,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 4, 8, 41, 82, 164</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2274,14 +2327,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Flag</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2299,7 +2352,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>380</t>
@@ -2307,7 +2360,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2315,14 +2368,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 4, 5, 10, 19, 20, 38, 76, 95, 190</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2330,14 +2383,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Jack</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2355,7 +2408,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>373</t>
@@ -2363,7 +2416,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{}:#</t>
     </r>
@@ -2371,14 +2424,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Meet</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2396,7 +2449,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>398</t>
@@ -2404,7 +2457,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2412,14 +2465,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 199</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2427,14 +2480,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Pack</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2452,7 +2505,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>292</t>
@@ -2460,7 +2513,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2468,14 +2521,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 4, 73, 146</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2483,14 +2536,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Sharp</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2508,7 +2561,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>571</t>
@@ -2516,7 +2569,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{}:#</t>
     </r>
@@ -2524,14 +2577,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Soccer</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2549,7 +2602,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>170</t>
@@ -2557,7 +2610,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2565,14 +2618,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 5, 10, 17, 34, 85</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2580,14 +2633,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Up</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2602,10 +2655,16 @@
     <t>Estate</t>
   </si>
   <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>291</t>
@@ -2613,7 +2672,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2621,14 +2680,14 @@
       <rPr>
         <rFont val="Arial"/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>3, 97</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2636,14 +2695,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Piece</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -2661,6 +2720,12 @@
     <t>Vehicle</t>
   </si>
   <si>
+    <t>Motion</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
     <t>Light Room</t>
   </si>
   <si>
@@ -2671,7 +2736,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
         <u/>
       </rPr>
       <t>462</t>
@@ -2680,7 +2745,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>{</t>
     </r>
@@ -2689,7 +2754,7 @@
         <rFont val="Arial"/>
         <b/>
         <i/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>2, 3, 6, 7, 11, 14, 21, 22, 33, 42, 66, 77, 154, 231</t>
     </r>
@@ -2697,7 +2762,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>}:#</t>
     </r>
@@ -2705,7 +2770,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>Mirror</t>
     </r>
@@ -2713,7 +2778,7 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color rgb="FF999999"/>
+        <color rgb="FF666666"/>
       </rPr>
       <t>##</t>
     </r>
@@ -3038,7 +3103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3100,21 +3165,14 @@
     <font/>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF999999"/>
+      <sz val="7.0"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="7.0"/>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF999999"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -3122,25 +3180,25 @@
       <b/>
       <i/>
       <sz val="8.0"/>
-      <color rgb="FF999999"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="7.0"/>
-      <color rgb="FF999999"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color rgb="FF999999"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="8.0"/>
-      <color rgb="FF999999"/>
+      <color rgb="FF666666"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -3654,61 +3712,61 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3717,25 +3775,25 @@
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5148,27 +5206,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -5186,26 +5230,26 @@
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>183</v>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -5224,26 +5268,26 @@
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>189</v>
+      <c r="B35" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -5262,26 +5306,26 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>192</v>
+      <c r="B36" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -5301,25 +5345,25 @@
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="18">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -5339,25 +5383,25 @@
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="18">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -5377,25 +5421,25 @@
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="18">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -5415,25 +5459,25 @@
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="18">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -5453,25 +5497,25 @@
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="18">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -5491,25 +5535,25 @@
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="18">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -5529,25 +5573,25 @@
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="18">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -5567,25 +5611,25 @@
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="18">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -5605,25 +5649,25 @@
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="18">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -5643,25 +5687,25 @@
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="18">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -5681,25 +5725,25 @@
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="18">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -5719,25 +5763,25 @@
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="18">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -5757,25 +5801,25 @@
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="18">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -5795,25 +5839,25 @@
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="18">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -5833,25 +5877,25 @@
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="18">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -5871,25 +5915,25 @@
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="18">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -5909,25 +5953,25 @@
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="18">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -5947,25 +5991,25 @@
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="18">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -5985,25 +6029,25 @@
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="18">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -6023,25 +6067,25 @@
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="18">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -6061,25 +6105,25 @@
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="18">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -6099,25 +6143,25 @@
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="18">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -6137,25 +6181,25 @@
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="18">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -6174,26 +6218,26 @@
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="22">
-        <v>26.0</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>336</v>
+      <c r="B60" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>330</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>339</v>
+        <v>331</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -6212,26 +6256,26 @@
     </row>
     <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>346</v>
+      <c r="B61" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>339</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -6250,13 +6294,27 @@
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>346</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -29191,6 +29249,30 @@
       <c r="T1017" s="1"/>
       <c r="U1017" s="1"/>
       <c r="V1017" s="1"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="34"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -29365,17 +29447,21 @@
       <c r="E4" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="H4" s="12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="47" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="50"/>
@@ -29404,25 +29490,29 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+        <v>362</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>364</v>
+      </c>
       <c r="H5" s="17" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I5" s="46"/>
       <c r="J5" s="53">
         <v>1.0</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L5" s="55"/>
       <c r="M5" s="56"/>
@@ -29451,25 +29541,29 @@
         <v>2.0</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+        <v>369</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>371</v>
+      </c>
       <c r="H6" s="21" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="53">
         <v>2.0</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L6" s="55"/>
       <c r="M6" s="56"/>
@@ -29498,25 +29592,25 @@
         <v>3.0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="21" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="53">
         <v>3.0</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="56"/>
@@ -29545,25 +29639,25 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="21" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="53">
         <v>4.0</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="56"/>
@@ -29592,25 +29686,25 @@
         <v>5.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="21" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="53">
         <v>5.0</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="56"/>
@@ -29639,25 +29733,25 @@
         <v>6.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="21" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="53">
         <v>6.0</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L10" s="55"/>
       <c r="M10" s="56"/>
@@ -29686,25 +29780,25 @@
         <v>7.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="21" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="53">
         <v>7.0</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L11" s="55"/>
       <c r="M11" s="56"/>
@@ -29735,25 +29829,25 @@
         <v>8.0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="21" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="53">
         <v>8.0</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L12" s="55"/>
       <c r="M12" s="56"/>
@@ -29782,13 +29876,13 @@
         <v>9.0</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -29798,7 +29892,7 @@
         <v>9.0</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L13" s="55"/>
       <c r="M13" s="56"/>
@@ -29825,13 +29919,13 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -29841,7 +29935,7 @@
         <v>10.0</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="56"/>
@@ -29868,13 +29962,13 @@
         <v>11.0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -29884,7 +29978,7 @@
         <v>11.0</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="L15" s="55"/>
       <c r="M15" s="56"/>
@@ -29911,13 +30005,13 @@
         <v>12.0</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -29927,7 +30021,7 @@
         <v>12.0</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -29954,13 +30048,13 @@
         <v>13.0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -29970,7 +30064,7 @@
         <v>13.0</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -29997,13 +30091,13 @@
         <v>14.0</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -30013,7 +30107,7 @@
         <v>14.0</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -30040,13 +30134,13 @@
         <v>15.0</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -30056,7 +30150,7 @@
         <v>15.0</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -30083,13 +30177,13 @@
         <v>16.0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -30099,7 +30193,7 @@
         <v>16.0</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -30126,13 +30220,13 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -30142,7 +30236,7 @@
         <v>17.0</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
@@ -30169,13 +30263,13 @@
         <v>18.0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -30185,7 +30279,7 @@
         <v>18.0</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
@@ -30212,13 +30306,13 @@
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -30228,7 +30322,7 @@
         <v>19.0</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="56"/>
@@ -30255,13 +30349,13 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -30271,7 +30365,7 @@
         <v>20.0</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
@@ -30298,13 +30392,13 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -30314,7 +30408,7 @@
         <v>21.0</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
@@ -30341,13 +30435,13 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -30357,7 +30451,7 @@
         <v>22.0</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -30384,13 +30478,13 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -30400,7 +30494,7 @@
         <v>23.0</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="56"/>
@@ -30427,13 +30521,13 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -30443,7 +30537,7 @@
         <v>24.0</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -30470,13 +30564,13 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -30486,7 +30580,7 @@
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -30513,23 +30607,27 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>473</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>475</v>
+      </c>
       <c r="H30" s="61"/>
       <c r="I30" s="46"/>
       <c r="J30" s="53">
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -30553,28 +30651,32 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>472</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+        <v>480</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>482</v>
+      </c>
       <c r="H31" s="30" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="63" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K31" s="64" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L31" s="65"/>
       <c r="M31" s="66"/>
@@ -30628,34 +30730,24 @@
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="7" t="s">
+      <c r="M33" s="37"/>
+      <c r="N33" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="68"/>
+      <c r="O33" s="39"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -30673,34 +30765,38 @@
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>482</v>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="68"/>
+      <c r="J34" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="45"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -30718,34 +30814,38 @@
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="F35" s="16" t="s">
+      <c r="B35" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="C35" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="D35" s="10" t="s">
         <v>488</v>
       </c>
+      <c r="E35" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>492</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="68"/>
+      <c r="J35" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="52"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -30763,34 +30863,38 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>491</v>
+      <c r="B36" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>495</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="G36" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="K36" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="68"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="58"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -30809,33 +30913,37 @@
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="18">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G37" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="K37" s="54" t="s">
         <v>499</v>
       </c>
-      <c r="H37" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="68"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="58"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -30854,33 +30962,37 @@
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="18">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G38" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="K38" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="68"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="58"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -30899,33 +31011,37 @@
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="18">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G39" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="53">
+        <v>4.0</v>
+      </c>
+      <c r="K39" s="54" t="s">
         <v>511</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="68"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="58"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -30944,33 +31060,37 @@
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="18">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G40" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="K40" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="68"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -30989,33 +31109,37 @@
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="18">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G41" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="53">
+        <v>6.0</v>
+      </c>
+      <c r="K41" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="H41" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="68"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="58"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -31034,33 +31158,37 @@
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="18">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G42" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="53">
+        <v>7.0</v>
+      </c>
+      <c r="K42" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="68"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="59"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -31079,33 +31207,37 @@
     <row r="43">
       <c r="A43" s="1"/>
       <c r="B43" s="18">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G43" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="53">
+        <v>8.0</v>
+      </c>
+      <c r="K43" s="54" t="s">
         <v>535</v>
       </c>
-      <c r="H43" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="68"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="58"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -31124,33 +31256,37 @@
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="18">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G44" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="53">
+        <v>9.0</v>
+      </c>
+      <c r="K44" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="H44" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="68"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="58"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -31169,33 +31305,37 @@
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="18">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="53">
+        <v>10.0</v>
+      </c>
+      <c r="K45" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="H45" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="68"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="58"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -31214,33 +31354,37 @@
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="18">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G46" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>558</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="53">
+        <v>11.0</v>
+      </c>
+      <c r="K46" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="68"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -31259,33 +31403,37 @@
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="18">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G47" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="53">
+        <v>12.0</v>
+      </c>
+      <c r="K47" s="54" t="s">
         <v>559</v>
       </c>
-      <c r="H47" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="68"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="58"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -31304,23 +31452,37 @@
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="18">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="60"/>
+        <v>565</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>570</v>
+      </c>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="68"/>
+      <c r="J48" s="53">
+        <v>13.0</v>
+      </c>
+      <c r="K48" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="58"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -31339,10 +31501,10 @@
     <row r="49">
       <c r="A49" s="1"/>
       <c r="B49" s="18">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="1"/>
@@ -31350,12 +31512,16 @@
       <c r="G49" s="1"/>
       <c r="H49" s="60"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="68"/>
+      <c r="J49" s="53">
+        <v>14.0</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="L49" s="55"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="58"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -31374,10 +31540,10 @@
     <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="18">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="1"/>
@@ -31385,12 +31551,16 @@
       <c r="G50" s="1"/>
       <c r="H50" s="60"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="68"/>
+      <c r="J50" s="53">
+        <v>15.0</v>
+      </c>
+      <c r="K50" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="L50" s="55"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="58"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -31409,10 +31579,10 @@
     <row r="51">
       <c r="A51" s="1"/>
       <c r="B51" s="18">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="1"/>
@@ -31420,12 +31590,16 @@
       <c r="G51" s="1"/>
       <c r="H51" s="60"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="68"/>
+      <c r="J51" s="53">
+        <v>16.0</v>
+      </c>
+      <c r="K51" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="L51" s="55"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="58"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -31444,10 +31618,10 @@
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="18">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="1"/>
@@ -31455,12 +31629,16 @@
       <c r="G52" s="1"/>
       <c r="H52" s="60"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="68"/>
+      <c r="J52" s="53">
+        <v>17.0</v>
+      </c>
+      <c r="K52" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="L52" s="55"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="58"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -31479,10 +31657,10 @@
     <row r="53">
       <c r="A53" s="1"/>
       <c r="B53" s="18">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
@@ -31490,12 +31668,16 @@
       <c r="G53" s="1"/>
       <c r="H53" s="60"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="68"/>
+      <c r="J53" s="53">
+        <v>18.0</v>
+      </c>
+      <c r="K53" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="L53" s="55"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="58"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -31514,10 +31696,10 @@
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="18">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -31525,12 +31707,16 @@
       <c r="G54" s="1"/>
       <c r="H54" s="60"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="68"/>
+      <c r="J54" s="53">
+        <v>19.0</v>
+      </c>
+      <c r="K54" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="L54" s="55"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="58"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -31549,10 +31735,10 @@
     <row r="55">
       <c r="A55" s="1"/>
       <c r="B55" s="18">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -31560,12 +31746,16 @@
       <c r="G55" s="1"/>
       <c r="H55" s="60"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="68"/>
+      <c r="J55" s="53">
+        <v>20.0</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="L55" s="55"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="58"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -31584,10 +31774,10 @@
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="18">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -31595,12 +31785,16 @@
       <c r="G56" s="1"/>
       <c r="H56" s="60"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="68"/>
+      <c r="J56" s="53">
+        <v>21.0</v>
+      </c>
+      <c r="K56" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="L56" s="55"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="58"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -31619,10 +31813,10 @@
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="18">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -31630,12 +31824,16 @@
       <c r="G57" s="1"/>
       <c r="H57" s="60"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="68"/>
+      <c r="J57" s="53">
+        <v>22.0</v>
+      </c>
+      <c r="K57" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="L57" s="55"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="58"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -31654,10 +31852,10 @@
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="18">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -31665,12 +31863,16 @@
       <c r="G58" s="1"/>
       <c r="H58" s="60"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="68"/>
+      <c r="J58" s="53">
+        <v>23.0</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="L58" s="55"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="58"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -31689,10 +31891,10 @@
     <row r="59">
       <c r="A59" s="1"/>
       <c r="B59" s="18">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="1"/>
@@ -31700,12 +31902,16 @@
       <c r="G59" s="1"/>
       <c r="H59" s="60"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="68"/>
+      <c r="J59" s="53">
+        <v>24.0</v>
+      </c>
+      <c r="K59" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="L59" s="55"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="58"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -31723,24 +31929,28 @@
     </row>
     <row r="60">
       <c r="A60" s="1"/>
-      <c r="B60" s="22">
-        <v>26.0</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="69"/>
+      <c r="B60" s="18">
+        <v>25.0</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="61"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="60"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="68"/>
+      <c r="J60" s="53">
+        <v>25.0</v>
+      </c>
+      <c r="K60" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="L60" s="55"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="58"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -31758,34 +31968,28 @@
     </row>
     <row r="61">
       <c r="A61" s="1"/>
-      <c r="B61" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>580</v>
-      </c>
+      <c r="B61" s="22">
+        <v>26.0</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="61"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="68"/>
+      <c r="J61" s="53">
+        <v>26.0</v>
+      </c>
+      <c r="K61" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="L61" s="55"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="58"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -31803,20 +32007,38 @@
     </row>
     <row r="62">
       <c r="A62" s="1"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>587</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>590</v>
+      </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="68"/>
+      <c r="J62" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="K62" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="L62" s="65"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="65"/>
+      <c r="O62" s="67"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -61437,14 +61659,47 @@
       <c r="AB1017" s="1"/>
       <c r="AC1017" s="1"/>
     </row>
+    <row r="1018">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="34"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="68"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+      <c r="X1018" s="1"/>
+      <c r="Y1018" s="1"/>
+      <c r="Z1018" s="1"/>
+      <c r="AA1018" s="1"/>
+      <c r="AB1018" s="1"/>
+      <c r="AC1018" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToWidth="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -12,6 +12,266 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D11">
+      <text>
+        <t xml:space="preserve">266{2, 7, 14, 19, 38, 133}:Chip</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E11">
+      <text>
+        <t xml:space="preserve">128{2, 4, 8, 16, 32, 64}:Glycerin</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F11">
+      <text>
+        <t xml:space="preserve">124{2, 4, 31, 62}:Mina</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G11">
+      <text>
+        <t xml:space="preserve">121{11}:Pipe</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H11">
+      <text>
+        <t xml:space="preserve">120{2, 3, 4, 5, 6, 8, 10, 12, 15, 20, 24, 30, 40, 60}:Thread</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D18">
+      <text>
+        <t xml:space="preserve">224{2, 4, 7, 8, 14, 16, 28, 32, 56, 112}:Smile</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E18">
+      <text>
+        <t xml:space="preserve">137{}:Main</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F18">
+      <text>
+        <t xml:space="preserve">159{3, 53}:Quote</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G18">
+      <text>
+        <t xml:space="preserve">152{2, 4, 8, 19, 38, 76}:Bend</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H18">
+      <text>
+        <t xml:space="preserve">153{3, 9, 17, 51}:Break</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D25">
+      <text>
+        <t xml:space="preserve">260{2, 4, 5, 10, 13, 20, 26, 52, 65, 130}:Now</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E25">
+      <text>
+        <t xml:space="preserve">127{}:Oxygen</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F25">
+      <text>
+        <t xml:space="preserve">141{3, 47}:Print</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G25">
+      <text>
+        <t xml:space="preserve">170{2, 5, 10, 17, 34, 85}:Up</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H25">
+      <text>
+        <t xml:space="preserve">169{13}:Robot</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D28">
+      <text>
+        <t xml:space="preserve">105{3, 5, 7, 15, 21, 35}:Sand</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E28">
+      <text>
+        <t xml:space="preserve">58{2,29}:Palm</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F28">
+      <text>
+        <t xml:space="preserve">59{}:Bamboo</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G28">
+      <text>
+        <t xml:space="preserve">79{}:Betel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H28">
+      <text>
+        <t xml:space="preserve">56{2, 4, 7, 8, 14, 28}:Bael</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D30">
+      <text>
+        <t xml:space="preserve">88{2, 4, 8, 11, 22, 44}:Whey</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E30">
+      <text>
+        <t xml:space="preserve">33{3,11}:Scorpion</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F30">
+      <text>
+        <t xml:space="preserve">45{3, 5, 9, 15}:Peacock</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G30">
+      <text>
+        <t xml:space="preserve">61{}:Horseradish</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H30">
+      <text>
+        <t xml:space="preserve">47{}:Koel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D42">
+      <text>
+        <t xml:space="preserve">177{3, 59}:Who</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E42">
+      <text>
+        <t xml:space="preserve">141{3, 47}:Print</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F42">
+      <text>
+        <t xml:space="preserve">185{5, 37}:Think</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G42">
+      <text>
+        <t xml:space="preserve">172{2, 4, 43, 86}:Position</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H42">
+      <text>
+        <t xml:space="preserve">175{5, 7, 25, 35}:Thing</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D49">
+      <text>
+        <t xml:space="preserve">179{}:Left</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E49">
+      <text>
+        <t xml:space="preserve">155{5, 31}:Carry</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F49">
+      <text>
+        <t xml:space="preserve">160{2, 4, 5, 8, 10, 16, 20, 32, 40, 80}:Sleeve</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G49">
+      <text>
+        <t xml:space="preserve">169{13}:Robot</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H49">
+      <text>
+        <t xml:space="preserve">160{2, 4, 5, 8, 10, 16, 20, 32, 40, 80}:Sleeve</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D56">
+      <text>
+        <t xml:space="preserve">152{2, 4, 8, 19, 38, 76}:Bend</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E56">
+      <text>
+        <t xml:space="preserve">159{3, 53}:Quote</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F56">
+      <text>
+        <t xml:space="preserve">146{2, 73}:Mark</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G56">
+      <text>
+        <t xml:space="preserve">148{2, 4, 37, 74}:Fact</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H56">
+      <text>
+        <t xml:space="preserve">157{}:Grill</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D59">
+      <text>
+        <t xml:space="preserve">66{2, 3, 6, 11, 22, 33}:Cotton</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E59">
+      <text>
+        <t xml:space="preserve">60{2, 3, 4, 5, 6, 10, 12, 15, 20, 30}:Mangrove</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F59">
+      <text>
+        <t xml:space="preserve">51{3, 17}:Bulbul</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G59">
+      <text>
+        <t xml:space="preserve">59{}:Bamboo</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H59">
+      <text>
+        <t xml:space="preserve">69{3, 23}:Papaya</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D61">
+      <text>
+        <t xml:space="preserve">45{3, 5, 9, 15}:Peacock</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E61">
+      <text>
+        <t xml:space="preserve">44{2, 4, 11, 22}:Rhinoceros</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F61">
+      <text>
+        <t xml:space="preserve">50{2, 5, 10, 25}:Swan</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G61">
+      <text>
+        <t xml:space="preserve">36{2, 3, 4, 6, 9, 12, 18}:Firefly</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H61">
+      <text>
+        <t xml:space="preserve">73{}:Pomegranate</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
@@ -112,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="592">
   <si>
     <t>Order</t>
   </si>
@@ -2895,6 +3155,9 @@
     <t>I'm here</t>
   </si>
   <si>
+    <t>`</t>
+  </si>
+  <si>
     <t>Preposition</t>
   </si>
   <si>
@@ -29278,7 +29541,8 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToWidth="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -31092,7 +31356,9 @@
       <c r="N40" s="57"/>
       <c r="O40" s="58"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="Q40" s="16" t="s">
+        <v>523</v>
+      </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -31112,29 +31378,29 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="53">
         <v>6.0</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -31161,29 +31427,29 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="53">
         <v>7.0</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -31210,29 +31476,29 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="53">
         <v>8.0</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -31259,29 +31525,29 @@
         <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="53">
         <v>9.0</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -31308,29 +31574,29 @@
         <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="53">
         <v>10.0</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="56"/>
@@ -31357,29 +31623,29 @@
         <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="53">
         <v>11.0</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="56"/>
@@ -31406,29 +31672,29 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="53">
         <v>12.0</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="56"/>
@@ -31455,29 +31721,29 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="53">
         <v>13.0</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L48" s="55"/>
       <c r="M48" s="56"/>
@@ -31504,7 +31770,7 @@
         <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="1"/>
@@ -31516,7 +31782,7 @@
         <v>14.0</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="56"/>
@@ -31543,7 +31809,7 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="1"/>
@@ -31555,7 +31821,7 @@
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -31582,7 +31848,7 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="1"/>
@@ -31594,7 +31860,7 @@
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -31621,7 +31887,7 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="1"/>
@@ -31633,7 +31899,7 @@
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -31660,7 +31926,7 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
@@ -31672,7 +31938,7 @@
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -31699,7 +31965,7 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -31711,7 +31977,7 @@
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -31738,7 +32004,7 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -31750,7 +32016,7 @@
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -31777,7 +32043,7 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -31789,7 +32055,7 @@
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -31816,7 +32082,7 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -31828,7 +32094,7 @@
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -31855,7 +32121,7 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -31867,7 +32133,7 @@
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -31894,7 +32160,7 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="1"/>
@@ -31906,7 +32172,7 @@
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -31933,7 +32199,7 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="1"/>
@@ -31945,7 +32211,7 @@
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -31972,7 +32238,7 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="69"/>
@@ -31984,7 +32250,7 @@
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32008,32 +32274,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="63" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K62" s="64" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L62" s="65"/>
       <c r="M62" s="66"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="596">
   <si>
     <t>Order</t>
   </si>
@@ -2859,6 +2859,15 @@
     <t>Market</t>
   </si>
   <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Chalk</t>
+  </si>
+  <si>
+    <t>Water Cooler</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -2919,6 +2928,9 @@
   </si>
   <si>
     <t>Orange</t>
+  </si>
+  <si>
+    <t>Wall Board</t>
   </si>
   <si>
     <r>
@@ -4035,9 +4047,6 @@
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="26" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -4060,6 +4069,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30836,15 +30848,21 @@
       <c r="E29" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="60"/>
+      <c r="F29" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>472</v>
+      </c>
       <c r="I29" s="46"/>
       <c r="J29" s="53">
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -30871,27 +30889,29 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="H30" s="61"/>
+        <v>478</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>479</v>
+      </c>
       <c r="I30" s="46"/>
       <c r="J30" s="53">
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -30915,37 +30935,37 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>480</v>
+        <v>483</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>484</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="I31" s="46"/>
-      <c r="J31" s="63" t="s">
-        <v>484</v>
-      </c>
-      <c r="K31" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="L31" s="65"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="67"/>
+      <c r="J31" s="62" t="s">
+        <v>488</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="L31" s="64"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="66"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -30976,7 +30996,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="68"/>
+      <c r="O32" s="67"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -31079,32 +31099,32 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="8" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="47" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L35" s="49"/>
       <c r="M35" s="50"/>
@@ -31131,29 +31151,29 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="53">
         <v>1.0</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="56"/>
@@ -31180,29 +31200,29 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="53">
         <v>2.0</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L37" s="55"/>
       <c r="M37" s="56"/>
@@ -31229,29 +31249,29 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="53">
         <v>3.0</v>
       </c>
       <c r="K38" s="54" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="56"/>
@@ -31278,29 +31298,29 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="53">
         <v>4.0</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -31327,29 +31347,29 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="53">
         <v>5.0</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -31357,7 +31377,7 @@
       <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="16" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -31378,29 +31398,29 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="53">
         <v>6.0</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -31427,29 +31447,29 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="53">
         <v>7.0</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -31476,29 +31496,29 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="53">
         <v>8.0</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -31525,29 +31545,29 @@
         <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="53">
         <v>9.0</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -31574,29 +31594,29 @@
         <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="53">
         <v>10.0</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="56"/>
@@ -31623,29 +31643,29 @@
         <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="53">
         <v>11.0</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="56"/>
@@ -31672,29 +31692,29 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="53">
         <v>12.0</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="56"/>
@@ -31721,29 +31741,29 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="53">
         <v>13.0</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L48" s="55"/>
       <c r="M48" s="56"/>
@@ -31770,7 +31790,7 @@
         <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="1"/>
@@ -31782,7 +31802,7 @@
         <v>14.0</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="56"/>
@@ -31809,7 +31829,7 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="1"/>
@@ -31821,7 +31841,7 @@
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -31848,7 +31868,7 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="1"/>
@@ -31860,7 +31880,7 @@
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -31887,7 +31907,7 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="1"/>
@@ -31899,7 +31919,7 @@
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -31926,7 +31946,7 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
@@ -31938,7 +31958,7 @@
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -31965,7 +31985,7 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -31977,7 +31997,7 @@
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32004,7 +32024,7 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -32016,7 +32036,7 @@
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32043,7 +32063,7 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -32055,7 +32075,7 @@
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32082,7 +32102,7 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -32094,7 +32114,7 @@
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32121,7 +32141,7 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -32133,7 +32153,7 @@
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32160,7 +32180,7 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="1"/>
@@ -32172,7 +32192,7 @@
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32199,7 +32219,7 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="1"/>
@@ -32211,7 +32231,7 @@
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32238,19 +32258,19 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D61" s="24"/>
-      <c r="E61" s="69"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="61"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="69"/>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32274,37 +32294,37 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F62" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="62" t="s">
         <v>589</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="K62" s="63" t="s">
         <v>590</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="63" t="s">
-        <v>585</v>
-      </c>
-      <c r="K62" s="64" t="s">
-        <v>586</v>
-      </c>
-      <c r="L62" s="65"/>
-      <c r="M62" s="66"/>
-      <c r="N62" s="65"/>
-      <c r="O62" s="67"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="66"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -32335,7 +32355,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="68"/>
+      <c r="O63" s="67"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -32366,7 +32386,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="68"/>
+      <c r="O64" s="67"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -32397,7 +32417,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="68"/>
+      <c r="O65" s="67"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -32428,7 +32448,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="68"/>
+      <c r="O66" s="67"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -32459,7 +32479,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="68"/>
+      <c r="O67" s="67"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -32490,7 +32510,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="68"/>
+      <c r="O68" s="67"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -32521,7 +32541,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="68"/>
+      <c r="O69" s="67"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -32552,7 +32572,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="68"/>
+      <c r="O70" s="67"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -32583,7 +32603,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="68"/>
+      <c r="O71" s="67"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -32614,7 +32634,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="68"/>
+      <c r="O72" s="67"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -32645,7 +32665,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="68"/>
+      <c r="O73" s="67"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -32676,7 +32696,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="68"/>
+      <c r="O74" s="67"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -32707,7 +32727,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="68"/>
+      <c r="O75" s="67"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -32738,7 +32758,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="68"/>
+      <c r="O76" s="67"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -32769,7 +32789,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="68"/>
+      <c r="O77" s="67"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -32800,7 +32820,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="68"/>
+      <c r="O78" s="67"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
@@ -32831,7 +32851,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="68"/>
+      <c r="O79" s="67"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
@@ -32862,7 +32882,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="68"/>
+      <c r="O80" s="67"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -32893,7 +32913,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="68"/>
+      <c r="O81" s="67"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
@@ -32924,7 +32944,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="68"/>
+      <c r="O82" s="67"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
@@ -32955,7 +32975,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="68"/>
+      <c r="O83" s="67"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -32986,7 +33006,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="68"/>
+      <c r="O84" s="67"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -33017,7 +33037,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="68"/>
+      <c r="O85" s="67"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
@@ -33048,7 +33068,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="68"/>
+      <c r="O86" s="67"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
@@ -33079,7 +33099,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="68"/>
+      <c r="O87" s="67"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -33110,7 +33130,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="68"/>
+      <c r="O88" s="67"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -33141,7 +33161,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="68"/>
+      <c r="O89" s="67"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
@@ -33172,7 +33192,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="68"/>
+      <c r="O90" s="67"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
@@ -33203,7 +33223,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="68"/>
+      <c r="O91" s="67"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -33234,7 +33254,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="68"/>
+      <c r="O92" s="67"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -33265,7 +33285,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="68"/>
+      <c r="O93" s="67"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
@@ -33296,7 +33316,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="68"/>
+      <c r="O94" s="67"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
@@ -33327,7 +33347,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="68"/>
+      <c r="O95" s="67"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
@@ -33358,7 +33378,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="68"/>
+      <c r="O96" s="67"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
@@ -33389,7 +33409,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="68"/>
+      <c r="O97" s="67"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
@@ -33420,7 +33440,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="68"/>
+      <c r="O98" s="67"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
@@ -33451,7 +33471,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="68"/>
+      <c r="O99" s="67"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
@@ -33482,7 +33502,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="68"/>
+      <c r="O100" s="67"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
@@ -33513,7 +33533,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="68"/>
+      <c r="O101" s="67"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
@@ -33544,7 +33564,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="68"/>
+      <c r="O102" s="67"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
@@ -33575,7 +33595,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="68"/>
+      <c r="O103" s="67"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -33606,7 +33626,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-      <c r="O104" s="68"/>
+      <c r="O104" s="67"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -33637,7 +33657,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-      <c r="O105" s="68"/>
+      <c r="O105" s="67"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
@@ -33668,7 +33688,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-      <c r="O106" s="68"/>
+      <c r="O106" s="67"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
@@ -33699,7 +33719,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-      <c r="O107" s="68"/>
+      <c r="O107" s="67"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -33730,7 +33750,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-      <c r="O108" s="68"/>
+      <c r="O108" s="67"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
@@ -33761,7 +33781,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-      <c r="O109" s="68"/>
+      <c r="O109" s="67"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -33792,7 +33812,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" s="68"/>
+      <c r="O110" s="67"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
@@ -33823,7 +33843,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-      <c r="O111" s="68"/>
+      <c r="O111" s="67"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -33854,7 +33874,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" s="68"/>
+      <c r="O112" s="67"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -33885,7 +33905,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="68"/>
+      <c r="O113" s="67"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
@@ -33916,7 +33936,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="68"/>
+      <c r="O114" s="67"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
@@ -33947,7 +33967,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
-      <c r="O115" s="68"/>
+      <c r="O115" s="67"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -33978,7 +33998,7 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-      <c r="O116" s="68"/>
+      <c r="O116" s="67"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -34009,7 +34029,7 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="68"/>
+      <c r="O117" s="67"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -34040,7 +34060,7 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="68"/>
+      <c r="O118" s="67"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
@@ -34071,7 +34091,7 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-      <c r="O119" s="68"/>
+      <c r="O119" s="67"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -34102,7 +34122,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-      <c r="O120" s="68"/>
+      <c r="O120" s="67"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -34133,7 +34153,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="68"/>
+      <c r="O121" s="67"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
@@ -34164,7 +34184,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="O122" s="68"/>
+      <c r="O122" s="67"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -34195,7 +34215,7 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="68"/>
+      <c r="O123" s="67"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -34226,7 +34246,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="68"/>
+      <c r="O124" s="67"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -34257,7 +34277,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="68"/>
+      <c r="O125" s="67"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
@@ -34288,7 +34308,7 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="68"/>
+      <c r="O126" s="67"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
@@ -34319,7 +34339,7 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="68"/>
+      <c r="O127" s="67"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
@@ -34350,7 +34370,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="68"/>
+      <c r="O128" s="67"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
@@ -34381,7 +34401,7 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-      <c r="O129" s="68"/>
+      <c r="O129" s="67"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
@@ -34412,7 +34432,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="68"/>
+      <c r="O130" s="67"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
@@ -34443,7 +34463,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-      <c r="O131" s="68"/>
+      <c r="O131" s="67"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
@@ -34474,7 +34494,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-      <c r="O132" s="68"/>
+      <c r="O132" s="67"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
@@ -34505,7 +34525,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="68"/>
+      <c r="O133" s="67"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -34536,7 +34556,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-      <c r="O134" s="68"/>
+      <c r="O134" s="67"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
@@ -34567,7 +34587,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="O135" s="68"/>
+      <c r="O135" s="67"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -34598,7 +34618,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="O136" s="68"/>
+      <c r="O136" s="67"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -34629,7 +34649,7 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
-      <c r="O137" s="68"/>
+      <c r="O137" s="67"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
@@ -34660,7 +34680,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="O138" s="68"/>
+      <c r="O138" s="67"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
@@ -34691,7 +34711,7 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
-      <c r="O139" s="68"/>
+      <c r="O139" s="67"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -34722,7 +34742,7 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
-      <c r="O140" s="68"/>
+      <c r="O140" s="67"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -34753,7 +34773,7 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
-      <c r="O141" s="68"/>
+      <c r="O141" s="67"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
@@ -34784,7 +34804,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
-      <c r="O142" s="68"/>
+      <c r="O142" s="67"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
@@ -34815,7 +34835,7 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
-      <c r="O143" s="68"/>
+      <c r="O143" s="67"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -34846,7 +34866,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
-      <c r="O144" s="68"/>
+      <c r="O144" s="67"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
@@ -34877,7 +34897,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
-      <c r="O145" s="68"/>
+      <c r="O145" s="67"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
@@ -34908,7 +34928,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
-      <c r="O146" s="68"/>
+      <c r="O146" s="67"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
@@ -34939,7 +34959,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
-      <c r="O147" s="68"/>
+      <c r="O147" s="67"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -34970,7 +34990,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
-      <c r="O148" s="68"/>
+      <c r="O148" s="67"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -35001,7 +35021,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-      <c r="O149" s="68"/>
+      <c r="O149" s="67"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
@@ -35032,7 +35052,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-      <c r="O150" s="68"/>
+      <c r="O150" s="67"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
@@ -35063,7 +35083,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-      <c r="O151" s="68"/>
+      <c r="O151" s="67"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -35094,7 +35114,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-      <c r="O152" s="68"/>
+      <c r="O152" s="67"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -35125,7 +35145,7 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="O153" s="68"/>
+      <c r="O153" s="67"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -35156,7 +35176,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-      <c r="O154" s="68"/>
+      <c r="O154" s="67"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
@@ -35187,7 +35207,7 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="68"/>
+      <c r="O155" s="67"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -35218,7 +35238,7 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="68"/>
+      <c r="O156" s="67"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -35249,7 +35269,7 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-      <c r="O157" s="68"/>
+      <c r="O157" s="67"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
@@ -35280,7 +35300,7 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="68"/>
+      <c r="O158" s="67"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
@@ -35311,7 +35331,7 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="68"/>
+      <c r="O159" s="67"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
@@ -35342,7 +35362,7 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="68"/>
+      <c r="O160" s="67"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -35373,7 +35393,7 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
-      <c r="O161" s="68"/>
+      <c r="O161" s="67"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
@@ -35404,7 +35424,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="O162" s="68"/>
+      <c r="O162" s="67"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
@@ -35435,7 +35455,7 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="68"/>
+      <c r="O163" s="67"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -35466,7 +35486,7 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-      <c r="O164" s="68"/>
+      <c r="O164" s="67"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -35497,7 +35517,7 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
-      <c r="O165" s="68"/>
+      <c r="O165" s="67"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -35528,7 +35548,7 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
-      <c r="O166" s="68"/>
+      <c r="O166" s="67"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -35559,7 +35579,7 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
-      <c r="O167" s="68"/>
+      <c r="O167" s="67"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -35590,7 +35610,7 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
-      <c r="O168" s="68"/>
+      <c r="O168" s="67"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -35621,7 +35641,7 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
-      <c r="O169" s="68"/>
+      <c r="O169" s="67"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
@@ -35652,7 +35672,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="O170" s="68"/>
+      <c r="O170" s="67"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
@@ -35683,7 +35703,7 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-      <c r="O171" s="68"/>
+      <c r="O171" s="67"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
@@ -35714,7 +35734,7 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
-      <c r="O172" s="68"/>
+      <c r="O172" s="67"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
@@ -35745,7 +35765,7 @@
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
-      <c r="O173" s="68"/>
+      <c r="O173" s="67"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
@@ -35776,7 +35796,7 @@
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
-      <c r="O174" s="68"/>
+      <c r="O174" s="67"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
@@ -35807,7 +35827,7 @@
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
-      <c r="O175" s="68"/>
+      <c r="O175" s="67"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -35838,7 +35858,7 @@
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
-      <c r="O176" s="68"/>
+      <c r="O176" s="67"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -35869,7 +35889,7 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
-      <c r="O177" s="68"/>
+      <c r="O177" s="67"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -35900,7 +35920,7 @@
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
-      <c r="O178" s="68"/>
+      <c r="O178" s="67"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -35931,7 +35951,7 @@
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
-      <c r="O179" s="68"/>
+      <c r="O179" s="67"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -35962,7 +35982,7 @@
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="O180" s="68"/>
+      <c r="O180" s="67"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -35993,7 +36013,7 @@
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
-      <c r="O181" s="68"/>
+      <c r="O181" s="67"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
@@ -36024,7 +36044,7 @@
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
-      <c r="O182" s="68"/>
+      <c r="O182" s="67"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -36055,7 +36075,7 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
-      <c r="O183" s="68"/>
+      <c r="O183" s="67"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
@@ -36086,7 +36106,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
-      <c r="O184" s="68"/>
+      <c r="O184" s="67"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
@@ -36117,7 +36137,7 @@
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
-      <c r="O185" s="68"/>
+      <c r="O185" s="67"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
@@ -36148,7 +36168,7 @@
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
-      <c r="O186" s="68"/>
+      <c r="O186" s="67"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
@@ -36179,7 +36199,7 @@
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
-      <c r="O187" s="68"/>
+      <c r="O187" s="67"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -36210,7 +36230,7 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
-      <c r="O188" s="68"/>
+      <c r="O188" s="67"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -36241,7 +36261,7 @@
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
-      <c r="O189" s="68"/>
+      <c r="O189" s="67"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
@@ -36272,7 +36292,7 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
-      <c r="O190" s="68"/>
+      <c r="O190" s="67"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
@@ -36303,7 +36323,7 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
-      <c r="O191" s="68"/>
+      <c r="O191" s="67"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -36334,7 +36354,7 @@
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
-      <c r="O192" s="68"/>
+      <c r="O192" s="67"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
@@ -36365,7 +36385,7 @@
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
-      <c r="O193" s="68"/>
+      <c r="O193" s="67"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
@@ -36396,7 +36416,7 @@
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
-      <c r="O194" s="68"/>
+      <c r="O194" s="67"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
@@ -36427,7 +36447,7 @@
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
-      <c r="O195" s="68"/>
+      <c r="O195" s="67"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -36458,7 +36478,7 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
-      <c r="O196" s="68"/>
+      <c r="O196" s="67"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
@@ -36489,7 +36509,7 @@
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
-      <c r="O197" s="68"/>
+      <c r="O197" s="67"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
@@ -36520,7 +36540,7 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
-      <c r="O198" s="68"/>
+      <c r="O198" s="67"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
@@ -36551,7 +36571,7 @@
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
-      <c r="O199" s="68"/>
+      <c r="O199" s="67"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
@@ -36582,7 +36602,7 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
-      <c r="O200" s="68"/>
+      <c r="O200" s="67"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
@@ -36613,7 +36633,7 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
-      <c r="O201" s="68"/>
+      <c r="O201" s="67"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
@@ -36644,7 +36664,7 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
-      <c r="O202" s="68"/>
+      <c r="O202" s="67"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
@@ -36675,7 +36695,7 @@
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
-      <c r="O203" s="68"/>
+      <c r="O203" s="67"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
@@ -36706,7 +36726,7 @@
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
-      <c r="O204" s="68"/>
+      <c r="O204" s="67"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
@@ -36737,7 +36757,7 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
-      <c r="O205" s="68"/>
+      <c r="O205" s="67"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
@@ -36768,7 +36788,7 @@
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
-      <c r="O206" s="68"/>
+      <c r="O206" s="67"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
@@ -36799,7 +36819,7 @@
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
-      <c r="O207" s="68"/>
+      <c r="O207" s="67"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
@@ -36830,7 +36850,7 @@
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
-      <c r="O208" s="68"/>
+      <c r="O208" s="67"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
@@ -36861,7 +36881,7 @@
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
-      <c r="O209" s="68"/>
+      <c r="O209" s="67"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
@@ -36892,7 +36912,7 @@
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
-      <c r="O210" s="68"/>
+      <c r="O210" s="67"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
@@ -36923,7 +36943,7 @@
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
-      <c r="O211" s="68"/>
+      <c r="O211" s="67"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
@@ -36954,7 +36974,7 @@
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
-      <c r="O212" s="68"/>
+      <c r="O212" s="67"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
@@ -36985,7 +37005,7 @@
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
-      <c r="O213" s="68"/>
+      <c r="O213" s="67"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
@@ -37016,7 +37036,7 @@
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
-      <c r="O214" s="68"/>
+      <c r="O214" s="67"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
@@ -37047,7 +37067,7 @@
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
-      <c r="O215" s="68"/>
+      <c r="O215" s="67"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
@@ -37078,7 +37098,7 @@
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
-      <c r="O216" s="68"/>
+      <c r="O216" s="67"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
@@ -37109,7 +37129,7 @@
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
-      <c r="O217" s="68"/>
+      <c r="O217" s="67"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
@@ -37140,7 +37160,7 @@
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
-      <c r="O218" s="68"/>
+      <c r="O218" s="67"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
@@ -37171,7 +37191,7 @@
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
-      <c r="O219" s="68"/>
+      <c r="O219" s="67"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
@@ -37202,7 +37222,7 @@
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
-      <c r="O220" s="68"/>
+      <c r="O220" s="67"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
@@ -37233,7 +37253,7 @@
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
-      <c r="O221" s="68"/>
+      <c r="O221" s="67"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
@@ -37264,7 +37284,7 @@
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
-      <c r="O222" s="68"/>
+      <c r="O222" s="67"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
@@ -37295,7 +37315,7 @@
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
-      <c r="O223" s="68"/>
+      <c r="O223" s="67"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
@@ -37326,7 +37346,7 @@
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
-      <c r="O224" s="68"/>
+      <c r="O224" s="67"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
@@ -37357,7 +37377,7 @@
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
-      <c r="O225" s="68"/>
+      <c r="O225" s="67"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
@@ -37388,7 +37408,7 @@
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
-      <c r="O226" s="68"/>
+      <c r="O226" s="67"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
@@ -37419,7 +37439,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
-      <c r="O227" s="68"/>
+      <c r="O227" s="67"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
@@ -37450,7 +37470,7 @@
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
-      <c r="O228" s="68"/>
+      <c r="O228" s="67"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
@@ -37481,7 +37501,7 @@
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
-      <c r="O229" s="68"/>
+      <c r="O229" s="67"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
@@ -37512,7 +37532,7 @@
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
-      <c r="O230" s="68"/>
+      <c r="O230" s="67"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
@@ -37543,7 +37563,7 @@
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
-      <c r="O231" s="68"/>
+      <c r="O231" s="67"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
@@ -37574,7 +37594,7 @@
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
-      <c r="O232" s="68"/>
+      <c r="O232" s="67"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
@@ -37605,7 +37625,7 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
-      <c r="O233" s="68"/>
+      <c r="O233" s="67"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
@@ -37636,7 +37656,7 @@
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
-      <c r="O234" s="68"/>
+      <c r="O234" s="67"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
@@ -37667,7 +37687,7 @@
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
-      <c r="O235" s="68"/>
+      <c r="O235" s="67"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
@@ -37698,7 +37718,7 @@
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
-      <c r="O236" s="68"/>
+      <c r="O236" s="67"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
@@ -37729,7 +37749,7 @@
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
-      <c r="O237" s="68"/>
+      <c r="O237" s="67"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
@@ -37760,7 +37780,7 @@
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
-      <c r="O238" s="68"/>
+      <c r="O238" s="67"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
@@ -37791,7 +37811,7 @@
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
-      <c r="O239" s="68"/>
+      <c r="O239" s="67"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
@@ -37822,7 +37842,7 @@
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
-      <c r="O240" s="68"/>
+      <c r="O240" s="67"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
@@ -37853,7 +37873,7 @@
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
-      <c r="O241" s="68"/>
+      <c r="O241" s="67"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
@@ -37884,7 +37904,7 @@
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
-      <c r="O242" s="68"/>
+      <c r="O242" s="67"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
@@ -37915,7 +37935,7 @@
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
-      <c r="O243" s="68"/>
+      <c r="O243" s="67"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
@@ -37946,7 +37966,7 @@
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
-      <c r="O244" s="68"/>
+      <c r="O244" s="67"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
@@ -37977,7 +37997,7 @@
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
-      <c r="O245" s="68"/>
+      <c r="O245" s="67"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
@@ -38008,7 +38028,7 @@
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
-      <c r="O246" s="68"/>
+      <c r="O246" s="67"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
@@ -38039,7 +38059,7 @@
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
-      <c r="O247" s="68"/>
+      <c r="O247" s="67"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
@@ -38070,7 +38090,7 @@
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
-      <c r="O248" s="68"/>
+      <c r="O248" s="67"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
@@ -38101,7 +38121,7 @@
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
-      <c r="O249" s="68"/>
+      <c r="O249" s="67"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
@@ -38132,7 +38152,7 @@
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
-      <c r="O250" s="68"/>
+      <c r="O250" s="67"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
@@ -38163,7 +38183,7 @@
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
-      <c r="O251" s="68"/>
+      <c r="O251" s="67"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
@@ -38194,7 +38214,7 @@
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
-      <c r="O252" s="68"/>
+      <c r="O252" s="67"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
@@ -38225,7 +38245,7 @@
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
-      <c r="O253" s="68"/>
+      <c r="O253" s="67"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
@@ -38256,7 +38276,7 @@
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
-      <c r="O254" s="68"/>
+      <c r="O254" s="67"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
@@ -38287,7 +38307,7 @@
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
-      <c r="O255" s="68"/>
+      <c r="O255" s="67"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
@@ -38318,7 +38338,7 @@
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
-      <c r="O256" s="68"/>
+      <c r="O256" s="67"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
@@ -38349,7 +38369,7 @@
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
-      <c r="O257" s="68"/>
+      <c r="O257" s="67"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
@@ -38380,7 +38400,7 @@
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
-      <c r="O258" s="68"/>
+      <c r="O258" s="67"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
@@ -38411,7 +38431,7 @@
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
-      <c r="O259" s="68"/>
+      <c r="O259" s="67"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
@@ -38442,7 +38462,7 @@
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
-      <c r="O260" s="68"/>
+      <c r="O260" s="67"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
@@ -38473,7 +38493,7 @@
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
-      <c r="O261" s="68"/>
+      <c r="O261" s="67"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
@@ -38504,7 +38524,7 @@
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
-      <c r="O262" s="68"/>
+      <c r="O262" s="67"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
@@ -38535,7 +38555,7 @@
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
-      <c r="O263" s="68"/>
+      <c r="O263" s="67"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
@@ -38566,7 +38586,7 @@
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
-      <c r="O264" s="68"/>
+      <c r="O264" s="67"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
@@ -38597,7 +38617,7 @@
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
-      <c r="O265" s="68"/>
+      <c r="O265" s="67"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
@@ -38628,7 +38648,7 @@
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
-      <c r="O266" s="68"/>
+      <c r="O266" s="67"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
@@ -38659,7 +38679,7 @@
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
-      <c r="O267" s="68"/>
+      <c r="O267" s="67"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
@@ -38690,7 +38710,7 @@
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
-      <c r="O268" s="68"/>
+      <c r="O268" s="67"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
@@ -38721,7 +38741,7 @@
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
-      <c r="O269" s="68"/>
+      <c r="O269" s="67"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
@@ -38752,7 +38772,7 @@
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
-      <c r="O270" s="68"/>
+      <c r="O270" s="67"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
@@ -38783,7 +38803,7 @@
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
-      <c r="O271" s="68"/>
+      <c r="O271" s="67"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
@@ -38814,7 +38834,7 @@
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
-      <c r="O272" s="68"/>
+      <c r="O272" s="67"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
@@ -38845,7 +38865,7 @@
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
-      <c r="O273" s="68"/>
+      <c r="O273" s="67"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
@@ -38876,7 +38896,7 @@
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
-      <c r="O274" s="68"/>
+      <c r="O274" s="67"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
@@ -38907,7 +38927,7 @@
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
-      <c r="O275" s="68"/>
+      <c r="O275" s="67"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
@@ -38938,7 +38958,7 @@
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
-      <c r="O276" s="68"/>
+      <c r="O276" s="67"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
@@ -38969,7 +38989,7 @@
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
-      <c r="O277" s="68"/>
+      <c r="O277" s="67"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
@@ -39000,7 +39020,7 @@
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
-      <c r="O278" s="68"/>
+      <c r="O278" s="67"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
@@ -39031,7 +39051,7 @@
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
-      <c r="O279" s="68"/>
+      <c r="O279" s="67"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
@@ -39062,7 +39082,7 @@
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
-      <c r="O280" s="68"/>
+      <c r="O280" s="67"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
@@ -39093,7 +39113,7 @@
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
-      <c r="O281" s="68"/>
+      <c r="O281" s="67"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
@@ -39124,7 +39144,7 @@
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
-      <c r="O282" s="68"/>
+      <c r="O282" s="67"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
@@ -39155,7 +39175,7 @@
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
-      <c r="O283" s="68"/>
+      <c r="O283" s="67"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
@@ -39186,7 +39206,7 @@
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
-      <c r="O284" s="68"/>
+      <c r="O284" s="67"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
@@ -39217,7 +39237,7 @@
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
-      <c r="O285" s="68"/>
+      <c r="O285" s="67"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
@@ -39248,7 +39268,7 @@
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
-      <c r="O286" s="68"/>
+      <c r="O286" s="67"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
@@ -39279,7 +39299,7 @@
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
-      <c r="O287" s="68"/>
+      <c r="O287" s="67"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
@@ -39310,7 +39330,7 @@
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
-      <c r="O288" s="68"/>
+      <c r="O288" s="67"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
@@ -39341,7 +39361,7 @@
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
-      <c r="O289" s="68"/>
+      <c r="O289" s="67"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
@@ -39372,7 +39392,7 @@
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
-      <c r="O290" s="68"/>
+      <c r="O290" s="67"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
@@ -39403,7 +39423,7 @@
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
-      <c r="O291" s="68"/>
+      <c r="O291" s="67"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
@@ -39434,7 +39454,7 @@
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
-      <c r="O292" s="68"/>
+      <c r="O292" s="67"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
@@ -39465,7 +39485,7 @@
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
-      <c r="O293" s="68"/>
+      <c r="O293" s="67"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
@@ -39496,7 +39516,7 @@
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
-      <c r="O294" s="68"/>
+      <c r="O294" s="67"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
@@ -39527,7 +39547,7 @@
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
-      <c r="O295" s="68"/>
+      <c r="O295" s="67"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
@@ -39558,7 +39578,7 @@
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
-      <c r="O296" s="68"/>
+      <c r="O296" s="67"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
@@ -39589,7 +39609,7 @@
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
-      <c r="O297" s="68"/>
+      <c r="O297" s="67"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
@@ -39620,7 +39640,7 @@
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
-      <c r="O298" s="68"/>
+      <c r="O298" s="67"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
@@ -39651,7 +39671,7 @@
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
-      <c r="O299" s="68"/>
+      <c r="O299" s="67"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
@@ -39682,7 +39702,7 @@
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
-      <c r="O300" s="68"/>
+      <c r="O300" s="67"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
@@ -39713,7 +39733,7 @@
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
-      <c r="O301" s="68"/>
+      <c r="O301" s="67"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
@@ -39744,7 +39764,7 @@
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
-      <c r="O302" s="68"/>
+      <c r="O302" s="67"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
@@ -39775,7 +39795,7 @@
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
-      <c r="O303" s="68"/>
+      <c r="O303" s="67"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
@@ -39806,7 +39826,7 @@
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
-      <c r="O304" s="68"/>
+      <c r="O304" s="67"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
@@ -39837,7 +39857,7 @@
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
-      <c r="O305" s="68"/>
+      <c r="O305" s="67"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
@@ -39868,7 +39888,7 @@
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
-      <c r="O306" s="68"/>
+      <c r="O306" s="67"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
@@ -39899,7 +39919,7 @@
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
-      <c r="O307" s="68"/>
+      <c r="O307" s="67"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
@@ -39930,7 +39950,7 @@
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
-      <c r="O308" s="68"/>
+      <c r="O308" s="67"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
@@ -39961,7 +39981,7 @@
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
-      <c r="O309" s="68"/>
+      <c r="O309" s="67"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
@@ -39992,7 +40012,7 @@
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
-      <c r="O310" s="68"/>
+      <c r="O310" s="67"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
@@ -40023,7 +40043,7 @@
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
-      <c r="O311" s="68"/>
+      <c r="O311" s="67"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
@@ -40054,7 +40074,7 @@
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
-      <c r="O312" s="68"/>
+      <c r="O312" s="67"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
@@ -40085,7 +40105,7 @@
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
-      <c r="O313" s="68"/>
+      <c r="O313" s="67"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
@@ -40116,7 +40136,7 @@
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
-      <c r="O314" s="68"/>
+      <c r="O314" s="67"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
@@ -40147,7 +40167,7 @@
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
-      <c r="O315" s="68"/>
+      <c r="O315" s="67"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
@@ -40178,7 +40198,7 @@
       <c r="L316" s="1"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
-      <c r="O316" s="68"/>
+      <c r="O316" s="67"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
@@ -40209,7 +40229,7 @@
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
-      <c r="O317" s="68"/>
+      <c r="O317" s="67"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
@@ -40240,7 +40260,7 @@
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
-      <c r="O318" s="68"/>
+      <c r="O318" s="67"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
@@ -40271,7 +40291,7 @@
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
-      <c r="O319" s="68"/>
+      <c r="O319" s="67"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
@@ -40302,7 +40322,7 @@
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
-      <c r="O320" s="68"/>
+      <c r="O320" s="67"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
@@ -40333,7 +40353,7 @@
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
-      <c r="O321" s="68"/>
+      <c r="O321" s="67"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
@@ -40364,7 +40384,7 @@
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
-      <c r="O322" s="68"/>
+      <c r="O322" s="67"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
@@ -40395,7 +40415,7 @@
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
-      <c r="O323" s="68"/>
+      <c r="O323" s="67"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
@@ -40426,7 +40446,7 @@
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
-      <c r="O324" s="68"/>
+      <c r="O324" s="67"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
@@ -40457,7 +40477,7 @@
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
-      <c r="O325" s="68"/>
+      <c r="O325" s="67"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
@@ -40488,7 +40508,7 @@
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
-      <c r="O326" s="68"/>
+      <c r="O326" s="67"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
@@ -40519,7 +40539,7 @@
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
-      <c r="O327" s="68"/>
+      <c r="O327" s="67"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
@@ -40550,7 +40570,7 @@
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
-      <c r="O328" s="68"/>
+      <c r="O328" s="67"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
@@ -40581,7 +40601,7 @@
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
-      <c r="O329" s="68"/>
+      <c r="O329" s="67"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
@@ -40612,7 +40632,7 @@
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
-      <c r="O330" s="68"/>
+      <c r="O330" s="67"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
@@ -40643,7 +40663,7 @@
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
-      <c r="O331" s="68"/>
+      <c r="O331" s="67"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
@@ -40674,7 +40694,7 @@
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
-      <c r="O332" s="68"/>
+      <c r="O332" s="67"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
@@ -40705,7 +40725,7 @@
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
-      <c r="O333" s="68"/>
+      <c r="O333" s="67"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
@@ -40736,7 +40756,7 @@
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
-      <c r="O334" s="68"/>
+      <c r="O334" s="67"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
@@ -40767,7 +40787,7 @@
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
-      <c r="O335" s="68"/>
+      <c r="O335" s="67"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
@@ -40798,7 +40818,7 @@
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
-      <c r="O336" s="68"/>
+      <c r="O336" s="67"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
@@ -40829,7 +40849,7 @@
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
-      <c r="O337" s="68"/>
+      <c r="O337" s="67"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
@@ -40860,7 +40880,7 @@
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
-      <c r="O338" s="68"/>
+      <c r="O338" s="67"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
@@ -40891,7 +40911,7 @@
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
-      <c r="O339" s="68"/>
+      <c r="O339" s="67"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
@@ -40922,7 +40942,7 @@
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
-      <c r="O340" s="68"/>
+      <c r="O340" s="67"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
@@ -40953,7 +40973,7 @@
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
-      <c r="O341" s="68"/>
+      <c r="O341" s="67"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
@@ -40984,7 +41004,7 @@
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
-      <c r="O342" s="68"/>
+      <c r="O342" s="67"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
@@ -41015,7 +41035,7 @@
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
-      <c r="O343" s="68"/>
+      <c r="O343" s="67"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
@@ -41046,7 +41066,7 @@
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
-      <c r="O344" s="68"/>
+      <c r="O344" s="67"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
@@ -41077,7 +41097,7 @@
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
-      <c r="O345" s="68"/>
+      <c r="O345" s="67"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
@@ -41108,7 +41128,7 @@
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
-      <c r="O346" s="68"/>
+      <c r="O346" s="67"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
@@ -41139,7 +41159,7 @@
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
-      <c r="O347" s="68"/>
+      <c r="O347" s="67"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
@@ -41170,7 +41190,7 @@
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
-      <c r="O348" s="68"/>
+      <c r="O348" s="67"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
@@ -41201,7 +41221,7 @@
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
-      <c r="O349" s="68"/>
+      <c r="O349" s="67"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
@@ -41232,7 +41252,7 @@
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
-      <c r="O350" s="68"/>
+      <c r="O350" s="67"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
@@ -41263,7 +41283,7 @@
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
-      <c r="O351" s="68"/>
+      <c r="O351" s="67"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
@@ -41294,7 +41314,7 @@
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
-      <c r="O352" s="68"/>
+      <c r="O352" s="67"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
@@ -41325,7 +41345,7 @@
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
-      <c r="O353" s="68"/>
+      <c r="O353" s="67"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
@@ -41356,7 +41376,7 @@
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
-      <c r="O354" s="68"/>
+      <c r="O354" s="67"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
@@ -41387,7 +41407,7 @@
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
-      <c r="O355" s="68"/>
+      <c r="O355" s="67"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
@@ -41418,7 +41438,7 @@
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
-      <c r="O356" s="68"/>
+      <c r="O356" s="67"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
@@ -41449,7 +41469,7 @@
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
-      <c r="O357" s="68"/>
+      <c r="O357" s="67"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
@@ -41480,7 +41500,7 @@
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
-      <c r="O358" s="68"/>
+      <c r="O358" s="67"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
@@ -41511,7 +41531,7 @@
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
-      <c r="O359" s="68"/>
+      <c r="O359" s="67"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
@@ -41542,7 +41562,7 @@
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
-      <c r="O360" s="68"/>
+      <c r="O360" s="67"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
@@ -41573,7 +41593,7 @@
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
-      <c r="O361" s="68"/>
+      <c r="O361" s="67"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
@@ -41604,7 +41624,7 @@
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
-      <c r="O362" s="68"/>
+      <c r="O362" s="67"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
@@ -41635,7 +41655,7 @@
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
-      <c r="O363" s="68"/>
+      <c r="O363" s="67"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
@@ -41666,7 +41686,7 @@
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
-      <c r="O364" s="68"/>
+      <c r="O364" s="67"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
@@ -41697,7 +41717,7 @@
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
-      <c r="O365" s="68"/>
+      <c r="O365" s="67"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
@@ -41728,7 +41748,7 @@
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
-      <c r="O366" s="68"/>
+      <c r="O366" s="67"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
@@ -41759,7 +41779,7 @@
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
-      <c r="O367" s="68"/>
+      <c r="O367" s="67"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
@@ -41790,7 +41810,7 @@
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
-      <c r="O368" s="68"/>
+      <c r="O368" s="67"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
@@ -41821,7 +41841,7 @@
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
-      <c r="O369" s="68"/>
+      <c r="O369" s="67"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
@@ -41852,7 +41872,7 @@
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
-      <c r="O370" s="68"/>
+      <c r="O370" s="67"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
@@ -41883,7 +41903,7 @@
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
-      <c r="O371" s="68"/>
+      <c r="O371" s="67"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
@@ -41914,7 +41934,7 @@
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
-      <c r="O372" s="68"/>
+      <c r="O372" s="67"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
@@ -41945,7 +41965,7 @@
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
-      <c r="O373" s="68"/>
+      <c r="O373" s="67"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
@@ -41976,7 +41996,7 @@
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
-      <c r="O374" s="68"/>
+      <c r="O374" s="67"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
@@ -42007,7 +42027,7 @@
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
-      <c r="O375" s="68"/>
+      <c r="O375" s="67"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
@@ -42038,7 +42058,7 @@
       <c r="L376" s="1"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
-      <c r="O376" s="68"/>
+      <c r="O376" s="67"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
@@ -42069,7 +42089,7 @@
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
-      <c r="O377" s="68"/>
+      <c r="O377" s="67"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
@@ -42100,7 +42120,7 @@
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
-      <c r="O378" s="68"/>
+      <c r="O378" s="67"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
@@ -42131,7 +42151,7 @@
       <c r="L379" s="1"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
-      <c r="O379" s="68"/>
+      <c r="O379" s="67"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
@@ -42162,7 +42182,7 @@
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
-      <c r="O380" s="68"/>
+      <c r="O380" s="67"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
@@ -42193,7 +42213,7 @@
       <c r="L381" s="1"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
-      <c r="O381" s="68"/>
+      <c r="O381" s="67"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
@@ -42224,7 +42244,7 @@
       <c r="L382" s="1"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
-      <c r="O382" s="68"/>
+      <c r="O382" s="67"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
@@ -42255,7 +42275,7 @@
       <c r="L383" s="1"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
-      <c r="O383" s="68"/>
+      <c r="O383" s="67"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
@@ -42286,7 +42306,7 @@
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
-      <c r="O384" s="68"/>
+      <c r="O384" s="67"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
@@ -42317,7 +42337,7 @@
       <c r="L385" s="1"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
-      <c r="O385" s="68"/>
+      <c r="O385" s="67"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
@@ -42348,7 +42368,7 @@
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
-      <c r="O386" s="68"/>
+      <c r="O386" s="67"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
@@ -42379,7 +42399,7 @@
       <c r="L387" s="1"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
-      <c r="O387" s="68"/>
+      <c r="O387" s="67"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
@@ -42410,7 +42430,7 @@
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
-      <c r="O388" s="68"/>
+      <c r="O388" s="67"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
@@ -42441,7 +42461,7 @@
       <c r="L389" s="1"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
-      <c r="O389" s="68"/>
+      <c r="O389" s="67"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
@@ -42472,7 +42492,7 @@
       <c r="L390" s="1"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
-      <c r="O390" s="68"/>
+      <c r="O390" s="67"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
@@ -42503,7 +42523,7 @@
       <c r="L391" s="1"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
-      <c r="O391" s="68"/>
+      <c r="O391" s="67"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
@@ -42534,7 +42554,7 @@
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
-      <c r="O392" s="68"/>
+      <c r="O392" s="67"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
@@ -42565,7 +42585,7 @@
       <c r="L393" s="1"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
-      <c r="O393" s="68"/>
+      <c r="O393" s="67"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
@@ -42596,7 +42616,7 @@
       <c r="L394" s="1"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
-      <c r="O394" s="68"/>
+      <c r="O394" s="67"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
@@ -42627,7 +42647,7 @@
       <c r="L395" s="1"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
-      <c r="O395" s="68"/>
+      <c r="O395" s="67"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
@@ -42658,7 +42678,7 @@
       <c r="L396" s="1"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
-      <c r="O396" s="68"/>
+      <c r="O396" s="67"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
@@ -42689,7 +42709,7 @@
       <c r="L397" s="1"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
-      <c r="O397" s="68"/>
+      <c r="O397" s="67"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
@@ -42720,7 +42740,7 @@
       <c r="L398" s="1"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
-      <c r="O398" s="68"/>
+      <c r="O398" s="67"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
@@ -42751,7 +42771,7 @@
       <c r="L399" s="1"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
-      <c r="O399" s="68"/>
+      <c r="O399" s="67"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
@@ -42782,7 +42802,7 @@
       <c r="L400" s="1"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
-      <c r="O400" s="68"/>
+      <c r="O400" s="67"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
@@ -42813,7 +42833,7 @@
       <c r="L401" s="1"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
-      <c r="O401" s="68"/>
+      <c r="O401" s="67"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
@@ -42844,7 +42864,7 @@
       <c r="L402" s="1"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
-      <c r="O402" s="68"/>
+      <c r="O402" s="67"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
@@ -42875,7 +42895,7 @@
       <c r="L403" s="1"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
-      <c r="O403" s="68"/>
+      <c r="O403" s="67"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
@@ -42906,7 +42926,7 @@
       <c r="L404" s="1"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
-      <c r="O404" s="68"/>
+      <c r="O404" s="67"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
@@ -42937,7 +42957,7 @@
       <c r="L405" s="1"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
-      <c r="O405" s="68"/>
+      <c r="O405" s="67"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
@@ -42968,7 +42988,7 @@
       <c r="L406" s="1"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
-      <c r="O406" s="68"/>
+      <c r="O406" s="67"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
@@ -42999,7 +43019,7 @@
       <c r="L407" s="1"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
-      <c r="O407" s="68"/>
+      <c r="O407" s="67"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
@@ -43030,7 +43050,7 @@
       <c r="L408" s="1"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
-      <c r="O408" s="68"/>
+      <c r="O408" s="67"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
@@ -43061,7 +43081,7 @@
       <c r="L409" s="1"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
-      <c r="O409" s="68"/>
+      <c r="O409" s="67"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
@@ -43092,7 +43112,7 @@
       <c r="L410" s="1"/>
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
-      <c r="O410" s="68"/>
+      <c r="O410" s="67"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
@@ -43123,7 +43143,7 @@
       <c r="L411" s="1"/>
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
-      <c r="O411" s="68"/>
+      <c r="O411" s="67"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
@@ -43154,7 +43174,7 @@
       <c r="L412" s="1"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
-      <c r="O412" s="68"/>
+      <c r="O412" s="67"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
@@ -43185,7 +43205,7 @@
       <c r="L413" s="1"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
-      <c r="O413" s="68"/>
+      <c r="O413" s="67"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
@@ -43216,7 +43236,7 @@
       <c r="L414" s="1"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
-      <c r="O414" s="68"/>
+      <c r="O414" s="67"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
@@ -43247,7 +43267,7 @@
       <c r="L415" s="1"/>
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
-      <c r="O415" s="68"/>
+      <c r="O415" s="67"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
@@ -43278,7 +43298,7 @@
       <c r="L416" s="1"/>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
-      <c r="O416" s="68"/>
+      <c r="O416" s="67"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
@@ -43309,7 +43329,7 @@
       <c r="L417" s="1"/>
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
-      <c r="O417" s="68"/>
+      <c r="O417" s="67"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
@@ -43340,7 +43360,7 @@
       <c r="L418" s="1"/>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
-      <c r="O418" s="68"/>
+      <c r="O418" s="67"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
@@ -43371,7 +43391,7 @@
       <c r="L419" s="1"/>
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
-      <c r="O419" s="68"/>
+      <c r="O419" s="67"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
@@ -43402,7 +43422,7 @@
       <c r="L420" s="1"/>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
-      <c r="O420" s="68"/>
+      <c r="O420" s="67"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
@@ -43433,7 +43453,7 @@
       <c r="L421" s="1"/>
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
-      <c r="O421" s="68"/>
+      <c r="O421" s="67"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
@@ -43464,7 +43484,7 @@
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
-      <c r="O422" s="68"/>
+      <c r="O422" s="67"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
@@ -43495,7 +43515,7 @@
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
-      <c r="O423" s="68"/>
+      <c r="O423" s="67"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
@@ -43526,7 +43546,7 @@
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
-      <c r="O424" s="68"/>
+      <c r="O424" s="67"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
@@ -43557,7 +43577,7 @@
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
-      <c r="O425" s="68"/>
+      <c r="O425" s="67"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
@@ -43588,7 +43608,7 @@
       <c r="L426" s="1"/>
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
-      <c r="O426" s="68"/>
+      <c r="O426" s="67"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
@@ -43619,7 +43639,7 @@
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
-      <c r="O427" s="68"/>
+      <c r="O427" s="67"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
@@ -43650,7 +43670,7 @@
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
-      <c r="O428" s="68"/>
+      <c r="O428" s="67"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
@@ -43681,7 +43701,7 @@
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
-      <c r="O429" s="68"/>
+      <c r="O429" s="67"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
@@ -43712,7 +43732,7 @@
       <c r="L430" s="1"/>
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
-      <c r="O430" s="68"/>
+      <c r="O430" s="67"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
@@ -43743,7 +43763,7 @@
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
-      <c r="O431" s="68"/>
+      <c r="O431" s="67"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
@@ -43774,7 +43794,7 @@
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
-      <c r="O432" s="68"/>
+      <c r="O432" s="67"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
@@ -43805,7 +43825,7 @@
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
-      <c r="O433" s="68"/>
+      <c r="O433" s="67"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
@@ -43836,7 +43856,7 @@
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
-      <c r="O434" s="68"/>
+      <c r="O434" s="67"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
@@ -43867,7 +43887,7 @@
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
-      <c r="O435" s="68"/>
+      <c r="O435" s="67"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
@@ -43898,7 +43918,7 @@
       <c r="L436" s="1"/>
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
-      <c r="O436" s="68"/>
+      <c r="O436" s="67"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
@@ -43929,7 +43949,7 @@
       <c r="L437" s="1"/>
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
-      <c r="O437" s="68"/>
+      <c r="O437" s="67"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
@@ -43960,7 +43980,7 @@
       <c r="L438" s="1"/>
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
-      <c r="O438" s="68"/>
+      <c r="O438" s="67"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
@@ -43991,7 +44011,7 @@
       <c r="L439" s="1"/>
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
-      <c r="O439" s="68"/>
+      <c r="O439" s="67"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
@@ -44022,7 +44042,7 @@
       <c r="L440" s="1"/>
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
-      <c r="O440" s="68"/>
+      <c r="O440" s="67"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
@@ -44053,7 +44073,7 @@
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
-      <c r="O441" s="68"/>
+      <c r="O441" s="67"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
@@ -44084,7 +44104,7 @@
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
-      <c r="O442" s="68"/>
+      <c r="O442" s="67"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
@@ -44115,7 +44135,7 @@
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
-      <c r="O443" s="68"/>
+      <c r="O443" s="67"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
@@ -44146,7 +44166,7 @@
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
-      <c r="O444" s="68"/>
+      <c r="O444" s="67"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
@@ -44177,7 +44197,7 @@
       <c r="L445" s="1"/>
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
-      <c r="O445" s="68"/>
+      <c r="O445" s="67"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
@@ -44208,7 +44228,7 @@
       <c r="L446" s="1"/>
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
-      <c r="O446" s="68"/>
+      <c r="O446" s="67"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
@@ -44239,7 +44259,7 @@
       <c r="L447" s="1"/>
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
-      <c r="O447" s="68"/>
+      <c r="O447" s="67"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
@@ -44270,7 +44290,7 @@
       <c r="L448" s="1"/>
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
-      <c r="O448" s="68"/>
+      <c r="O448" s="67"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
@@ -44301,7 +44321,7 @@
       <c r="L449" s="1"/>
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
-      <c r="O449" s="68"/>
+      <c r="O449" s="67"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
@@ -44332,7 +44352,7 @@
       <c r="L450" s="1"/>
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
-      <c r="O450" s="68"/>
+      <c r="O450" s="67"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
@@ -44363,7 +44383,7 @@
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
-      <c r="O451" s="68"/>
+      <c r="O451" s="67"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
@@ -44394,7 +44414,7 @@
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
-      <c r="O452" s="68"/>
+      <c r="O452" s="67"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
@@ -44425,7 +44445,7 @@
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
-      <c r="O453" s="68"/>
+      <c r="O453" s="67"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
@@ -44456,7 +44476,7 @@
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
-      <c r="O454" s="68"/>
+      <c r="O454" s="67"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
@@ -44487,7 +44507,7 @@
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
-      <c r="O455" s="68"/>
+      <c r="O455" s="67"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
@@ -44518,7 +44538,7 @@
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
-      <c r="O456" s="68"/>
+      <c r="O456" s="67"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
@@ -44549,7 +44569,7 @@
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
-      <c r="O457" s="68"/>
+      <c r="O457" s="67"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
@@ -44580,7 +44600,7 @@
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
-      <c r="O458" s="68"/>
+      <c r="O458" s="67"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
@@ -44611,7 +44631,7 @@
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
-      <c r="O459" s="68"/>
+      <c r="O459" s="67"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
@@ -44642,7 +44662,7 @@
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
-      <c r="O460" s="68"/>
+      <c r="O460" s="67"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
@@ -44673,7 +44693,7 @@
       <c r="L461" s="1"/>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
-      <c r="O461" s="68"/>
+      <c r="O461" s="67"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
@@ -44704,7 +44724,7 @@
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
-      <c r="O462" s="68"/>
+      <c r="O462" s="67"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
@@ -44735,7 +44755,7 @@
       <c r="L463" s="1"/>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
-      <c r="O463" s="68"/>
+      <c r="O463" s="67"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
@@ -44766,7 +44786,7 @@
       <c r="L464" s="1"/>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
-      <c r="O464" s="68"/>
+      <c r="O464" s="67"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
@@ -44797,7 +44817,7 @@
       <c r="L465" s="1"/>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
-      <c r="O465" s="68"/>
+      <c r="O465" s="67"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
@@ -44828,7 +44848,7 @@
       <c r="L466" s="1"/>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
-      <c r="O466" s="68"/>
+      <c r="O466" s="67"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
@@ -44859,7 +44879,7 @@
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
-      <c r="O467" s="68"/>
+      <c r="O467" s="67"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
@@ -44890,7 +44910,7 @@
       <c r="L468" s="1"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
-      <c r="O468" s="68"/>
+      <c r="O468" s="67"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
@@ -44921,7 +44941,7 @@
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
-      <c r="O469" s="68"/>
+      <c r="O469" s="67"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
@@ -44952,7 +44972,7 @@
       <c r="L470" s="1"/>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
-      <c r="O470" s="68"/>
+      <c r="O470" s="67"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
@@ -44983,7 +45003,7 @@
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
-      <c r="O471" s="68"/>
+      <c r="O471" s="67"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
@@ -45014,7 +45034,7 @@
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
-      <c r="O472" s="68"/>
+      <c r="O472" s="67"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
@@ -45045,7 +45065,7 @@
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
-      <c r="O473" s="68"/>
+      <c r="O473" s="67"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
@@ -45076,7 +45096,7 @@
       <c r="L474" s="1"/>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
-      <c r="O474" s="68"/>
+      <c r="O474" s="67"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
@@ -45107,7 +45127,7 @@
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
-      <c r="O475" s="68"/>
+      <c r="O475" s="67"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
@@ -45138,7 +45158,7 @@
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
-      <c r="O476" s="68"/>
+      <c r="O476" s="67"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
@@ -45169,7 +45189,7 @@
       <c r="L477" s="1"/>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
-      <c r="O477" s="68"/>
+      <c r="O477" s="67"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
@@ -45200,7 +45220,7 @@
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
-      <c r="O478" s="68"/>
+      <c r="O478" s="67"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
@@ -45231,7 +45251,7 @@
       <c r="L479" s="1"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
-      <c r="O479" s="68"/>
+      <c r="O479" s="67"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
@@ -45262,7 +45282,7 @@
       <c r="L480" s="1"/>
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
-      <c r="O480" s="68"/>
+      <c r="O480" s="67"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
@@ -45293,7 +45313,7 @@
       <c r="L481" s="1"/>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
-      <c r="O481" s="68"/>
+      <c r="O481" s="67"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
@@ -45324,7 +45344,7 @@
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
-      <c r="O482" s="68"/>
+      <c r="O482" s="67"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
@@ -45355,7 +45375,7 @@
       <c r="L483" s="1"/>
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
-      <c r="O483" s="68"/>
+      <c r="O483" s="67"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
@@ -45386,7 +45406,7 @@
       <c r="L484" s="1"/>
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
-      <c r="O484" s="68"/>
+      <c r="O484" s="67"/>
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
@@ -45417,7 +45437,7 @@
       <c r="L485" s="1"/>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
-      <c r="O485" s="68"/>
+      <c r="O485" s="67"/>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
@@ -45448,7 +45468,7 @@
       <c r="L486" s="1"/>
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
-      <c r="O486" s="68"/>
+      <c r="O486" s="67"/>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
@@ -45479,7 +45499,7 @@
       <c r="L487" s="1"/>
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
-      <c r="O487" s="68"/>
+      <c r="O487" s="67"/>
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
@@ -45510,7 +45530,7 @@
       <c r="L488" s="1"/>
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
-      <c r="O488" s="68"/>
+      <c r="O488" s="67"/>
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
@@ -45541,7 +45561,7 @@
       <c r="L489" s="1"/>
       <c r="M489" s="1"/>
       <c r="N489" s="1"/>
-      <c r="O489" s="68"/>
+      <c r="O489" s="67"/>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
@@ -45572,7 +45592,7 @@
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
-      <c r="O490" s="68"/>
+      <c r="O490" s="67"/>
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
@@ -45603,7 +45623,7 @@
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
-      <c r="O491" s="68"/>
+      <c r="O491" s="67"/>
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
@@ -45634,7 +45654,7 @@
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
-      <c r="O492" s="68"/>
+      <c r="O492" s="67"/>
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
@@ -45665,7 +45685,7 @@
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
-      <c r="O493" s="68"/>
+      <c r="O493" s="67"/>
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
@@ -45696,7 +45716,7 @@
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
-      <c r="O494" s="68"/>
+      <c r="O494" s="67"/>
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
@@ -45727,7 +45747,7 @@
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
       <c r="N495" s="1"/>
-      <c r="O495" s="68"/>
+      <c r="O495" s="67"/>
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
@@ -45758,7 +45778,7 @@
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
       <c r="N496" s="1"/>
-      <c r="O496" s="68"/>
+      <c r="O496" s="67"/>
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
@@ -45789,7 +45809,7 @@
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
       <c r="N497" s="1"/>
-      <c r="O497" s="68"/>
+      <c r="O497" s="67"/>
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
@@ -45820,7 +45840,7 @@
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
       <c r="N498" s="1"/>
-      <c r="O498" s="68"/>
+      <c r="O498" s="67"/>
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
@@ -45851,7 +45871,7 @@
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
-      <c r="O499" s="68"/>
+      <c r="O499" s="67"/>
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
@@ -45882,7 +45902,7 @@
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
       <c r="N500" s="1"/>
-      <c r="O500" s="68"/>
+      <c r="O500" s="67"/>
       <c r="P500" s="1"/>
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
@@ -45913,7 +45933,7 @@
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
-      <c r="O501" s="68"/>
+      <c r="O501" s="67"/>
       <c r="P501" s="1"/>
       <c r="Q501" s="1"/>
       <c r="R501" s="1"/>
@@ -45944,7 +45964,7 @@
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
-      <c r="O502" s="68"/>
+      <c r="O502" s="67"/>
       <c r="P502" s="1"/>
       <c r="Q502" s="1"/>
       <c r="R502" s="1"/>
@@ -45975,7 +45995,7 @@
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
-      <c r="O503" s="68"/>
+      <c r="O503" s="67"/>
       <c r="P503" s="1"/>
       <c r="Q503" s="1"/>
       <c r="R503" s="1"/>
@@ -46006,7 +46026,7 @@
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
       <c r="N504" s="1"/>
-      <c r="O504" s="68"/>
+      <c r="O504" s="67"/>
       <c r="P504" s="1"/>
       <c r="Q504" s="1"/>
       <c r="R504" s="1"/>
@@ -46037,7 +46057,7 @@
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
       <c r="N505" s="1"/>
-      <c r="O505" s="68"/>
+      <c r="O505" s="67"/>
       <c r="P505" s="1"/>
       <c r="Q505" s="1"/>
       <c r="R505" s="1"/>
@@ -46068,7 +46088,7 @@
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
       <c r="N506" s="1"/>
-      <c r="O506" s="68"/>
+      <c r="O506" s="67"/>
       <c r="P506" s="1"/>
       <c r="Q506" s="1"/>
       <c r="R506" s="1"/>
@@ -46099,7 +46119,7 @@
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
       <c r="N507" s="1"/>
-      <c r="O507" s="68"/>
+      <c r="O507" s="67"/>
       <c r="P507" s="1"/>
       <c r="Q507" s="1"/>
       <c r="R507" s="1"/>
@@ -46130,7 +46150,7 @@
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
       <c r="N508" s="1"/>
-      <c r="O508" s="68"/>
+      <c r="O508" s="67"/>
       <c r="P508" s="1"/>
       <c r="Q508" s="1"/>
       <c r="R508" s="1"/>
@@ -46161,7 +46181,7 @@
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
       <c r="N509" s="1"/>
-      <c r="O509" s="68"/>
+      <c r="O509" s="67"/>
       <c r="P509" s="1"/>
       <c r="Q509" s="1"/>
       <c r="R509" s="1"/>
@@ -46192,7 +46212,7 @@
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
       <c r="N510" s="1"/>
-      <c r="O510" s="68"/>
+      <c r="O510" s="67"/>
       <c r="P510" s="1"/>
       <c r="Q510" s="1"/>
       <c r="R510" s="1"/>
@@ -46223,7 +46243,7 @@
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
       <c r="N511" s="1"/>
-      <c r="O511" s="68"/>
+      <c r="O511" s="67"/>
       <c r="P511" s="1"/>
       <c r="Q511" s="1"/>
       <c r="R511" s="1"/>
@@ -46254,7 +46274,7 @@
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
       <c r="N512" s="1"/>
-      <c r="O512" s="68"/>
+      <c r="O512" s="67"/>
       <c r="P512" s="1"/>
       <c r="Q512" s="1"/>
       <c r="R512" s="1"/>
@@ -46285,7 +46305,7 @@
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
-      <c r="O513" s="68"/>
+      <c r="O513" s="67"/>
       <c r="P513" s="1"/>
       <c r="Q513" s="1"/>
       <c r="R513" s="1"/>
@@ -46316,7 +46336,7 @@
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
-      <c r="O514" s="68"/>
+      <c r="O514" s="67"/>
       <c r="P514" s="1"/>
       <c r="Q514" s="1"/>
       <c r="R514" s="1"/>
@@ -46347,7 +46367,7 @@
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
       <c r="N515" s="1"/>
-      <c r="O515" s="68"/>
+      <c r="O515" s="67"/>
       <c r="P515" s="1"/>
       <c r="Q515" s="1"/>
       <c r="R515" s="1"/>
@@ -46378,7 +46398,7 @@
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
       <c r="N516" s="1"/>
-      <c r="O516" s="68"/>
+      <c r="O516" s="67"/>
       <c r="P516" s="1"/>
       <c r="Q516" s="1"/>
       <c r="R516" s="1"/>
@@ -46409,7 +46429,7 @@
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
       <c r="N517" s="1"/>
-      <c r="O517" s="68"/>
+      <c r="O517" s="67"/>
       <c r="P517" s="1"/>
       <c r="Q517" s="1"/>
       <c r="R517" s="1"/>
@@ -46440,7 +46460,7 @@
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
       <c r="N518" s="1"/>
-      <c r="O518" s="68"/>
+      <c r="O518" s="67"/>
       <c r="P518" s="1"/>
       <c r="Q518" s="1"/>
       <c r="R518" s="1"/>
@@ -46471,7 +46491,7 @@
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
       <c r="N519" s="1"/>
-      <c r="O519" s="68"/>
+      <c r="O519" s="67"/>
       <c r="P519" s="1"/>
       <c r="Q519" s="1"/>
       <c r="R519" s="1"/>
@@ -46502,7 +46522,7 @@
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
       <c r="N520" s="1"/>
-      <c r="O520" s="68"/>
+      <c r="O520" s="67"/>
       <c r="P520" s="1"/>
       <c r="Q520" s="1"/>
       <c r="R520" s="1"/>
@@ -46533,7 +46553,7 @@
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
       <c r="N521" s="1"/>
-      <c r="O521" s="68"/>
+      <c r="O521" s="67"/>
       <c r="P521" s="1"/>
       <c r="Q521" s="1"/>
       <c r="R521" s="1"/>
@@ -46564,7 +46584,7 @@
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
       <c r="N522" s="1"/>
-      <c r="O522" s="68"/>
+      <c r="O522" s="67"/>
       <c r="P522" s="1"/>
       <c r="Q522" s="1"/>
       <c r="R522" s="1"/>
@@ -46595,7 +46615,7 @@
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
-      <c r="O523" s="68"/>
+      <c r="O523" s="67"/>
       <c r="P523" s="1"/>
       <c r="Q523" s="1"/>
       <c r="R523" s="1"/>
@@ -46626,7 +46646,7 @@
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
       <c r="N524" s="1"/>
-      <c r="O524" s="68"/>
+      <c r="O524" s="67"/>
       <c r="P524" s="1"/>
       <c r="Q524" s="1"/>
       <c r="R524" s="1"/>
@@ -46657,7 +46677,7 @@
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
       <c r="N525" s="1"/>
-      <c r="O525" s="68"/>
+      <c r="O525" s="67"/>
       <c r="P525" s="1"/>
       <c r="Q525" s="1"/>
       <c r="R525" s="1"/>
@@ -46688,7 +46708,7 @@
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
       <c r="N526" s="1"/>
-      <c r="O526" s="68"/>
+      <c r="O526" s="67"/>
       <c r="P526" s="1"/>
       <c r="Q526" s="1"/>
       <c r="R526" s="1"/>
@@ -46719,7 +46739,7 @@
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
       <c r="N527" s="1"/>
-      <c r="O527" s="68"/>
+      <c r="O527" s="67"/>
       <c r="P527" s="1"/>
       <c r="Q527" s="1"/>
       <c r="R527" s="1"/>
@@ -46750,7 +46770,7 @@
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
       <c r="N528" s="1"/>
-      <c r="O528" s="68"/>
+      <c r="O528" s="67"/>
       <c r="P528" s="1"/>
       <c r="Q528" s="1"/>
       <c r="R528" s="1"/>
@@ -46781,7 +46801,7 @@
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
       <c r="N529" s="1"/>
-      <c r="O529" s="68"/>
+      <c r="O529" s="67"/>
       <c r="P529" s="1"/>
       <c r="Q529" s="1"/>
       <c r="R529" s="1"/>
@@ -46812,7 +46832,7 @@
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
       <c r="N530" s="1"/>
-      <c r="O530" s="68"/>
+      <c r="O530" s="67"/>
       <c r="P530" s="1"/>
       <c r="Q530" s="1"/>
       <c r="R530" s="1"/>
@@ -46843,7 +46863,7 @@
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
       <c r="N531" s="1"/>
-      <c r="O531" s="68"/>
+      <c r="O531" s="67"/>
       <c r="P531" s="1"/>
       <c r="Q531" s="1"/>
       <c r="R531" s="1"/>
@@ -46874,7 +46894,7 @@
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
       <c r="N532" s="1"/>
-      <c r="O532" s="68"/>
+      <c r="O532" s="67"/>
       <c r="P532" s="1"/>
       <c r="Q532" s="1"/>
       <c r="R532" s="1"/>
@@ -46905,7 +46925,7 @@
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
       <c r="N533" s="1"/>
-      <c r="O533" s="68"/>
+      <c r="O533" s="67"/>
       <c r="P533" s="1"/>
       <c r="Q533" s="1"/>
       <c r="R533" s="1"/>
@@ -46936,7 +46956,7 @@
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
       <c r="N534" s="1"/>
-      <c r="O534" s="68"/>
+      <c r="O534" s="67"/>
       <c r="P534" s="1"/>
       <c r="Q534" s="1"/>
       <c r="R534" s="1"/>
@@ -46967,7 +46987,7 @@
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
       <c r="N535" s="1"/>
-      <c r="O535" s="68"/>
+      <c r="O535" s="67"/>
       <c r="P535" s="1"/>
       <c r="Q535" s="1"/>
       <c r="R535" s="1"/>
@@ -46998,7 +47018,7 @@
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
       <c r="N536" s="1"/>
-      <c r="O536" s="68"/>
+      <c r="O536" s="67"/>
       <c r="P536" s="1"/>
       <c r="Q536" s="1"/>
       <c r="R536" s="1"/>
@@ -47029,7 +47049,7 @@
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
       <c r="N537" s="1"/>
-      <c r="O537" s="68"/>
+      <c r="O537" s="67"/>
       <c r="P537" s="1"/>
       <c r="Q537" s="1"/>
       <c r="R537" s="1"/>
@@ -47060,7 +47080,7 @@
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
       <c r="N538" s="1"/>
-      <c r="O538" s="68"/>
+      <c r="O538" s="67"/>
       <c r="P538" s="1"/>
       <c r="Q538" s="1"/>
       <c r="R538" s="1"/>
@@ -47091,7 +47111,7 @@
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
       <c r="N539" s="1"/>
-      <c r="O539" s="68"/>
+      <c r="O539" s="67"/>
       <c r="P539" s="1"/>
       <c r="Q539" s="1"/>
       <c r="R539" s="1"/>
@@ -47122,7 +47142,7 @@
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
       <c r="N540" s="1"/>
-      <c r="O540" s="68"/>
+      <c r="O540" s="67"/>
       <c r="P540" s="1"/>
       <c r="Q540" s="1"/>
       <c r="R540" s="1"/>
@@ -47153,7 +47173,7 @@
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
       <c r="N541" s="1"/>
-      <c r="O541" s="68"/>
+      <c r="O541" s="67"/>
       <c r="P541" s="1"/>
       <c r="Q541" s="1"/>
       <c r="R541" s="1"/>
@@ -47184,7 +47204,7 @@
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
       <c r="N542" s="1"/>
-      <c r="O542" s="68"/>
+      <c r="O542" s="67"/>
       <c r="P542" s="1"/>
       <c r="Q542" s="1"/>
       <c r="R542" s="1"/>
@@ -47215,7 +47235,7 @@
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
       <c r="N543" s="1"/>
-      <c r="O543" s="68"/>
+      <c r="O543" s="67"/>
       <c r="P543" s="1"/>
       <c r="Q543" s="1"/>
       <c r="R543" s="1"/>
@@ -47246,7 +47266,7 @@
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
       <c r="N544" s="1"/>
-      <c r="O544" s="68"/>
+      <c r="O544" s="67"/>
       <c r="P544" s="1"/>
       <c r="Q544" s="1"/>
       <c r="R544" s="1"/>
@@ -47277,7 +47297,7 @@
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
       <c r="N545" s="1"/>
-      <c r="O545" s="68"/>
+      <c r="O545" s="67"/>
       <c r="P545" s="1"/>
       <c r="Q545" s="1"/>
       <c r="R545" s="1"/>
@@ -47308,7 +47328,7 @@
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
       <c r="N546" s="1"/>
-      <c r="O546" s="68"/>
+      <c r="O546" s="67"/>
       <c r="P546" s="1"/>
       <c r="Q546" s="1"/>
       <c r="R546" s="1"/>
@@ -47339,7 +47359,7 @@
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
       <c r="N547" s="1"/>
-      <c r="O547" s="68"/>
+      <c r="O547" s="67"/>
       <c r="P547" s="1"/>
       <c r="Q547" s="1"/>
       <c r="R547" s="1"/>
@@ -47370,7 +47390,7 @@
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
       <c r="N548" s="1"/>
-      <c r="O548" s="68"/>
+      <c r="O548" s="67"/>
       <c r="P548" s="1"/>
       <c r="Q548" s="1"/>
       <c r="R548" s="1"/>
@@ -47401,7 +47421,7 @@
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
       <c r="N549" s="1"/>
-      <c r="O549" s="68"/>
+      <c r="O549" s="67"/>
       <c r="P549" s="1"/>
       <c r="Q549" s="1"/>
       <c r="R549" s="1"/>
@@ -47432,7 +47452,7 @@
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
       <c r="N550" s="1"/>
-      <c r="O550" s="68"/>
+      <c r="O550" s="67"/>
       <c r="P550" s="1"/>
       <c r="Q550" s="1"/>
       <c r="R550" s="1"/>
@@ -47463,7 +47483,7 @@
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
       <c r="N551" s="1"/>
-      <c r="O551" s="68"/>
+      <c r="O551" s="67"/>
       <c r="P551" s="1"/>
       <c r="Q551" s="1"/>
       <c r="R551" s="1"/>
@@ -47494,7 +47514,7 @@
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
       <c r="N552" s="1"/>
-      <c r="O552" s="68"/>
+      <c r="O552" s="67"/>
       <c r="P552" s="1"/>
       <c r="Q552" s="1"/>
       <c r="R552" s="1"/>
@@ -47525,7 +47545,7 @@
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
       <c r="N553" s="1"/>
-      <c r="O553" s="68"/>
+      <c r="O553" s="67"/>
       <c r="P553" s="1"/>
       <c r="Q553" s="1"/>
       <c r="R553" s="1"/>
@@ -47556,7 +47576,7 @@
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
       <c r="N554" s="1"/>
-      <c r="O554" s="68"/>
+      <c r="O554" s="67"/>
       <c r="P554" s="1"/>
       <c r="Q554" s="1"/>
       <c r="R554" s="1"/>
@@ -47587,7 +47607,7 @@
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
       <c r="N555" s="1"/>
-      <c r="O555" s="68"/>
+      <c r="O555" s="67"/>
       <c r="P555" s="1"/>
       <c r="Q555" s="1"/>
       <c r="R555" s="1"/>
@@ -47618,7 +47638,7 @@
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
       <c r="N556" s="1"/>
-      <c r="O556" s="68"/>
+      <c r="O556" s="67"/>
       <c r="P556" s="1"/>
       <c r="Q556" s="1"/>
       <c r="R556" s="1"/>
@@ -47649,7 +47669,7 @@
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
       <c r="N557" s="1"/>
-      <c r="O557" s="68"/>
+      <c r="O557" s="67"/>
       <c r="P557" s="1"/>
       <c r="Q557" s="1"/>
       <c r="R557" s="1"/>
@@ -47680,7 +47700,7 @@
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
       <c r="N558" s="1"/>
-      <c r="O558" s="68"/>
+      <c r="O558" s="67"/>
       <c r="P558" s="1"/>
       <c r="Q558" s="1"/>
       <c r="R558" s="1"/>
@@ -47711,7 +47731,7 @@
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
       <c r="N559" s="1"/>
-      <c r="O559" s="68"/>
+      <c r="O559" s="67"/>
       <c r="P559" s="1"/>
       <c r="Q559" s="1"/>
       <c r="R559" s="1"/>
@@ -47742,7 +47762,7 @@
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
       <c r="N560" s="1"/>
-      <c r="O560" s="68"/>
+      <c r="O560" s="67"/>
       <c r="P560" s="1"/>
       <c r="Q560" s="1"/>
       <c r="R560" s="1"/>
@@ -47773,7 +47793,7 @@
       <c r="L561" s="1"/>
       <c r="M561" s="1"/>
       <c r="N561" s="1"/>
-      <c r="O561" s="68"/>
+      <c r="O561" s="67"/>
       <c r="P561" s="1"/>
       <c r="Q561" s="1"/>
       <c r="R561" s="1"/>
@@ -47804,7 +47824,7 @@
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
       <c r="N562" s="1"/>
-      <c r="O562" s="68"/>
+      <c r="O562" s="67"/>
       <c r="P562" s="1"/>
       <c r="Q562" s="1"/>
       <c r="R562" s="1"/>
@@ -47835,7 +47855,7 @@
       <c r="L563" s="1"/>
       <c r="M563" s="1"/>
       <c r="N563" s="1"/>
-      <c r="O563" s="68"/>
+      <c r="O563" s="67"/>
       <c r="P563" s="1"/>
       <c r="Q563" s="1"/>
       <c r="R563" s="1"/>
@@ -47866,7 +47886,7 @@
       <c r="L564" s="1"/>
       <c r="M564" s="1"/>
       <c r="N564" s="1"/>
-      <c r="O564" s="68"/>
+      <c r="O564" s="67"/>
       <c r="P564" s="1"/>
       <c r="Q564" s="1"/>
       <c r="R564" s="1"/>
@@ -47897,7 +47917,7 @@
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
       <c r="N565" s="1"/>
-      <c r="O565" s="68"/>
+      <c r="O565" s="67"/>
       <c r="P565" s="1"/>
       <c r="Q565" s="1"/>
       <c r="R565" s="1"/>
@@ -47928,7 +47948,7 @@
       <c r="L566" s="1"/>
       <c r="M566" s="1"/>
       <c r="N566" s="1"/>
-      <c r="O566" s="68"/>
+      <c r="O566" s="67"/>
       <c r="P566" s="1"/>
       <c r="Q566" s="1"/>
       <c r="R566" s="1"/>
@@ -47959,7 +47979,7 @@
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
       <c r="N567" s="1"/>
-      <c r="O567" s="68"/>
+      <c r="O567" s="67"/>
       <c r="P567" s="1"/>
       <c r="Q567" s="1"/>
       <c r="R567" s="1"/>
@@ -47990,7 +48010,7 @@
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
       <c r="N568" s="1"/>
-      <c r="O568" s="68"/>
+      <c r="O568" s="67"/>
       <c r="P568" s="1"/>
       <c r="Q568" s="1"/>
       <c r="R568" s="1"/>
@@ -48021,7 +48041,7 @@
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
       <c r="N569" s="1"/>
-      <c r="O569" s="68"/>
+      <c r="O569" s="67"/>
       <c r="P569" s="1"/>
       <c r="Q569" s="1"/>
       <c r="R569" s="1"/>
@@ -48052,7 +48072,7 @@
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
       <c r="N570" s="1"/>
-      <c r="O570" s="68"/>
+      <c r="O570" s="67"/>
       <c r="P570" s="1"/>
       <c r="Q570" s="1"/>
       <c r="R570" s="1"/>
@@ -48083,7 +48103,7 @@
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
       <c r="N571" s="1"/>
-      <c r="O571" s="68"/>
+      <c r="O571" s="67"/>
       <c r="P571" s="1"/>
       <c r="Q571" s="1"/>
       <c r="R571" s="1"/>
@@ -48114,7 +48134,7 @@
       <c r="L572" s="1"/>
       <c r="M572" s="1"/>
       <c r="N572" s="1"/>
-      <c r="O572" s="68"/>
+      <c r="O572" s="67"/>
       <c r="P572" s="1"/>
       <c r="Q572" s="1"/>
       <c r="R572" s="1"/>
@@ -48145,7 +48165,7 @@
       <c r="L573" s="1"/>
       <c r="M573" s="1"/>
       <c r="N573" s="1"/>
-      <c r="O573" s="68"/>
+      <c r="O573" s="67"/>
       <c r="P573" s="1"/>
       <c r="Q573" s="1"/>
       <c r="R573" s="1"/>
@@ -48176,7 +48196,7 @@
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
       <c r="N574" s="1"/>
-      <c r="O574" s="68"/>
+      <c r="O574" s="67"/>
       <c r="P574" s="1"/>
       <c r="Q574" s="1"/>
       <c r="R574" s="1"/>
@@ -48207,7 +48227,7 @@
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
       <c r="N575" s="1"/>
-      <c r="O575" s="68"/>
+      <c r="O575" s="67"/>
       <c r="P575" s="1"/>
       <c r="Q575" s="1"/>
       <c r="R575" s="1"/>
@@ -48238,7 +48258,7 @@
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
       <c r="N576" s="1"/>
-      <c r="O576" s="68"/>
+      <c r="O576" s="67"/>
       <c r="P576" s="1"/>
       <c r="Q576" s="1"/>
       <c r="R576" s="1"/>
@@ -48269,7 +48289,7 @@
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
       <c r="N577" s="1"/>
-      <c r="O577" s="68"/>
+      <c r="O577" s="67"/>
       <c r="P577" s="1"/>
       <c r="Q577" s="1"/>
       <c r="R577" s="1"/>
@@ -48300,7 +48320,7 @@
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
       <c r="N578" s="1"/>
-      <c r="O578" s="68"/>
+      <c r="O578" s="67"/>
       <c r="P578" s="1"/>
       <c r="Q578" s="1"/>
       <c r="R578" s="1"/>
@@ -48331,7 +48351,7 @@
       <c r="L579" s="1"/>
       <c r="M579" s="1"/>
       <c r="N579" s="1"/>
-      <c r="O579" s="68"/>
+      <c r="O579" s="67"/>
       <c r="P579" s="1"/>
       <c r="Q579" s="1"/>
       <c r="R579" s="1"/>
@@ -48362,7 +48382,7 @@
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
       <c r="N580" s="1"/>
-      <c r="O580" s="68"/>
+      <c r="O580" s="67"/>
       <c r="P580" s="1"/>
       <c r="Q580" s="1"/>
       <c r="R580" s="1"/>
@@ -48393,7 +48413,7 @@
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
       <c r="N581" s="1"/>
-      <c r="O581" s="68"/>
+      <c r="O581" s="67"/>
       <c r="P581" s="1"/>
       <c r="Q581" s="1"/>
       <c r="R581" s="1"/>
@@ -48424,7 +48444,7 @@
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
       <c r="N582" s="1"/>
-      <c r="O582" s="68"/>
+      <c r="O582" s="67"/>
       <c r="P582" s="1"/>
       <c r="Q582" s="1"/>
       <c r="R582" s="1"/>
@@ -48455,7 +48475,7 @@
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
       <c r="N583" s="1"/>
-      <c r="O583" s="68"/>
+      <c r="O583" s="67"/>
       <c r="P583" s="1"/>
       <c r="Q583" s="1"/>
       <c r="R583" s="1"/>
@@ -48486,7 +48506,7 @@
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
       <c r="N584" s="1"/>
-      <c r="O584" s="68"/>
+      <c r="O584" s="67"/>
       <c r="P584" s="1"/>
       <c r="Q584" s="1"/>
       <c r="R584" s="1"/>
@@ -48517,7 +48537,7 @@
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
       <c r="N585" s="1"/>
-      <c r="O585" s="68"/>
+      <c r="O585" s="67"/>
       <c r="P585" s="1"/>
       <c r="Q585" s="1"/>
       <c r="R585" s="1"/>
@@ -48548,7 +48568,7 @@
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
       <c r="N586" s="1"/>
-      <c r="O586" s="68"/>
+      <c r="O586" s="67"/>
       <c r="P586" s="1"/>
       <c r="Q586" s="1"/>
       <c r="R586" s="1"/>
@@ -48579,7 +48599,7 @@
       <c r="L587" s="1"/>
       <c r="M587" s="1"/>
       <c r="N587" s="1"/>
-      <c r="O587" s="68"/>
+      <c r="O587" s="67"/>
       <c r="P587" s="1"/>
       <c r="Q587" s="1"/>
       <c r="R587" s="1"/>
@@ -48610,7 +48630,7 @@
       <c r="L588" s="1"/>
       <c r="M588" s="1"/>
       <c r="N588" s="1"/>
-      <c r="O588" s="68"/>
+      <c r="O588" s="67"/>
       <c r="P588" s="1"/>
       <c r="Q588" s="1"/>
       <c r="R588" s="1"/>
@@ -48641,7 +48661,7 @@
       <c r="L589" s="1"/>
       <c r="M589" s="1"/>
       <c r="N589" s="1"/>
-      <c r="O589" s="68"/>
+      <c r="O589" s="67"/>
       <c r="P589" s="1"/>
       <c r="Q589" s="1"/>
       <c r="R589" s="1"/>
@@ -48672,7 +48692,7 @@
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
       <c r="N590" s="1"/>
-      <c r="O590" s="68"/>
+      <c r="O590" s="67"/>
       <c r="P590" s="1"/>
       <c r="Q590" s="1"/>
       <c r="R590" s="1"/>
@@ -48703,7 +48723,7 @@
       <c r="L591" s="1"/>
       <c r="M591" s="1"/>
       <c r="N591" s="1"/>
-      <c r="O591" s="68"/>
+      <c r="O591" s="67"/>
       <c r="P591" s="1"/>
       <c r="Q591" s="1"/>
       <c r="R591" s="1"/>
@@ -48734,7 +48754,7 @@
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
       <c r="N592" s="1"/>
-      <c r="O592" s="68"/>
+      <c r="O592" s="67"/>
       <c r="P592" s="1"/>
       <c r="Q592" s="1"/>
       <c r="R592" s="1"/>
@@ -48765,7 +48785,7 @@
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
       <c r="N593" s="1"/>
-      <c r="O593" s="68"/>
+      <c r="O593" s="67"/>
       <c r="P593" s="1"/>
       <c r="Q593" s="1"/>
       <c r="R593" s="1"/>
@@ -48796,7 +48816,7 @@
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
       <c r="N594" s="1"/>
-      <c r="O594" s="68"/>
+      <c r="O594" s="67"/>
       <c r="P594" s="1"/>
       <c r="Q594" s="1"/>
       <c r="R594" s="1"/>
@@ -48827,7 +48847,7 @@
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
       <c r="N595" s="1"/>
-      <c r="O595" s="68"/>
+      <c r="O595" s="67"/>
       <c r="P595" s="1"/>
       <c r="Q595" s="1"/>
       <c r="R595" s="1"/>
@@ -48858,7 +48878,7 @@
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
       <c r="N596" s="1"/>
-      <c r="O596" s="68"/>
+      <c r="O596" s="67"/>
       <c r="P596" s="1"/>
       <c r="Q596" s="1"/>
       <c r="R596" s="1"/>
@@ -48889,7 +48909,7 @@
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
       <c r="N597" s="1"/>
-      <c r="O597" s="68"/>
+      <c r="O597" s="67"/>
       <c r="P597" s="1"/>
       <c r="Q597" s="1"/>
       <c r="R597" s="1"/>
@@ -48920,7 +48940,7 @@
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
       <c r="N598" s="1"/>
-      <c r="O598" s="68"/>
+      <c r="O598" s="67"/>
       <c r="P598" s="1"/>
       <c r="Q598" s="1"/>
       <c r="R598" s="1"/>
@@ -48951,7 +48971,7 @@
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
       <c r="N599" s="1"/>
-      <c r="O599" s="68"/>
+      <c r="O599" s="67"/>
       <c r="P599" s="1"/>
       <c r="Q599" s="1"/>
       <c r="R599" s="1"/>
@@ -48982,7 +49002,7 @@
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
       <c r="N600" s="1"/>
-      <c r="O600" s="68"/>
+      <c r="O600" s="67"/>
       <c r="P600" s="1"/>
       <c r="Q600" s="1"/>
       <c r="R600" s="1"/>
@@ -49013,7 +49033,7 @@
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
       <c r="N601" s="1"/>
-      <c r="O601" s="68"/>
+      <c r="O601" s="67"/>
       <c r="P601" s="1"/>
       <c r="Q601" s="1"/>
       <c r="R601" s="1"/>
@@ -49044,7 +49064,7 @@
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
       <c r="N602" s="1"/>
-      <c r="O602" s="68"/>
+      <c r="O602" s="67"/>
       <c r="P602" s="1"/>
       <c r="Q602" s="1"/>
       <c r="R602" s="1"/>
@@ -49075,7 +49095,7 @@
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
       <c r="N603" s="1"/>
-      <c r="O603" s="68"/>
+      <c r="O603" s="67"/>
       <c r="P603" s="1"/>
       <c r="Q603" s="1"/>
       <c r="R603" s="1"/>
@@ -49106,7 +49126,7 @@
       <c r="L604" s="1"/>
       <c r="M604" s="1"/>
       <c r="N604" s="1"/>
-      <c r="O604" s="68"/>
+      <c r="O604" s="67"/>
       <c r="P604" s="1"/>
       <c r="Q604" s="1"/>
       <c r="R604" s="1"/>
@@ -49137,7 +49157,7 @@
       <c r="L605" s="1"/>
       <c r="M605" s="1"/>
       <c r="N605" s="1"/>
-      <c r="O605" s="68"/>
+      <c r="O605" s="67"/>
       <c r="P605" s="1"/>
       <c r="Q605" s="1"/>
       <c r="R605" s="1"/>
@@ -49168,7 +49188,7 @@
       <c r="L606" s="1"/>
       <c r="M606" s="1"/>
       <c r="N606" s="1"/>
-      <c r="O606" s="68"/>
+      <c r="O606" s="67"/>
       <c r="P606" s="1"/>
       <c r="Q606" s="1"/>
       <c r="R606" s="1"/>
@@ -49199,7 +49219,7 @@
       <c r="L607" s="1"/>
       <c r="M607" s="1"/>
       <c r="N607" s="1"/>
-      <c r="O607" s="68"/>
+      <c r="O607" s="67"/>
       <c r="P607" s="1"/>
       <c r="Q607" s="1"/>
       <c r="R607" s="1"/>
@@ -49230,7 +49250,7 @@
       <c r="L608" s="1"/>
       <c r="M608" s="1"/>
       <c r="N608" s="1"/>
-      <c r="O608" s="68"/>
+      <c r="O608" s="67"/>
       <c r="P608" s="1"/>
       <c r="Q608" s="1"/>
       <c r="R608" s="1"/>
@@ -49261,7 +49281,7 @@
       <c r="L609" s="1"/>
       <c r="M609" s="1"/>
       <c r="N609" s="1"/>
-      <c r="O609" s="68"/>
+      <c r="O609" s="67"/>
       <c r="P609" s="1"/>
       <c r="Q609" s="1"/>
       <c r="R609" s="1"/>
@@ -49292,7 +49312,7 @@
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
       <c r="N610" s="1"/>
-      <c r="O610" s="68"/>
+      <c r="O610" s="67"/>
       <c r="P610" s="1"/>
       <c r="Q610" s="1"/>
       <c r="R610" s="1"/>
@@ -49323,7 +49343,7 @@
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
       <c r="N611" s="1"/>
-      <c r="O611" s="68"/>
+      <c r="O611" s="67"/>
       <c r="P611" s="1"/>
       <c r="Q611" s="1"/>
       <c r="R611" s="1"/>
@@ -49354,7 +49374,7 @@
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
       <c r="N612" s="1"/>
-      <c r="O612" s="68"/>
+      <c r="O612" s="67"/>
       <c r="P612" s="1"/>
       <c r="Q612" s="1"/>
       <c r="R612" s="1"/>
@@ -49385,7 +49405,7 @@
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
       <c r="N613" s="1"/>
-      <c r="O613" s="68"/>
+      <c r="O613" s="67"/>
       <c r="P613" s="1"/>
       <c r="Q613" s="1"/>
       <c r="R613" s="1"/>
@@ -49416,7 +49436,7 @@
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
       <c r="N614" s="1"/>
-      <c r="O614" s="68"/>
+      <c r="O614" s="67"/>
       <c r="P614" s="1"/>
       <c r="Q614" s="1"/>
       <c r="R614" s="1"/>
@@ -49447,7 +49467,7 @@
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
       <c r="N615" s="1"/>
-      <c r="O615" s="68"/>
+      <c r="O615" s="67"/>
       <c r="P615" s="1"/>
       <c r="Q615" s="1"/>
       <c r="R615" s="1"/>
@@ -49478,7 +49498,7 @@
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
       <c r="N616" s="1"/>
-      <c r="O616" s="68"/>
+      <c r="O616" s="67"/>
       <c r="P616" s="1"/>
       <c r="Q616" s="1"/>
       <c r="R616" s="1"/>
@@ -49509,7 +49529,7 @@
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
       <c r="N617" s="1"/>
-      <c r="O617" s="68"/>
+      <c r="O617" s="67"/>
       <c r="P617" s="1"/>
       <c r="Q617" s="1"/>
       <c r="R617" s="1"/>
@@ -49540,7 +49560,7 @@
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
       <c r="N618" s="1"/>
-      <c r="O618" s="68"/>
+      <c r="O618" s="67"/>
       <c r="P618" s="1"/>
       <c r="Q618" s="1"/>
       <c r="R618" s="1"/>
@@ -49571,7 +49591,7 @@
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
       <c r="N619" s="1"/>
-      <c r="O619" s="68"/>
+      <c r="O619" s="67"/>
       <c r="P619" s="1"/>
       <c r="Q619" s="1"/>
       <c r="R619" s="1"/>
@@ -49602,7 +49622,7 @@
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
       <c r="N620" s="1"/>
-      <c r="O620" s="68"/>
+      <c r="O620" s="67"/>
       <c r="P620" s="1"/>
       <c r="Q620" s="1"/>
       <c r="R620" s="1"/>
@@ -49633,7 +49653,7 @@
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
       <c r="N621" s="1"/>
-      <c r="O621" s="68"/>
+      <c r="O621" s="67"/>
       <c r="P621" s="1"/>
       <c r="Q621" s="1"/>
       <c r="R621" s="1"/>
@@ -49664,7 +49684,7 @@
       <c r="L622" s="1"/>
       <c r="M622" s="1"/>
       <c r="N622" s="1"/>
-      <c r="O622" s="68"/>
+      <c r="O622" s="67"/>
       <c r="P622" s="1"/>
       <c r="Q622" s="1"/>
       <c r="R622" s="1"/>
@@ -49695,7 +49715,7 @@
       <c r="L623" s="1"/>
       <c r="M623" s="1"/>
       <c r="N623" s="1"/>
-      <c r="O623" s="68"/>
+      <c r="O623" s="67"/>
       <c r="P623" s="1"/>
       <c r="Q623" s="1"/>
       <c r="R623" s="1"/>
@@ -49726,7 +49746,7 @@
       <c r="L624" s="1"/>
       <c r="M624" s="1"/>
       <c r="N624" s="1"/>
-      <c r="O624" s="68"/>
+      <c r="O624" s="67"/>
       <c r="P624" s="1"/>
       <c r="Q624" s="1"/>
       <c r="R624" s="1"/>
@@ -49757,7 +49777,7 @@
       <c r="L625" s="1"/>
       <c r="M625" s="1"/>
       <c r="N625" s="1"/>
-      <c r="O625" s="68"/>
+      <c r="O625" s="67"/>
       <c r="P625" s="1"/>
       <c r="Q625" s="1"/>
       <c r="R625" s="1"/>
@@ -49788,7 +49808,7 @@
       <c r="L626" s="1"/>
       <c r="M626" s="1"/>
       <c r="N626" s="1"/>
-      <c r="O626" s="68"/>
+      <c r="O626" s="67"/>
       <c r="P626" s="1"/>
       <c r="Q626" s="1"/>
       <c r="R626" s="1"/>
@@ -49819,7 +49839,7 @@
       <c r="L627" s="1"/>
       <c r="M627" s="1"/>
       <c r="N627" s="1"/>
-      <c r="O627" s="68"/>
+      <c r="O627" s="67"/>
       <c r="P627" s="1"/>
       <c r="Q627" s="1"/>
       <c r="R627" s="1"/>
@@ -49850,7 +49870,7 @@
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
       <c r="N628" s="1"/>
-      <c r="O628" s="68"/>
+      <c r="O628" s="67"/>
       <c r="P628" s="1"/>
       <c r="Q628" s="1"/>
       <c r="R628" s="1"/>
@@ -49881,7 +49901,7 @@
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
       <c r="N629" s="1"/>
-      <c r="O629" s="68"/>
+      <c r="O629" s="67"/>
       <c r="P629" s="1"/>
       <c r="Q629" s="1"/>
       <c r="R629" s="1"/>
@@ -49912,7 +49932,7 @@
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
       <c r="N630" s="1"/>
-      <c r="O630" s="68"/>
+      <c r="O630" s="67"/>
       <c r="P630" s="1"/>
       <c r="Q630" s="1"/>
       <c r="R630" s="1"/>
@@ -49943,7 +49963,7 @@
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
       <c r="N631" s="1"/>
-      <c r="O631" s="68"/>
+      <c r="O631" s="67"/>
       <c r="P631" s="1"/>
       <c r="Q631" s="1"/>
       <c r="R631" s="1"/>
@@ -49974,7 +49994,7 @@
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
       <c r="N632" s="1"/>
-      <c r="O632" s="68"/>
+      <c r="O632" s="67"/>
       <c r="P632" s="1"/>
       <c r="Q632" s="1"/>
       <c r="R632" s="1"/>
@@ -50005,7 +50025,7 @@
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
       <c r="N633" s="1"/>
-      <c r="O633" s="68"/>
+      <c r="O633" s="67"/>
       <c r="P633" s="1"/>
       <c r="Q633" s="1"/>
       <c r="R633" s="1"/>
@@ -50036,7 +50056,7 @@
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
       <c r="N634" s="1"/>
-      <c r="O634" s="68"/>
+      <c r="O634" s="67"/>
       <c r="P634" s="1"/>
       <c r="Q634" s="1"/>
       <c r="R634" s="1"/>
@@ -50067,7 +50087,7 @@
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
       <c r="N635" s="1"/>
-      <c r="O635" s="68"/>
+      <c r="O635" s="67"/>
       <c r="P635" s="1"/>
       <c r="Q635" s="1"/>
       <c r="R635" s="1"/>
@@ -50098,7 +50118,7 @@
       <c r="L636" s="1"/>
       <c r="M636" s="1"/>
       <c r="N636" s="1"/>
-      <c r="O636" s="68"/>
+      <c r="O636" s="67"/>
       <c r="P636" s="1"/>
       <c r="Q636" s="1"/>
       <c r="R636" s="1"/>
@@ -50129,7 +50149,7 @@
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
       <c r="N637" s="1"/>
-      <c r="O637" s="68"/>
+      <c r="O637" s="67"/>
       <c r="P637" s="1"/>
       <c r="Q637" s="1"/>
       <c r="R637" s="1"/>
@@ -50160,7 +50180,7 @@
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
       <c r="N638" s="1"/>
-      <c r="O638" s="68"/>
+      <c r="O638" s="67"/>
       <c r="P638" s="1"/>
       <c r="Q638" s="1"/>
       <c r="R638" s="1"/>
@@ -50191,7 +50211,7 @@
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
       <c r="N639" s="1"/>
-      <c r="O639" s="68"/>
+      <c r="O639" s="67"/>
       <c r="P639" s="1"/>
       <c r="Q639" s="1"/>
       <c r="R639" s="1"/>
@@ -50222,7 +50242,7 @@
       <c r="L640" s="1"/>
       <c r="M640" s="1"/>
       <c r="N640" s="1"/>
-      <c r="O640" s="68"/>
+      <c r="O640" s="67"/>
       <c r="P640" s="1"/>
       <c r="Q640" s="1"/>
       <c r="R640" s="1"/>
@@ -50253,7 +50273,7 @@
       <c r="L641" s="1"/>
       <c r="M641" s="1"/>
       <c r="N641" s="1"/>
-      <c r="O641" s="68"/>
+      <c r="O641" s="67"/>
       <c r="P641" s="1"/>
       <c r="Q641" s="1"/>
       <c r="R641" s="1"/>
@@ -50284,7 +50304,7 @@
       <c r="L642" s="1"/>
       <c r="M642" s="1"/>
       <c r="N642" s="1"/>
-      <c r="O642" s="68"/>
+      <c r="O642" s="67"/>
       <c r="P642" s="1"/>
       <c r="Q642" s="1"/>
       <c r="R642" s="1"/>
@@ -50315,7 +50335,7 @@
       <c r="L643" s="1"/>
       <c r="M643" s="1"/>
       <c r="N643" s="1"/>
-      <c r="O643" s="68"/>
+      <c r="O643" s="67"/>
       <c r="P643" s="1"/>
       <c r="Q643" s="1"/>
       <c r="R643" s="1"/>
@@ -50346,7 +50366,7 @@
       <c r="L644" s="1"/>
       <c r="M644" s="1"/>
       <c r="N644" s="1"/>
-      <c r="O644" s="68"/>
+      <c r="O644" s="67"/>
       <c r="P644" s="1"/>
       <c r="Q644" s="1"/>
       <c r="R644" s="1"/>
@@ -50377,7 +50397,7 @@
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
       <c r="N645" s="1"/>
-      <c r="O645" s="68"/>
+      <c r="O645" s="67"/>
       <c r="P645" s="1"/>
       <c r="Q645" s="1"/>
       <c r="R645" s="1"/>
@@ -50408,7 +50428,7 @@
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
       <c r="N646" s="1"/>
-      <c r="O646" s="68"/>
+      <c r="O646" s="67"/>
       <c r="P646" s="1"/>
       <c r="Q646" s="1"/>
       <c r="R646" s="1"/>
@@ -50439,7 +50459,7 @@
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
       <c r="N647" s="1"/>
-      <c r="O647" s="68"/>
+      <c r="O647" s="67"/>
       <c r="P647" s="1"/>
       <c r="Q647" s="1"/>
       <c r="R647" s="1"/>
@@ -50470,7 +50490,7 @@
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
       <c r="N648" s="1"/>
-      <c r="O648" s="68"/>
+      <c r="O648" s="67"/>
       <c r="P648" s="1"/>
       <c r="Q648" s="1"/>
       <c r="R648" s="1"/>
@@ -50501,7 +50521,7 @@
       <c r="L649" s="1"/>
       <c r="M649" s="1"/>
       <c r="N649" s="1"/>
-      <c r="O649" s="68"/>
+      <c r="O649" s="67"/>
       <c r="P649" s="1"/>
       <c r="Q649" s="1"/>
       <c r="R649" s="1"/>
@@ -50532,7 +50552,7 @@
       <c r="L650" s="1"/>
       <c r="M650" s="1"/>
       <c r="N650" s="1"/>
-      <c r="O650" s="68"/>
+      <c r="O650" s="67"/>
       <c r="P650" s="1"/>
       <c r="Q650" s="1"/>
       <c r="R650" s="1"/>
@@ -50563,7 +50583,7 @@
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
       <c r="N651" s="1"/>
-      <c r="O651" s="68"/>
+      <c r="O651" s="67"/>
       <c r="P651" s="1"/>
       <c r="Q651" s="1"/>
       <c r="R651" s="1"/>
@@ -50594,7 +50614,7 @@
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
       <c r="N652" s="1"/>
-      <c r="O652" s="68"/>
+      <c r="O652" s="67"/>
       <c r="P652" s="1"/>
       <c r="Q652" s="1"/>
       <c r="R652" s="1"/>
@@ -50625,7 +50645,7 @@
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
       <c r="N653" s="1"/>
-      <c r="O653" s="68"/>
+      <c r="O653" s="67"/>
       <c r="P653" s="1"/>
       <c r="Q653" s="1"/>
       <c r="R653" s="1"/>
@@ -50656,7 +50676,7 @@
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
       <c r="N654" s="1"/>
-      <c r="O654" s="68"/>
+      <c r="O654" s="67"/>
       <c r="P654" s="1"/>
       <c r="Q654" s="1"/>
       <c r="R654" s="1"/>
@@ -50687,7 +50707,7 @@
       <c r="L655" s="1"/>
       <c r="M655" s="1"/>
       <c r="N655" s="1"/>
-      <c r="O655" s="68"/>
+      <c r="O655" s="67"/>
       <c r="P655" s="1"/>
       <c r="Q655" s="1"/>
       <c r="R655" s="1"/>
@@ -50718,7 +50738,7 @@
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
       <c r="N656" s="1"/>
-      <c r="O656" s="68"/>
+      <c r="O656" s="67"/>
       <c r="P656" s="1"/>
       <c r="Q656" s="1"/>
       <c r="R656" s="1"/>
@@ -50749,7 +50769,7 @@
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
       <c r="N657" s="1"/>
-      <c r="O657" s="68"/>
+      <c r="O657" s="67"/>
       <c r="P657" s="1"/>
       <c r="Q657" s="1"/>
       <c r="R657" s="1"/>
@@ -50780,7 +50800,7 @@
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
       <c r="N658" s="1"/>
-      <c r="O658" s="68"/>
+      <c r="O658" s="67"/>
       <c r="P658" s="1"/>
       <c r="Q658" s="1"/>
       <c r="R658" s="1"/>
@@ -50811,7 +50831,7 @@
       <c r="L659" s="1"/>
       <c r="M659" s="1"/>
       <c r="N659" s="1"/>
-      <c r="O659" s="68"/>
+      <c r="O659" s="67"/>
       <c r="P659" s="1"/>
       <c r="Q659" s="1"/>
       <c r="R659" s="1"/>
@@ -50842,7 +50862,7 @@
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
       <c r="N660" s="1"/>
-      <c r="O660" s="68"/>
+      <c r="O660" s="67"/>
       <c r="P660" s="1"/>
       <c r="Q660" s="1"/>
       <c r="R660" s="1"/>
@@ -50873,7 +50893,7 @@
       <c r="L661" s="1"/>
       <c r="M661" s="1"/>
       <c r="N661" s="1"/>
-      <c r="O661" s="68"/>
+      <c r="O661" s="67"/>
       <c r="P661" s="1"/>
       <c r="Q661" s="1"/>
       <c r="R661" s="1"/>
@@ -50904,7 +50924,7 @@
       <c r="L662" s="1"/>
       <c r="M662" s="1"/>
       <c r="N662" s="1"/>
-      <c r="O662" s="68"/>
+      <c r="O662" s="67"/>
       <c r="P662" s="1"/>
       <c r="Q662" s="1"/>
       <c r="R662" s="1"/>
@@ -50935,7 +50955,7 @@
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
       <c r="N663" s="1"/>
-      <c r="O663" s="68"/>
+      <c r="O663" s="67"/>
       <c r="P663" s="1"/>
       <c r="Q663" s="1"/>
       <c r="R663" s="1"/>
@@ -50966,7 +50986,7 @@
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
       <c r="N664" s="1"/>
-      <c r="O664" s="68"/>
+      <c r="O664" s="67"/>
       <c r="P664" s="1"/>
       <c r="Q664" s="1"/>
       <c r="R664" s="1"/>
@@ -50997,7 +51017,7 @@
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
       <c r="N665" s="1"/>
-      <c r="O665" s="68"/>
+      <c r="O665" s="67"/>
       <c r="P665" s="1"/>
       <c r="Q665" s="1"/>
       <c r="R665" s="1"/>
@@ -51028,7 +51048,7 @@
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
       <c r="N666" s="1"/>
-      <c r="O666" s="68"/>
+      <c r="O666" s="67"/>
       <c r="P666" s="1"/>
       <c r="Q666" s="1"/>
       <c r="R666" s="1"/>
@@ -51059,7 +51079,7 @@
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
       <c r="N667" s="1"/>
-      <c r="O667" s="68"/>
+      <c r="O667" s="67"/>
       <c r="P667" s="1"/>
       <c r="Q667" s="1"/>
       <c r="R667" s="1"/>
@@ -51090,7 +51110,7 @@
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
       <c r="N668" s="1"/>
-      <c r="O668" s="68"/>
+      <c r="O668" s="67"/>
       <c r="P668" s="1"/>
       <c r="Q668" s="1"/>
       <c r="R668" s="1"/>
@@ -51121,7 +51141,7 @@
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
       <c r="N669" s="1"/>
-      <c r="O669" s="68"/>
+      <c r="O669" s="67"/>
       <c r="P669" s="1"/>
       <c r="Q669" s="1"/>
       <c r="R669" s="1"/>
@@ -51152,7 +51172,7 @@
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
       <c r="N670" s="1"/>
-      <c r="O670" s="68"/>
+      <c r="O670" s="67"/>
       <c r="P670" s="1"/>
       <c r="Q670" s="1"/>
       <c r="R670" s="1"/>
@@ -51183,7 +51203,7 @@
       <c r="L671" s="1"/>
       <c r="M671" s="1"/>
       <c r="N671" s="1"/>
-      <c r="O671" s="68"/>
+      <c r="O671" s="67"/>
       <c r="P671" s="1"/>
       <c r="Q671" s="1"/>
       <c r="R671" s="1"/>
@@ -51214,7 +51234,7 @@
       <c r="L672" s="1"/>
       <c r="M672" s="1"/>
       <c r="N672" s="1"/>
-      <c r="O672" s="68"/>
+      <c r="O672" s="67"/>
       <c r="P672" s="1"/>
       <c r="Q672" s="1"/>
       <c r="R672" s="1"/>
@@ -51245,7 +51265,7 @@
       <c r="L673" s="1"/>
       <c r="M673" s="1"/>
       <c r="N673" s="1"/>
-      <c r="O673" s="68"/>
+      <c r="O673" s="67"/>
       <c r="P673" s="1"/>
       <c r="Q673" s="1"/>
       <c r="R673" s="1"/>
@@ -51276,7 +51296,7 @@
       <c r="L674" s="1"/>
       <c r="M674" s="1"/>
       <c r="N674" s="1"/>
-      <c r="O674" s="68"/>
+      <c r="O674" s="67"/>
       <c r="P674" s="1"/>
       <c r="Q674" s="1"/>
       <c r="R674" s="1"/>
@@ -51307,7 +51327,7 @@
       <c r="L675" s="1"/>
       <c r="M675" s="1"/>
       <c r="N675" s="1"/>
-      <c r="O675" s="68"/>
+      <c r="O675" s="67"/>
       <c r="P675" s="1"/>
       <c r="Q675" s="1"/>
       <c r="R675" s="1"/>
@@ -51338,7 +51358,7 @@
       <c r="L676" s="1"/>
       <c r="M676" s="1"/>
       <c r="N676" s="1"/>
-      <c r="O676" s="68"/>
+      <c r="O676" s="67"/>
       <c r="P676" s="1"/>
       <c r="Q676" s="1"/>
       <c r="R676" s="1"/>
@@ -51369,7 +51389,7 @@
       <c r="L677" s="1"/>
       <c r="M677" s="1"/>
       <c r="N677" s="1"/>
-      <c r="O677" s="68"/>
+      <c r="O677" s="67"/>
       <c r="P677" s="1"/>
       <c r="Q677" s="1"/>
       <c r="R677" s="1"/>
@@ -51400,7 +51420,7 @@
       <c r="L678" s="1"/>
       <c r="M678" s="1"/>
       <c r="N678" s="1"/>
-      <c r="O678" s="68"/>
+      <c r="O678" s="67"/>
       <c r="P678" s="1"/>
       <c r="Q678" s="1"/>
       <c r="R678" s="1"/>
@@ -51431,7 +51451,7 @@
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
       <c r="N679" s="1"/>
-      <c r="O679" s="68"/>
+      <c r="O679" s="67"/>
       <c r="P679" s="1"/>
       <c r="Q679" s="1"/>
       <c r="R679" s="1"/>
@@ -51462,7 +51482,7 @@
       <c r="L680" s="1"/>
       <c r="M680" s="1"/>
       <c r="N680" s="1"/>
-      <c r="O680" s="68"/>
+      <c r="O680" s="67"/>
       <c r="P680" s="1"/>
       <c r="Q680" s="1"/>
       <c r="R680" s="1"/>
@@ -51493,7 +51513,7 @@
       <c r="L681" s="1"/>
       <c r="M681" s="1"/>
       <c r="N681" s="1"/>
-      <c r="O681" s="68"/>
+      <c r="O681" s="67"/>
       <c r="P681" s="1"/>
       <c r="Q681" s="1"/>
       <c r="R681" s="1"/>
@@ -51524,7 +51544,7 @@
       <c r="L682" s="1"/>
       <c r="M682" s="1"/>
       <c r="N682" s="1"/>
-      <c r="O682" s="68"/>
+      <c r="O682" s="67"/>
       <c r="P682" s="1"/>
       <c r="Q682" s="1"/>
       <c r="R682" s="1"/>
@@ -51555,7 +51575,7 @@
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
       <c r="N683" s="1"/>
-      <c r="O683" s="68"/>
+      <c r="O683" s="67"/>
       <c r="P683" s="1"/>
       <c r="Q683" s="1"/>
       <c r="R683" s="1"/>
@@ -51586,7 +51606,7 @@
       <c r="L684" s="1"/>
       <c r="M684" s="1"/>
       <c r="N684" s="1"/>
-      <c r="O684" s="68"/>
+      <c r="O684" s="67"/>
       <c r="P684" s="1"/>
       <c r="Q684" s="1"/>
       <c r="R684" s="1"/>
@@ -51617,7 +51637,7 @@
       <c r="L685" s="1"/>
       <c r="M685" s="1"/>
       <c r="N685" s="1"/>
-      <c r="O685" s="68"/>
+      <c r="O685" s="67"/>
       <c r="P685" s="1"/>
       <c r="Q685" s="1"/>
       <c r="R685" s="1"/>
@@ -51648,7 +51668,7 @@
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
       <c r="N686" s="1"/>
-      <c r="O686" s="68"/>
+      <c r="O686" s="67"/>
       <c r="P686" s="1"/>
       <c r="Q686" s="1"/>
       <c r="R686" s="1"/>
@@ -51679,7 +51699,7 @@
       <c r="L687" s="1"/>
       <c r="M687" s="1"/>
       <c r="N687" s="1"/>
-      <c r="O687" s="68"/>
+      <c r="O687" s="67"/>
       <c r="P687" s="1"/>
       <c r="Q687" s="1"/>
       <c r="R687" s="1"/>
@@ -51710,7 +51730,7 @@
       <c r="L688" s="1"/>
       <c r="M688" s="1"/>
       <c r="N688" s="1"/>
-      <c r="O688" s="68"/>
+      <c r="O688" s="67"/>
       <c r="P688" s="1"/>
       <c r="Q688" s="1"/>
       <c r="R688" s="1"/>
@@ -51741,7 +51761,7 @@
       <c r="L689" s="1"/>
       <c r="M689" s="1"/>
       <c r="N689" s="1"/>
-      <c r="O689" s="68"/>
+      <c r="O689" s="67"/>
       <c r="P689" s="1"/>
       <c r="Q689" s="1"/>
       <c r="R689" s="1"/>
@@ -51772,7 +51792,7 @@
       <c r="L690" s="1"/>
       <c r="M690" s="1"/>
       <c r="N690" s="1"/>
-      <c r="O690" s="68"/>
+      <c r="O690" s="67"/>
       <c r="P690" s="1"/>
       <c r="Q690" s="1"/>
       <c r="R690" s="1"/>
@@ -51803,7 +51823,7 @@
       <c r="L691" s="1"/>
       <c r="M691" s="1"/>
       <c r="N691" s="1"/>
-      <c r="O691" s="68"/>
+      <c r="O691" s="67"/>
       <c r="P691" s="1"/>
       <c r="Q691" s="1"/>
       <c r="R691" s="1"/>
@@ -51834,7 +51854,7 @@
       <c r="L692" s="1"/>
       <c r="M692" s="1"/>
       <c r="N692" s="1"/>
-      <c r="O692" s="68"/>
+      <c r="O692" s="67"/>
       <c r="P692" s="1"/>
       <c r="Q692" s="1"/>
       <c r="R692" s="1"/>
@@ -51865,7 +51885,7 @@
       <c r="L693" s="1"/>
       <c r="M693" s="1"/>
       <c r="N693" s="1"/>
-      <c r="O693" s="68"/>
+      <c r="O693" s="67"/>
       <c r="P693" s="1"/>
       <c r="Q693" s="1"/>
       <c r="R693" s="1"/>
@@ -51896,7 +51916,7 @@
       <c r="L694" s="1"/>
       <c r="M694" s="1"/>
       <c r="N694" s="1"/>
-      <c r="O694" s="68"/>
+      <c r="O694" s="67"/>
       <c r="P694" s="1"/>
       <c r="Q694" s="1"/>
       <c r="R694" s="1"/>
@@ -51927,7 +51947,7 @@
       <c r="L695" s="1"/>
       <c r="M695" s="1"/>
       <c r="N695" s="1"/>
-      <c r="O695" s="68"/>
+      <c r="O695" s="67"/>
       <c r="P695" s="1"/>
       <c r="Q695" s="1"/>
       <c r="R695" s="1"/>
@@ -51958,7 +51978,7 @@
       <c r="L696" s="1"/>
       <c r="M696" s="1"/>
       <c r="N696" s="1"/>
-      <c r="O696" s="68"/>
+      <c r="O696" s="67"/>
       <c r="P696" s="1"/>
       <c r="Q696" s="1"/>
       <c r="R696" s="1"/>
@@ -51989,7 +52009,7 @@
       <c r="L697" s="1"/>
       <c r="M697" s="1"/>
       <c r="N697" s="1"/>
-      <c r="O697" s="68"/>
+      <c r="O697" s="67"/>
       <c r="P697" s="1"/>
       <c r="Q697" s="1"/>
       <c r="R697" s="1"/>
@@ -52020,7 +52040,7 @@
       <c r="L698" s="1"/>
       <c r="M698" s="1"/>
       <c r="N698" s="1"/>
-      <c r="O698" s="68"/>
+      <c r="O698" s="67"/>
       <c r="P698" s="1"/>
       <c r="Q698" s="1"/>
       <c r="R698" s="1"/>
@@ -52051,7 +52071,7 @@
       <c r="L699" s="1"/>
       <c r="M699" s="1"/>
       <c r="N699" s="1"/>
-      <c r="O699" s="68"/>
+      <c r="O699" s="67"/>
       <c r="P699" s="1"/>
       <c r="Q699" s="1"/>
       <c r="R699" s="1"/>
@@ -52082,7 +52102,7 @@
       <c r="L700" s="1"/>
       <c r="M700" s="1"/>
       <c r="N700" s="1"/>
-      <c r="O700" s="68"/>
+      <c r="O700" s="67"/>
       <c r="P700" s="1"/>
       <c r="Q700" s="1"/>
       <c r="R700" s="1"/>
@@ -52113,7 +52133,7 @@
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
       <c r="N701" s="1"/>
-      <c r="O701" s="68"/>
+      <c r="O701" s="67"/>
       <c r="P701" s="1"/>
       <c r="Q701" s="1"/>
       <c r="R701" s="1"/>
@@ -52144,7 +52164,7 @@
       <c r="L702" s="1"/>
       <c r="M702" s="1"/>
       <c r="N702" s="1"/>
-      <c r="O702" s="68"/>
+      <c r="O702" s="67"/>
       <c r="P702" s="1"/>
       <c r="Q702" s="1"/>
       <c r="R702" s="1"/>
@@ -52175,7 +52195,7 @@
       <c r="L703" s="1"/>
       <c r="M703" s="1"/>
       <c r="N703" s="1"/>
-      <c r="O703" s="68"/>
+      <c r="O703" s="67"/>
       <c r="P703" s="1"/>
       <c r="Q703" s="1"/>
       <c r="R703" s="1"/>
@@ -52206,7 +52226,7 @@
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
       <c r="N704" s="1"/>
-      <c r="O704" s="68"/>
+      <c r="O704" s="67"/>
       <c r="P704" s="1"/>
       <c r="Q704" s="1"/>
       <c r="R704" s="1"/>
@@ -52237,7 +52257,7 @@
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
       <c r="N705" s="1"/>
-      <c r="O705" s="68"/>
+      <c r="O705" s="67"/>
       <c r="P705" s="1"/>
       <c r="Q705" s="1"/>
       <c r="R705" s="1"/>
@@ -52268,7 +52288,7 @@
       <c r="L706" s="1"/>
       <c r="M706" s="1"/>
       <c r="N706" s="1"/>
-      <c r="O706" s="68"/>
+      <c r="O706" s="67"/>
       <c r="P706" s="1"/>
       <c r="Q706" s="1"/>
       <c r="R706" s="1"/>
@@ -52299,7 +52319,7 @@
       <c r="L707" s="1"/>
       <c r="M707" s="1"/>
       <c r="N707" s="1"/>
-      <c r="O707" s="68"/>
+      <c r="O707" s="67"/>
       <c r="P707" s="1"/>
       <c r="Q707" s="1"/>
       <c r="R707" s="1"/>
@@ -52330,7 +52350,7 @@
       <c r="L708" s="1"/>
       <c r="M708" s="1"/>
       <c r="N708" s="1"/>
-      <c r="O708" s="68"/>
+      <c r="O708" s="67"/>
       <c r="P708" s="1"/>
       <c r="Q708" s="1"/>
       <c r="R708" s="1"/>
@@ -52361,7 +52381,7 @@
       <c r="L709" s="1"/>
       <c r="M709" s="1"/>
       <c r="N709" s="1"/>
-      <c r="O709" s="68"/>
+      <c r="O709" s="67"/>
       <c r="P709" s="1"/>
       <c r="Q709" s="1"/>
       <c r="R709" s="1"/>
@@ -52392,7 +52412,7 @@
       <c r="L710" s="1"/>
       <c r="M710" s="1"/>
       <c r="N710" s="1"/>
-      <c r="O710" s="68"/>
+      <c r="O710" s="67"/>
       <c r="P710" s="1"/>
       <c r="Q710" s="1"/>
       <c r="R710" s="1"/>
@@ -52423,7 +52443,7 @@
       <c r="L711" s="1"/>
       <c r="M711" s="1"/>
       <c r="N711" s="1"/>
-      <c r="O711" s="68"/>
+      <c r="O711" s="67"/>
       <c r="P711" s="1"/>
       <c r="Q711" s="1"/>
       <c r="R711" s="1"/>
@@ -52454,7 +52474,7 @@
       <c r="L712" s="1"/>
       <c r="M712" s="1"/>
       <c r="N712" s="1"/>
-      <c r="O712" s="68"/>
+      <c r="O712" s="67"/>
       <c r="P712" s="1"/>
       <c r="Q712" s="1"/>
       <c r="R712" s="1"/>
@@ -52485,7 +52505,7 @@
       <c r="L713" s="1"/>
       <c r="M713" s="1"/>
       <c r="N713" s="1"/>
-      <c r="O713" s="68"/>
+      <c r="O713" s="67"/>
       <c r="P713" s="1"/>
       <c r="Q713" s="1"/>
       <c r="R713" s="1"/>
@@ -52516,7 +52536,7 @@
       <c r="L714" s="1"/>
       <c r="M714" s="1"/>
       <c r="N714" s="1"/>
-      <c r="O714" s="68"/>
+      <c r="O714" s="67"/>
       <c r="P714" s="1"/>
       <c r="Q714" s="1"/>
       <c r="R714" s="1"/>
@@ -52547,7 +52567,7 @@
       <c r="L715" s="1"/>
       <c r="M715" s="1"/>
       <c r="N715" s="1"/>
-      <c r="O715" s="68"/>
+      <c r="O715" s="67"/>
       <c r="P715" s="1"/>
       <c r="Q715" s="1"/>
       <c r="R715" s="1"/>
@@ -52578,7 +52598,7 @@
       <c r="L716" s="1"/>
       <c r="M716" s="1"/>
       <c r="N716" s="1"/>
-      <c r="O716" s="68"/>
+      <c r="O716" s="67"/>
       <c r="P716" s="1"/>
       <c r="Q716" s="1"/>
       <c r="R716" s="1"/>
@@ -52609,7 +52629,7 @@
       <c r="L717" s="1"/>
       <c r="M717" s="1"/>
       <c r="N717" s="1"/>
-      <c r="O717" s="68"/>
+      <c r="O717" s="67"/>
       <c r="P717" s="1"/>
       <c r="Q717" s="1"/>
       <c r="R717" s="1"/>
@@ -52640,7 +52660,7 @@
       <c r="L718" s="1"/>
       <c r="M718" s="1"/>
       <c r="N718" s="1"/>
-      <c r="O718" s="68"/>
+      <c r="O718" s="67"/>
       <c r="P718" s="1"/>
       <c r="Q718" s="1"/>
       <c r="R718" s="1"/>
@@ -52671,7 +52691,7 @@
       <c r="L719" s="1"/>
       <c r="M719" s="1"/>
       <c r="N719" s="1"/>
-      <c r="O719" s="68"/>
+      <c r="O719" s="67"/>
       <c r="P719" s="1"/>
       <c r="Q719" s="1"/>
       <c r="R719" s="1"/>
@@ -52702,7 +52722,7 @@
       <c r="L720" s="1"/>
       <c r="M720" s="1"/>
       <c r="N720" s="1"/>
-      <c r="O720" s="68"/>
+      <c r="O720" s="67"/>
       <c r="P720" s="1"/>
       <c r="Q720" s="1"/>
       <c r="R720" s="1"/>
@@ -52733,7 +52753,7 @@
       <c r="L721" s="1"/>
       <c r="M721" s="1"/>
       <c r="N721" s="1"/>
-      <c r="O721" s="68"/>
+      <c r="O721" s="67"/>
       <c r="P721" s="1"/>
       <c r="Q721" s="1"/>
       <c r="R721" s="1"/>
@@ -52764,7 +52784,7 @@
       <c r="L722" s="1"/>
       <c r="M722" s="1"/>
       <c r="N722" s="1"/>
-      <c r="O722" s="68"/>
+      <c r="O722" s="67"/>
       <c r="P722" s="1"/>
       <c r="Q722" s="1"/>
       <c r="R722" s="1"/>
@@ -52795,7 +52815,7 @@
       <c r="L723" s="1"/>
       <c r="M723" s="1"/>
       <c r="N723" s="1"/>
-      <c r="O723" s="68"/>
+      <c r="O723" s="67"/>
       <c r="P723" s="1"/>
       <c r="Q723" s="1"/>
       <c r="R723" s="1"/>
@@ -52826,7 +52846,7 @@
       <c r="L724" s="1"/>
       <c r="M724" s="1"/>
       <c r="N724" s="1"/>
-      <c r="O724" s="68"/>
+      <c r="O724" s="67"/>
       <c r="P724" s="1"/>
       <c r="Q724" s="1"/>
       <c r="R724" s="1"/>
@@ -52857,7 +52877,7 @@
       <c r="L725" s="1"/>
       <c r="M725" s="1"/>
       <c r="N725" s="1"/>
-      <c r="O725" s="68"/>
+      <c r="O725" s="67"/>
       <c r="P725" s="1"/>
       <c r="Q725" s="1"/>
       <c r="R725" s="1"/>
@@ -52888,7 +52908,7 @@
       <c r="L726" s="1"/>
       <c r="M726" s="1"/>
       <c r="N726" s="1"/>
-      <c r="O726" s="68"/>
+      <c r="O726" s="67"/>
       <c r="P726" s="1"/>
       <c r="Q726" s="1"/>
       <c r="R726" s="1"/>
@@ -52919,7 +52939,7 @@
       <c r="L727" s="1"/>
       <c r="M727" s="1"/>
       <c r="N727" s="1"/>
-      <c r="O727" s="68"/>
+      <c r="O727" s="67"/>
       <c r="P727" s="1"/>
       <c r="Q727" s="1"/>
       <c r="R727" s="1"/>
@@ -52950,7 +52970,7 @@
       <c r="L728" s="1"/>
       <c r="M728" s="1"/>
       <c r="N728" s="1"/>
-      <c r="O728" s="68"/>
+      <c r="O728" s="67"/>
       <c r="P728" s="1"/>
       <c r="Q728" s="1"/>
       <c r="R728" s="1"/>
@@ -52981,7 +53001,7 @@
       <c r="L729" s="1"/>
       <c r="M729" s="1"/>
       <c r="N729" s="1"/>
-      <c r="O729" s="68"/>
+      <c r="O729" s="67"/>
       <c r="P729" s="1"/>
       <c r="Q729" s="1"/>
       <c r="R729" s="1"/>
@@ -53012,7 +53032,7 @@
       <c r="L730" s="1"/>
       <c r="M730" s="1"/>
       <c r="N730" s="1"/>
-      <c r="O730" s="68"/>
+      <c r="O730" s="67"/>
       <c r="P730" s="1"/>
       <c r="Q730" s="1"/>
       <c r="R730" s="1"/>
@@ -53043,7 +53063,7 @@
       <c r="L731" s="1"/>
       <c r="M731" s="1"/>
       <c r="N731" s="1"/>
-      <c r="O731" s="68"/>
+      <c r="O731" s="67"/>
       <c r="P731" s="1"/>
       <c r="Q731" s="1"/>
       <c r="R731" s="1"/>
@@ -53074,7 +53094,7 @@
       <c r="L732" s="1"/>
       <c r="M732" s="1"/>
       <c r="N732" s="1"/>
-      <c r="O732" s="68"/>
+      <c r="O732" s="67"/>
       <c r="P732" s="1"/>
       <c r="Q732" s="1"/>
       <c r="R732" s="1"/>
@@ -53105,7 +53125,7 @@
       <c r="L733" s="1"/>
       <c r="M733" s="1"/>
       <c r="N733" s="1"/>
-      <c r="O733" s="68"/>
+      <c r="O733" s="67"/>
       <c r="P733" s="1"/>
       <c r="Q733" s="1"/>
       <c r="R733" s="1"/>
@@ -53136,7 +53156,7 @@
       <c r="L734" s="1"/>
       <c r="M734" s="1"/>
       <c r="N734" s="1"/>
-      <c r="O734" s="68"/>
+      <c r="O734" s="67"/>
       <c r="P734" s="1"/>
       <c r="Q734" s="1"/>
       <c r="R734" s="1"/>
@@ -53167,7 +53187,7 @@
       <c r="L735" s="1"/>
       <c r="M735" s="1"/>
       <c r="N735" s="1"/>
-      <c r="O735" s="68"/>
+      <c r="O735" s="67"/>
       <c r="P735" s="1"/>
       <c r="Q735" s="1"/>
       <c r="R735" s="1"/>
@@ -53198,7 +53218,7 @@
       <c r="L736" s="1"/>
       <c r="M736" s="1"/>
       <c r="N736" s="1"/>
-      <c r="O736" s="68"/>
+      <c r="O736" s="67"/>
       <c r="P736" s="1"/>
       <c r="Q736" s="1"/>
       <c r="R736" s="1"/>
@@ -53229,7 +53249,7 @@
       <c r="L737" s="1"/>
       <c r="M737" s="1"/>
       <c r="N737" s="1"/>
-      <c r="O737" s="68"/>
+      <c r="O737" s="67"/>
       <c r="P737" s="1"/>
       <c r="Q737" s="1"/>
       <c r="R737" s="1"/>
@@ -53260,7 +53280,7 @@
       <c r="L738" s="1"/>
       <c r="M738" s="1"/>
       <c r="N738" s="1"/>
-      <c r="O738" s="68"/>
+      <c r="O738" s="67"/>
       <c r="P738" s="1"/>
       <c r="Q738" s="1"/>
       <c r="R738" s="1"/>
@@ -53291,7 +53311,7 @@
       <c r="L739" s="1"/>
       <c r="M739" s="1"/>
       <c r="N739" s="1"/>
-      <c r="O739" s="68"/>
+      <c r="O739" s="67"/>
       <c r="P739" s="1"/>
       <c r="Q739" s="1"/>
       <c r="R739" s="1"/>
@@ -53322,7 +53342,7 @@
       <c r="L740" s="1"/>
       <c r="M740" s="1"/>
       <c r="N740" s="1"/>
-      <c r="O740" s="68"/>
+      <c r="O740" s="67"/>
       <c r="P740" s="1"/>
       <c r="Q740" s="1"/>
       <c r="R740" s="1"/>
@@ -53353,7 +53373,7 @@
       <c r="L741" s="1"/>
       <c r="M741" s="1"/>
       <c r="N741" s="1"/>
-      <c r="O741" s="68"/>
+      <c r="O741" s="67"/>
       <c r="P741" s="1"/>
       <c r="Q741" s="1"/>
       <c r="R741" s="1"/>
@@ -53384,7 +53404,7 @@
       <c r="L742" s="1"/>
       <c r="M742" s="1"/>
       <c r="N742" s="1"/>
-      <c r="O742" s="68"/>
+      <c r="O742" s="67"/>
       <c r="P742" s="1"/>
       <c r="Q742" s="1"/>
       <c r="R742" s="1"/>
@@ -53415,7 +53435,7 @@
       <c r="L743" s="1"/>
       <c r="M743" s="1"/>
       <c r="N743" s="1"/>
-      <c r="O743" s="68"/>
+      <c r="O743" s="67"/>
       <c r="P743" s="1"/>
       <c r="Q743" s="1"/>
       <c r="R743" s="1"/>
@@ -53446,7 +53466,7 @@
       <c r="L744" s="1"/>
       <c r="M744" s="1"/>
       <c r="N744" s="1"/>
-      <c r="O744" s="68"/>
+      <c r="O744" s="67"/>
       <c r="P744" s="1"/>
       <c r="Q744" s="1"/>
       <c r="R744" s="1"/>
@@ -53477,7 +53497,7 @@
       <c r="L745" s="1"/>
       <c r="M745" s="1"/>
       <c r="N745" s="1"/>
-      <c r="O745" s="68"/>
+      <c r="O745" s="67"/>
       <c r="P745" s="1"/>
       <c r="Q745" s="1"/>
       <c r="R745" s="1"/>
@@ -53508,7 +53528,7 @@
       <c r="L746" s="1"/>
       <c r="M746" s="1"/>
       <c r="N746" s="1"/>
-      <c r="O746" s="68"/>
+      <c r="O746" s="67"/>
       <c r="P746" s="1"/>
       <c r="Q746" s="1"/>
       <c r="R746" s="1"/>
@@ -53539,7 +53559,7 @@
       <c r="L747" s="1"/>
       <c r="M747" s="1"/>
       <c r="N747" s="1"/>
-      <c r="O747" s="68"/>
+      <c r="O747" s="67"/>
       <c r="P747" s="1"/>
       <c r="Q747" s="1"/>
       <c r="R747" s="1"/>
@@ -53570,7 +53590,7 @@
       <c r="L748" s="1"/>
       <c r="M748" s="1"/>
       <c r="N748" s="1"/>
-      <c r="O748" s="68"/>
+      <c r="O748" s="67"/>
       <c r="P748" s="1"/>
       <c r="Q748" s="1"/>
       <c r="R748" s="1"/>
@@ -53601,7 +53621,7 @@
       <c r="L749" s="1"/>
       <c r="M749" s="1"/>
       <c r="N749" s="1"/>
-      <c r="O749" s="68"/>
+      <c r="O749" s="67"/>
       <c r="P749" s="1"/>
       <c r="Q749" s="1"/>
       <c r="R749" s="1"/>
@@ -53632,7 +53652,7 @@
       <c r="L750" s="1"/>
       <c r="M750" s="1"/>
       <c r="N750" s="1"/>
-      <c r="O750" s="68"/>
+      <c r="O750" s="67"/>
       <c r="P750" s="1"/>
       <c r="Q750" s="1"/>
       <c r="R750" s="1"/>
@@ -53663,7 +53683,7 @@
       <c r="L751" s="1"/>
       <c r="M751" s="1"/>
       <c r="N751" s="1"/>
-      <c r="O751" s="68"/>
+      <c r="O751" s="67"/>
       <c r="P751" s="1"/>
       <c r="Q751" s="1"/>
       <c r="R751" s="1"/>
@@ -53694,7 +53714,7 @@
       <c r="L752" s="1"/>
       <c r="M752" s="1"/>
       <c r="N752" s="1"/>
-      <c r="O752" s="68"/>
+      <c r="O752" s="67"/>
       <c r="P752" s="1"/>
       <c r="Q752" s="1"/>
       <c r="R752" s="1"/>
@@ -53725,7 +53745,7 @@
       <c r="L753" s="1"/>
       <c r="M753" s="1"/>
       <c r="N753" s="1"/>
-      <c r="O753" s="68"/>
+      <c r="O753" s="67"/>
       <c r="P753" s="1"/>
       <c r="Q753" s="1"/>
       <c r="R753" s="1"/>
@@ -53756,7 +53776,7 @@
       <c r="L754" s="1"/>
       <c r="M754" s="1"/>
       <c r="N754" s="1"/>
-      <c r="O754" s="68"/>
+      <c r="O754" s="67"/>
       <c r="P754" s="1"/>
       <c r="Q754" s="1"/>
       <c r="R754" s="1"/>
@@ -53787,7 +53807,7 @@
       <c r="L755" s="1"/>
       <c r="M755" s="1"/>
       <c r="N755" s="1"/>
-      <c r="O755" s="68"/>
+      <c r="O755" s="67"/>
       <c r="P755" s="1"/>
       <c r="Q755" s="1"/>
       <c r="R755" s="1"/>
@@ -53818,7 +53838,7 @@
       <c r="L756" s="1"/>
       <c r="M756" s="1"/>
       <c r="N756" s="1"/>
-      <c r="O756" s="68"/>
+      <c r="O756" s="67"/>
       <c r="P756" s="1"/>
       <c r="Q756" s="1"/>
       <c r="R756" s="1"/>
@@ -53849,7 +53869,7 @@
       <c r="L757" s="1"/>
       <c r="M757" s="1"/>
       <c r="N757" s="1"/>
-      <c r="O757" s="68"/>
+      <c r="O757" s="67"/>
       <c r="P757" s="1"/>
       <c r="Q757" s="1"/>
       <c r="R757" s="1"/>
@@ -53880,7 +53900,7 @@
       <c r="L758" s="1"/>
       <c r="M758" s="1"/>
       <c r="N758" s="1"/>
-      <c r="O758" s="68"/>
+      <c r="O758" s="67"/>
       <c r="P758" s="1"/>
       <c r="Q758" s="1"/>
       <c r="R758" s="1"/>
@@ -53911,7 +53931,7 @@
       <c r="L759" s="1"/>
       <c r="M759" s="1"/>
       <c r="N759" s="1"/>
-      <c r="O759" s="68"/>
+      <c r="O759" s="67"/>
       <c r="P759" s="1"/>
       <c r="Q759" s="1"/>
       <c r="R759" s="1"/>
@@ -53942,7 +53962,7 @@
       <c r="L760" s="1"/>
       <c r="M760" s="1"/>
       <c r="N760" s="1"/>
-      <c r="O760" s="68"/>
+      <c r="O760" s="67"/>
       <c r="P760" s="1"/>
       <c r="Q760" s="1"/>
       <c r="R760" s="1"/>
@@ -53973,7 +53993,7 @@
       <c r="L761" s="1"/>
       <c r="M761" s="1"/>
       <c r="N761" s="1"/>
-      <c r="O761" s="68"/>
+      <c r="O761" s="67"/>
       <c r="P761" s="1"/>
       <c r="Q761" s="1"/>
       <c r="R761" s="1"/>
@@ -54004,7 +54024,7 @@
       <c r="L762" s="1"/>
       <c r="M762" s="1"/>
       <c r="N762" s="1"/>
-      <c r="O762" s="68"/>
+      <c r="O762" s="67"/>
       <c r="P762" s="1"/>
       <c r="Q762" s="1"/>
       <c r="R762" s="1"/>
@@ -54035,7 +54055,7 @@
       <c r="L763" s="1"/>
       <c r="M763" s="1"/>
       <c r="N763" s="1"/>
-      <c r="O763" s="68"/>
+      <c r="O763" s="67"/>
       <c r="P763" s="1"/>
       <c r="Q763" s="1"/>
       <c r="R763" s="1"/>
@@ -54066,7 +54086,7 @@
       <c r="L764" s="1"/>
       <c r="M764" s="1"/>
       <c r="N764" s="1"/>
-      <c r="O764" s="68"/>
+      <c r="O764" s="67"/>
       <c r="P764" s="1"/>
       <c r="Q764" s="1"/>
       <c r="R764" s="1"/>
@@ -54097,7 +54117,7 @@
       <c r="L765" s="1"/>
       <c r="M765" s="1"/>
       <c r="N765" s="1"/>
-      <c r="O765" s="68"/>
+      <c r="O765" s="67"/>
       <c r="P765" s="1"/>
       <c r="Q765" s="1"/>
       <c r="R765" s="1"/>
@@ -54128,7 +54148,7 @@
       <c r="L766" s="1"/>
       <c r="M766" s="1"/>
       <c r="N766" s="1"/>
-      <c r="O766" s="68"/>
+      <c r="O766" s="67"/>
       <c r="P766" s="1"/>
       <c r="Q766" s="1"/>
       <c r="R766" s="1"/>
@@ -54159,7 +54179,7 @@
       <c r="L767" s="1"/>
       <c r="M767" s="1"/>
       <c r="N767" s="1"/>
-      <c r="O767" s="68"/>
+      <c r="O767" s="67"/>
       <c r="P767" s="1"/>
       <c r="Q767" s="1"/>
       <c r="R767" s="1"/>
@@ -54190,7 +54210,7 @@
       <c r="L768" s="1"/>
       <c r="M768" s="1"/>
       <c r="N768" s="1"/>
-      <c r="O768" s="68"/>
+      <c r="O768" s="67"/>
       <c r="P768" s="1"/>
       <c r="Q768" s="1"/>
       <c r="R768" s="1"/>
@@ -54221,7 +54241,7 @@
       <c r="L769" s="1"/>
       <c r="M769" s="1"/>
       <c r="N769" s="1"/>
-      <c r="O769" s="68"/>
+      <c r="O769" s="67"/>
       <c r="P769" s="1"/>
       <c r="Q769" s="1"/>
       <c r="R769" s="1"/>
@@ -54252,7 +54272,7 @@
       <c r="L770" s="1"/>
       <c r="M770" s="1"/>
       <c r="N770" s="1"/>
-      <c r="O770" s="68"/>
+      <c r="O770" s="67"/>
       <c r="P770" s="1"/>
       <c r="Q770" s="1"/>
       <c r="R770" s="1"/>
@@ -54283,7 +54303,7 @@
       <c r="L771" s="1"/>
       <c r="M771" s="1"/>
       <c r="N771" s="1"/>
-      <c r="O771" s="68"/>
+      <c r="O771" s="67"/>
       <c r="P771" s="1"/>
       <c r="Q771" s="1"/>
       <c r="R771" s="1"/>
@@ -54314,7 +54334,7 @@
       <c r="L772" s="1"/>
       <c r="M772" s="1"/>
       <c r="N772" s="1"/>
-      <c r="O772" s="68"/>
+      <c r="O772" s="67"/>
       <c r="P772" s="1"/>
       <c r="Q772" s="1"/>
       <c r="R772" s="1"/>
@@ -54345,7 +54365,7 @@
       <c r="L773" s="1"/>
       <c r="M773" s="1"/>
       <c r="N773" s="1"/>
-      <c r="O773" s="68"/>
+      <c r="O773" s="67"/>
       <c r="P773" s="1"/>
       <c r="Q773" s="1"/>
       <c r="R773" s="1"/>
@@ -54376,7 +54396,7 @@
       <c r="L774" s="1"/>
       <c r="M774" s="1"/>
       <c r="N774" s="1"/>
-      <c r="O774" s="68"/>
+      <c r="O774" s="67"/>
       <c r="P774" s="1"/>
       <c r="Q774" s="1"/>
       <c r="R774" s="1"/>
@@ -54407,7 +54427,7 @@
       <c r="L775" s="1"/>
       <c r="M775" s="1"/>
       <c r="N775" s="1"/>
-      <c r="O775" s="68"/>
+      <c r="O775" s="67"/>
       <c r="P775" s="1"/>
       <c r="Q775" s="1"/>
       <c r="R775" s="1"/>
@@ -54438,7 +54458,7 @@
       <c r="L776" s="1"/>
       <c r="M776" s="1"/>
       <c r="N776" s="1"/>
-      <c r="O776" s="68"/>
+      <c r="O776" s="67"/>
       <c r="P776" s="1"/>
       <c r="Q776" s="1"/>
       <c r="R776" s="1"/>
@@ -54469,7 +54489,7 @@
       <c r="L777" s="1"/>
       <c r="M777" s="1"/>
       <c r="N777" s="1"/>
-      <c r="O777" s="68"/>
+      <c r="O777" s="67"/>
       <c r="P777" s="1"/>
       <c r="Q777" s="1"/>
       <c r="R777" s="1"/>
@@ -54500,7 +54520,7 @@
       <c r="L778" s="1"/>
       <c r="M778" s="1"/>
       <c r="N778" s="1"/>
-      <c r="O778" s="68"/>
+      <c r="O778" s="67"/>
       <c r="P778" s="1"/>
       <c r="Q778" s="1"/>
       <c r="R778" s="1"/>
@@ -54531,7 +54551,7 @@
       <c r="L779" s="1"/>
       <c r="M779" s="1"/>
       <c r="N779" s="1"/>
-      <c r="O779" s="68"/>
+      <c r="O779" s="67"/>
       <c r="P779" s="1"/>
       <c r="Q779" s="1"/>
       <c r="R779" s="1"/>
@@ -54562,7 +54582,7 @@
       <c r="L780" s="1"/>
       <c r="M780" s="1"/>
       <c r="N780" s="1"/>
-      <c r="O780" s="68"/>
+      <c r="O780" s="67"/>
       <c r="P780" s="1"/>
       <c r="Q780" s="1"/>
       <c r="R780" s="1"/>
@@ -54593,7 +54613,7 @@
       <c r="L781" s="1"/>
       <c r="M781" s="1"/>
       <c r="N781" s="1"/>
-      <c r="O781" s="68"/>
+      <c r="O781" s="67"/>
       <c r="P781" s="1"/>
       <c r="Q781" s="1"/>
       <c r="R781" s="1"/>
@@ -54624,7 +54644,7 @@
       <c r="L782" s="1"/>
       <c r="M782" s="1"/>
       <c r="N782" s="1"/>
-      <c r="O782" s="68"/>
+      <c r="O782" s="67"/>
       <c r="P782" s="1"/>
       <c r="Q782" s="1"/>
       <c r="R782" s="1"/>
@@ -54655,7 +54675,7 @@
       <c r="L783" s="1"/>
       <c r="M783" s="1"/>
       <c r="N783" s="1"/>
-      <c r="O783" s="68"/>
+      <c r="O783" s="67"/>
       <c r="P783" s="1"/>
       <c r="Q783" s="1"/>
       <c r="R783" s="1"/>
@@ -54686,7 +54706,7 @@
       <c r="L784" s="1"/>
       <c r="M784" s="1"/>
       <c r="N784" s="1"/>
-      <c r="O784" s="68"/>
+      <c r="O784" s="67"/>
       <c r="P784" s="1"/>
       <c r="Q784" s="1"/>
       <c r="R784" s="1"/>
@@ -54717,7 +54737,7 @@
       <c r="L785" s="1"/>
       <c r="M785" s="1"/>
       <c r="N785" s="1"/>
-      <c r="O785" s="68"/>
+      <c r="O785" s="67"/>
       <c r="P785" s="1"/>
       <c r="Q785" s="1"/>
       <c r="R785" s="1"/>
@@ -54748,7 +54768,7 @@
       <c r="L786" s="1"/>
       <c r="M786" s="1"/>
       <c r="N786" s="1"/>
-      <c r="O786" s="68"/>
+      <c r="O786" s="67"/>
       <c r="P786" s="1"/>
       <c r="Q786" s="1"/>
       <c r="R786" s="1"/>
@@ -54779,7 +54799,7 @@
       <c r="L787" s="1"/>
       <c r="M787" s="1"/>
       <c r="N787" s="1"/>
-      <c r="O787" s="68"/>
+      <c r="O787" s="67"/>
       <c r="P787" s="1"/>
       <c r="Q787" s="1"/>
       <c r="R787" s="1"/>
@@ -54810,7 +54830,7 @@
       <c r="L788" s="1"/>
       <c r="M788" s="1"/>
       <c r="N788" s="1"/>
-      <c r="O788" s="68"/>
+      <c r="O788" s="67"/>
       <c r="P788" s="1"/>
       <c r="Q788" s="1"/>
       <c r="R788" s="1"/>
@@ -54841,7 +54861,7 @@
       <c r="L789" s="1"/>
       <c r="M789" s="1"/>
       <c r="N789" s="1"/>
-      <c r="O789" s="68"/>
+      <c r="O789" s="67"/>
       <c r="P789" s="1"/>
       <c r="Q789" s="1"/>
       <c r="R789" s="1"/>
@@ -54872,7 +54892,7 @@
       <c r="L790" s="1"/>
       <c r="M790" s="1"/>
       <c r="N790" s="1"/>
-      <c r="O790" s="68"/>
+      <c r="O790" s="67"/>
       <c r="P790" s="1"/>
       <c r="Q790" s="1"/>
       <c r="R790" s="1"/>
@@ -54903,7 +54923,7 @@
       <c r="L791" s="1"/>
       <c r="M791" s="1"/>
       <c r="N791" s="1"/>
-      <c r="O791" s="68"/>
+      <c r="O791" s="67"/>
       <c r="P791" s="1"/>
       <c r="Q791" s="1"/>
       <c r="R791" s="1"/>
@@ -54934,7 +54954,7 @@
       <c r="L792" s="1"/>
       <c r="M792" s="1"/>
       <c r="N792" s="1"/>
-      <c r="O792" s="68"/>
+      <c r="O792" s="67"/>
       <c r="P792" s="1"/>
       <c r="Q792" s="1"/>
       <c r="R792" s="1"/>
@@ -54965,7 +54985,7 @@
       <c r="L793" s="1"/>
       <c r="M793" s="1"/>
       <c r="N793" s="1"/>
-      <c r="O793" s="68"/>
+      <c r="O793" s="67"/>
       <c r="P793" s="1"/>
       <c r="Q793" s="1"/>
       <c r="R793" s="1"/>
@@ -54996,7 +55016,7 @@
       <c r="L794" s="1"/>
       <c r="M794" s="1"/>
       <c r="N794" s="1"/>
-      <c r="O794" s="68"/>
+      <c r="O794" s="67"/>
       <c r="P794" s="1"/>
       <c r="Q794" s="1"/>
       <c r="R794" s="1"/>
@@ -55027,7 +55047,7 @@
       <c r="L795" s="1"/>
       <c r="M795" s="1"/>
       <c r="N795" s="1"/>
-      <c r="O795" s="68"/>
+      <c r="O795" s="67"/>
       <c r="P795" s="1"/>
       <c r="Q795" s="1"/>
       <c r="R795" s="1"/>
@@ -55058,7 +55078,7 @@
       <c r="L796" s="1"/>
       <c r="M796" s="1"/>
       <c r="N796" s="1"/>
-      <c r="O796" s="68"/>
+      <c r="O796" s="67"/>
       <c r="P796" s="1"/>
       <c r="Q796" s="1"/>
       <c r="R796" s="1"/>
@@ -55089,7 +55109,7 @@
       <c r="L797" s="1"/>
       <c r="M797" s="1"/>
       <c r="N797" s="1"/>
-      <c r="O797" s="68"/>
+      <c r="O797" s="67"/>
       <c r="P797" s="1"/>
       <c r="Q797" s="1"/>
       <c r="R797" s="1"/>
@@ -55120,7 +55140,7 @@
       <c r="L798" s="1"/>
       <c r="M798" s="1"/>
       <c r="N798" s="1"/>
-      <c r="O798" s="68"/>
+      <c r="O798" s="67"/>
       <c r="P798" s="1"/>
       <c r="Q798" s="1"/>
       <c r="R798" s="1"/>
@@ -55151,7 +55171,7 @@
       <c r="L799" s="1"/>
       <c r="M799" s="1"/>
       <c r="N799" s="1"/>
-      <c r="O799" s="68"/>
+      <c r="O799" s="67"/>
       <c r="P799" s="1"/>
       <c r="Q799" s="1"/>
       <c r="R799" s="1"/>
@@ -55182,7 +55202,7 @@
       <c r="L800" s="1"/>
       <c r="M800" s="1"/>
       <c r="N800" s="1"/>
-      <c r="O800" s="68"/>
+      <c r="O800" s="67"/>
       <c r="P800" s="1"/>
       <c r="Q800" s="1"/>
       <c r="R800" s="1"/>
@@ -55213,7 +55233,7 @@
       <c r="L801" s="1"/>
       <c r="M801" s="1"/>
       <c r="N801" s="1"/>
-      <c r="O801" s="68"/>
+      <c r="O801" s="67"/>
       <c r="P801" s="1"/>
       <c r="Q801" s="1"/>
       <c r="R801" s="1"/>
@@ -55244,7 +55264,7 @@
       <c r="L802" s="1"/>
       <c r="M802" s="1"/>
       <c r="N802" s="1"/>
-      <c r="O802" s="68"/>
+      <c r="O802" s="67"/>
       <c r="P802" s="1"/>
       <c r="Q802" s="1"/>
       <c r="R802" s="1"/>
@@ -55275,7 +55295,7 @@
       <c r="L803" s="1"/>
       <c r="M803" s="1"/>
       <c r="N803" s="1"/>
-      <c r="O803" s="68"/>
+      <c r="O803" s="67"/>
       <c r="P803" s="1"/>
       <c r="Q803" s="1"/>
       <c r="R803" s="1"/>
@@ -55306,7 +55326,7 @@
       <c r="L804" s="1"/>
       <c r="M804" s="1"/>
       <c r="N804" s="1"/>
-      <c r="O804" s="68"/>
+      <c r="O804" s="67"/>
       <c r="P804" s="1"/>
       <c r="Q804" s="1"/>
       <c r="R804" s="1"/>
@@ -55337,7 +55357,7 @@
       <c r="L805" s="1"/>
       <c r="M805" s="1"/>
       <c r="N805" s="1"/>
-      <c r="O805" s="68"/>
+      <c r="O805" s="67"/>
       <c r="P805" s="1"/>
       <c r="Q805" s="1"/>
       <c r="R805" s="1"/>
@@ -55368,7 +55388,7 @@
       <c r="L806" s="1"/>
       <c r="M806" s="1"/>
       <c r="N806" s="1"/>
-      <c r="O806" s="68"/>
+      <c r="O806" s="67"/>
       <c r="P806" s="1"/>
       <c r="Q806" s="1"/>
       <c r="R806" s="1"/>
@@ -55399,7 +55419,7 @@
       <c r="L807" s="1"/>
       <c r="M807" s="1"/>
       <c r="N807" s="1"/>
-      <c r="O807" s="68"/>
+      <c r="O807" s="67"/>
       <c r="P807" s="1"/>
       <c r="Q807" s="1"/>
       <c r="R807" s="1"/>
@@ -55430,7 +55450,7 @@
       <c r="L808" s="1"/>
       <c r="M808" s="1"/>
       <c r="N808" s="1"/>
-      <c r="O808" s="68"/>
+      <c r="O808" s="67"/>
       <c r="P808" s="1"/>
       <c r="Q808" s="1"/>
       <c r="R808" s="1"/>
@@ -55461,7 +55481,7 @@
       <c r="L809" s="1"/>
       <c r="M809" s="1"/>
       <c r="N809" s="1"/>
-      <c r="O809" s="68"/>
+      <c r="O809" s="67"/>
       <c r="P809" s="1"/>
       <c r="Q809" s="1"/>
       <c r="R809" s="1"/>
@@ -55492,7 +55512,7 @@
       <c r="L810" s="1"/>
       <c r="M810" s="1"/>
       <c r="N810" s="1"/>
-      <c r="O810" s="68"/>
+      <c r="O810" s="67"/>
       <c r="P810" s="1"/>
       <c r="Q810" s="1"/>
       <c r="R810" s="1"/>
@@ -55523,7 +55543,7 @@
       <c r="L811" s="1"/>
       <c r="M811" s="1"/>
       <c r="N811" s="1"/>
-      <c r="O811" s="68"/>
+      <c r="O811" s="67"/>
       <c r="P811" s="1"/>
       <c r="Q811" s="1"/>
       <c r="R811" s="1"/>
@@ -55554,7 +55574,7 @@
       <c r="L812" s="1"/>
       <c r="M812" s="1"/>
       <c r="N812" s="1"/>
-      <c r="O812" s="68"/>
+      <c r="O812" s="67"/>
       <c r="P812" s="1"/>
       <c r="Q812" s="1"/>
       <c r="R812" s="1"/>
@@ -55585,7 +55605,7 @@
       <c r="L813" s="1"/>
       <c r="M813" s="1"/>
       <c r="N813" s="1"/>
-      <c r="O813" s="68"/>
+      <c r="O813" s="67"/>
       <c r="P813" s="1"/>
       <c r="Q813" s="1"/>
       <c r="R813" s="1"/>
@@ -55616,7 +55636,7 @@
       <c r="L814" s="1"/>
       <c r="M814" s="1"/>
       <c r="N814" s="1"/>
-      <c r="O814" s="68"/>
+      <c r="O814" s="67"/>
       <c r="P814" s="1"/>
       <c r="Q814" s="1"/>
       <c r="R814" s="1"/>
@@ -55647,7 +55667,7 @@
       <c r="L815" s="1"/>
       <c r="M815" s="1"/>
       <c r="N815" s="1"/>
-      <c r="O815" s="68"/>
+      <c r="O815" s="67"/>
       <c r="P815" s="1"/>
       <c r="Q815" s="1"/>
       <c r="R815" s="1"/>
@@ -55678,7 +55698,7 @@
       <c r="L816" s="1"/>
       <c r="M816" s="1"/>
       <c r="N816" s="1"/>
-      <c r="O816" s="68"/>
+      <c r="O816" s="67"/>
       <c r="P816" s="1"/>
       <c r="Q816" s="1"/>
       <c r="R816" s="1"/>
@@ -55709,7 +55729,7 @@
       <c r="L817" s="1"/>
       <c r="M817" s="1"/>
       <c r="N817" s="1"/>
-      <c r="O817" s="68"/>
+      <c r="O817" s="67"/>
       <c r="P817" s="1"/>
       <c r="Q817" s="1"/>
       <c r="R817" s="1"/>
@@ -55740,7 +55760,7 @@
       <c r="L818" s="1"/>
       <c r="M818" s="1"/>
       <c r="N818" s="1"/>
-      <c r="O818" s="68"/>
+      <c r="O818" s="67"/>
       <c r="P818" s="1"/>
       <c r="Q818" s="1"/>
       <c r="R818" s="1"/>
@@ -55771,7 +55791,7 @@
       <c r="L819" s="1"/>
       <c r="M819" s="1"/>
       <c r="N819" s="1"/>
-      <c r="O819" s="68"/>
+      <c r="O819" s="67"/>
       <c r="P819" s="1"/>
       <c r="Q819" s="1"/>
       <c r="R819" s="1"/>
@@ -55802,7 +55822,7 @@
       <c r="L820" s="1"/>
       <c r="M820" s="1"/>
       <c r="N820" s="1"/>
-      <c r="O820" s="68"/>
+      <c r="O820" s="67"/>
       <c r="P820" s="1"/>
       <c r="Q820" s="1"/>
       <c r="R820" s="1"/>
@@ -55833,7 +55853,7 @@
       <c r="L821" s="1"/>
       <c r="M821" s="1"/>
       <c r="N821" s="1"/>
-      <c r="O821" s="68"/>
+      <c r="O821" s="67"/>
       <c r="P821" s="1"/>
       <c r="Q821" s="1"/>
       <c r="R821" s="1"/>
@@ -55864,7 +55884,7 @@
       <c r="L822" s="1"/>
       <c r="M822" s="1"/>
       <c r="N822" s="1"/>
-      <c r="O822" s="68"/>
+      <c r="O822" s="67"/>
       <c r="P822" s="1"/>
       <c r="Q822" s="1"/>
       <c r="R822" s="1"/>
@@ -55895,7 +55915,7 @@
       <c r="L823" s="1"/>
       <c r="M823" s="1"/>
       <c r="N823" s="1"/>
-      <c r="O823" s="68"/>
+      <c r="O823" s="67"/>
       <c r="P823" s="1"/>
       <c r="Q823" s="1"/>
       <c r="R823" s="1"/>
@@ -55926,7 +55946,7 @@
       <c r="L824" s="1"/>
       <c r="M824" s="1"/>
       <c r="N824" s="1"/>
-      <c r="O824" s="68"/>
+      <c r="O824" s="67"/>
       <c r="P824" s="1"/>
       <c r="Q824" s="1"/>
       <c r="R824" s="1"/>
@@ -55957,7 +55977,7 @@
       <c r="L825" s="1"/>
       <c r="M825" s="1"/>
       <c r="N825" s="1"/>
-      <c r="O825" s="68"/>
+      <c r="O825" s="67"/>
       <c r="P825" s="1"/>
       <c r="Q825" s="1"/>
       <c r="R825" s="1"/>
@@ -55988,7 +56008,7 @@
       <c r="L826" s="1"/>
       <c r="M826" s="1"/>
       <c r="N826" s="1"/>
-      <c r="O826" s="68"/>
+      <c r="O826" s="67"/>
       <c r="P826" s="1"/>
       <c r="Q826" s="1"/>
       <c r="R826" s="1"/>
@@ -56019,7 +56039,7 @@
       <c r="L827" s="1"/>
       <c r="M827" s="1"/>
       <c r="N827" s="1"/>
-      <c r="O827" s="68"/>
+      <c r="O827" s="67"/>
       <c r="P827" s="1"/>
       <c r="Q827" s="1"/>
       <c r="R827" s="1"/>
@@ -56050,7 +56070,7 @@
       <c r="L828" s="1"/>
       <c r="M828" s="1"/>
       <c r="N828" s="1"/>
-      <c r="O828" s="68"/>
+      <c r="O828" s="67"/>
       <c r="P828" s="1"/>
       <c r="Q828" s="1"/>
       <c r="R828" s="1"/>
@@ -56081,7 +56101,7 @@
       <c r="L829" s="1"/>
       <c r="M829" s="1"/>
       <c r="N829" s="1"/>
-      <c r="O829" s="68"/>
+      <c r="O829" s="67"/>
       <c r="P829" s="1"/>
       <c r="Q829" s="1"/>
       <c r="R829" s="1"/>
@@ -56112,7 +56132,7 @@
       <c r="L830" s="1"/>
       <c r="M830" s="1"/>
       <c r="N830" s="1"/>
-      <c r="O830" s="68"/>
+      <c r="O830" s="67"/>
       <c r="P830" s="1"/>
       <c r="Q830" s="1"/>
       <c r="R830" s="1"/>
@@ -56143,7 +56163,7 @@
       <c r="L831" s="1"/>
       <c r="M831" s="1"/>
       <c r="N831" s="1"/>
-      <c r="O831" s="68"/>
+      <c r="O831" s="67"/>
       <c r="P831" s="1"/>
       <c r="Q831" s="1"/>
       <c r="R831" s="1"/>
@@ -56174,7 +56194,7 @@
       <c r="L832" s="1"/>
       <c r="M832" s="1"/>
       <c r="N832" s="1"/>
-      <c r="O832" s="68"/>
+      <c r="O832" s="67"/>
       <c r="P832" s="1"/>
       <c r="Q832" s="1"/>
       <c r="R832" s="1"/>
@@ -56205,7 +56225,7 @@
       <c r="L833" s="1"/>
       <c r="M833" s="1"/>
       <c r="N833" s="1"/>
-      <c r="O833" s="68"/>
+      <c r="O833" s="67"/>
       <c r="P833" s="1"/>
       <c r="Q833" s="1"/>
       <c r="R833" s="1"/>
@@ -56236,7 +56256,7 @@
       <c r="L834" s="1"/>
       <c r="M834" s="1"/>
       <c r="N834" s="1"/>
-      <c r="O834" s="68"/>
+      <c r="O834" s="67"/>
       <c r="P834" s="1"/>
       <c r="Q834" s="1"/>
       <c r="R834" s="1"/>
@@ -56267,7 +56287,7 @@
       <c r="L835" s="1"/>
       <c r="M835" s="1"/>
       <c r="N835" s="1"/>
-      <c r="O835" s="68"/>
+      <c r="O835" s="67"/>
       <c r="P835" s="1"/>
       <c r="Q835" s="1"/>
       <c r="R835" s="1"/>
@@ -56298,7 +56318,7 @@
       <c r="L836" s="1"/>
       <c r="M836" s="1"/>
       <c r="N836" s="1"/>
-      <c r="O836" s="68"/>
+      <c r="O836" s="67"/>
       <c r="P836" s="1"/>
       <c r="Q836" s="1"/>
       <c r="R836" s="1"/>
@@ -56329,7 +56349,7 @@
       <c r="L837" s="1"/>
       <c r="M837" s="1"/>
       <c r="N837" s="1"/>
-      <c r="O837" s="68"/>
+      <c r="O837" s="67"/>
       <c r="P837" s="1"/>
       <c r="Q837" s="1"/>
       <c r="R837" s="1"/>
@@ -56360,7 +56380,7 @@
       <c r="L838" s="1"/>
       <c r="M838" s="1"/>
       <c r="N838" s="1"/>
-      <c r="O838" s="68"/>
+      <c r="O838" s="67"/>
       <c r="P838" s="1"/>
       <c r="Q838" s="1"/>
       <c r="R838" s="1"/>
@@ -56391,7 +56411,7 @@
       <c r="L839" s="1"/>
       <c r="M839" s="1"/>
       <c r="N839" s="1"/>
-      <c r="O839" s="68"/>
+      <c r="O839" s="67"/>
       <c r="P839" s="1"/>
       <c r="Q839" s="1"/>
       <c r="R839" s="1"/>
@@ -56422,7 +56442,7 @@
       <c r="L840" s="1"/>
       <c r="M840" s="1"/>
       <c r="N840" s="1"/>
-      <c r="O840" s="68"/>
+      <c r="O840" s="67"/>
       <c r="P840" s="1"/>
       <c r="Q840" s="1"/>
       <c r="R840" s="1"/>
@@ -56453,7 +56473,7 @@
       <c r="L841" s="1"/>
       <c r="M841" s="1"/>
       <c r="N841" s="1"/>
-      <c r="O841" s="68"/>
+      <c r="O841" s="67"/>
       <c r="P841" s="1"/>
       <c r="Q841" s="1"/>
       <c r="R841" s="1"/>
@@ -56484,7 +56504,7 @@
       <c r="L842" s="1"/>
       <c r="M842" s="1"/>
       <c r="N842" s="1"/>
-      <c r="O842" s="68"/>
+      <c r="O842" s="67"/>
       <c r="P842" s="1"/>
       <c r="Q842" s="1"/>
       <c r="R842" s="1"/>
@@ -56515,7 +56535,7 @@
       <c r="L843" s="1"/>
       <c r="M843" s="1"/>
       <c r="N843" s="1"/>
-      <c r="O843" s="68"/>
+      <c r="O843" s="67"/>
       <c r="P843" s="1"/>
       <c r="Q843" s="1"/>
       <c r="R843" s="1"/>
@@ -56546,7 +56566,7 @@
       <c r="L844" s="1"/>
       <c r="M844" s="1"/>
       <c r="N844" s="1"/>
-      <c r="O844" s="68"/>
+      <c r="O844" s="67"/>
       <c r="P844" s="1"/>
       <c r="Q844" s="1"/>
       <c r="R844" s="1"/>
@@ -56577,7 +56597,7 @@
       <c r="L845" s="1"/>
       <c r="M845" s="1"/>
       <c r="N845" s="1"/>
-      <c r="O845" s="68"/>
+      <c r="O845" s="67"/>
       <c r="P845" s="1"/>
       <c r="Q845" s="1"/>
       <c r="R845" s="1"/>
@@ -56608,7 +56628,7 @@
       <c r="L846" s="1"/>
       <c r="M846" s="1"/>
       <c r="N846" s="1"/>
-      <c r="O846" s="68"/>
+      <c r="O846" s="67"/>
       <c r="P846" s="1"/>
       <c r="Q846" s="1"/>
       <c r="R846" s="1"/>
@@ -56639,7 +56659,7 @@
       <c r="L847" s="1"/>
       <c r="M847" s="1"/>
       <c r="N847" s="1"/>
-      <c r="O847" s="68"/>
+      <c r="O847" s="67"/>
       <c r="P847" s="1"/>
       <c r="Q847" s="1"/>
       <c r="R847" s="1"/>
@@ -56670,7 +56690,7 @@
       <c r="L848" s="1"/>
       <c r="M848" s="1"/>
       <c r="N848" s="1"/>
-      <c r="O848" s="68"/>
+      <c r="O848" s="67"/>
       <c r="P848" s="1"/>
       <c r="Q848" s="1"/>
       <c r="R848" s="1"/>
@@ -56701,7 +56721,7 @@
       <c r="L849" s="1"/>
       <c r="M849" s="1"/>
       <c r="N849" s="1"/>
-      <c r="O849" s="68"/>
+      <c r="O849" s="67"/>
       <c r="P849" s="1"/>
       <c r="Q849" s="1"/>
       <c r="R849" s="1"/>
@@ -56732,7 +56752,7 @@
       <c r="L850" s="1"/>
       <c r="M850" s="1"/>
       <c r="N850" s="1"/>
-      <c r="O850" s="68"/>
+      <c r="O850" s="67"/>
       <c r="P850" s="1"/>
       <c r="Q850" s="1"/>
       <c r="R850" s="1"/>
@@ -56763,7 +56783,7 @@
       <c r="L851" s="1"/>
       <c r="M851" s="1"/>
       <c r="N851" s="1"/>
-      <c r="O851" s="68"/>
+      <c r="O851" s="67"/>
       <c r="P851" s="1"/>
       <c r="Q851" s="1"/>
       <c r="R851" s="1"/>
@@ -56794,7 +56814,7 @@
       <c r="L852" s="1"/>
       <c r="M852" s="1"/>
       <c r="N852" s="1"/>
-      <c r="O852" s="68"/>
+      <c r="O852" s="67"/>
       <c r="P852" s="1"/>
       <c r="Q852" s="1"/>
       <c r="R852" s="1"/>
@@ -56825,7 +56845,7 @@
       <c r="L853" s="1"/>
       <c r="M853" s="1"/>
       <c r="N853" s="1"/>
-      <c r="O853" s="68"/>
+      <c r="O853" s="67"/>
       <c r="P853" s="1"/>
       <c r="Q853" s="1"/>
       <c r="R853" s="1"/>
@@ -56856,7 +56876,7 @@
       <c r="L854" s="1"/>
       <c r="M854" s="1"/>
       <c r="N854" s="1"/>
-      <c r="O854" s="68"/>
+      <c r="O854" s="67"/>
       <c r="P854" s="1"/>
       <c r="Q854" s="1"/>
       <c r="R854" s="1"/>
@@ -56887,7 +56907,7 @@
       <c r="L855" s="1"/>
       <c r="M855" s="1"/>
       <c r="N855" s="1"/>
-      <c r="O855" s="68"/>
+      <c r="O855" s="67"/>
       <c r="P855" s="1"/>
       <c r="Q855" s="1"/>
       <c r="R855" s="1"/>
@@ -56918,7 +56938,7 @@
       <c r="L856" s="1"/>
       <c r="M856" s="1"/>
       <c r="N856" s="1"/>
-      <c r="O856" s="68"/>
+      <c r="O856" s="67"/>
       <c r="P856" s="1"/>
       <c r="Q856" s="1"/>
       <c r="R856" s="1"/>
@@ -56949,7 +56969,7 @@
       <c r="L857" s="1"/>
       <c r="M857" s="1"/>
       <c r="N857" s="1"/>
-      <c r="O857" s="68"/>
+      <c r="O857" s="67"/>
       <c r="P857" s="1"/>
       <c r="Q857" s="1"/>
       <c r="R857" s="1"/>
@@ -56980,7 +57000,7 @@
       <c r="L858" s="1"/>
       <c r="M858" s="1"/>
       <c r="N858" s="1"/>
-      <c r="O858" s="68"/>
+      <c r="O858" s="67"/>
       <c r="P858" s="1"/>
       <c r="Q858" s="1"/>
       <c r="R858" s="1"/>
@@ -57011,7 +57031,7 @@
       <c r="L859" s="1"/>
       <c r="M859" s="1"/>
       <c r="N859" s="1"/>
-      <c r="O859" s="68"/>
+      <c r="O859" s="67"/>
       <c r="P859" s="1"/>
       <c r="Q859" s="1"/>
       <c r="R859" s="1"/>
@@ -57042,7 +57062,7 @@
       <c r="L860" s="1"/>
       <c r="M860" s="1"/>
       <c r="N860" s="1"/>
-      <c r="O860" s="68"/>
+      <c r="O860" s="67"/>
       <c r="P860" s="1"/>
       <c r="Q860" s="1"/>
       <c r="R860" s="1"/>
@@ -57073,7 +57093,7 @@
       <c r="L861" s="1"/>
       <c r="M861" s="1"/>
       <c r="N861" s="1"/>
-      <c r="O861" s="68"/>
+      <c r="O861" s="67"/>
       <c r="P861" s="1"/>
       <c r="Q861" s="1"/>
       <c r="R861" s="1"/>
@@ -57104,7 +57124,7 @@
       <c r="L862" s="1"/>
       <c r="M862" s="1"/>
       <c r="N862" s="1"/>
-      <c r="O862" s="68"/>
+      <c r="O862" s="67"/>
       <c r="P862" s="1"/>
       <c r="Q862" s="1"/>
       <c r="R862" s="1"/>
@@ -57135,7 +57155,7 @@
       <c r="L863" s="1"/>
       <c r="M863" s="1"/>
       <c r="N863" s="1"/>
-      <c r="O863" s="68"/>
+      <c r="O863" s="67"/>
       <c r="P863" s="1"/>
       <c r="Q863" s="1"/>
       <c r="R863" s="1"/>
@@ -57166,7 +57186,7 @@
       <c r="L864" s="1"/>
       <c r="M864" s="1"/>
       <c r="N864" s="1"/>
-      <c r="O864" s="68"/>
+      <c r="O864" s="67"/>
       <c r="P864" s="1"/>
       <c r="Q864" s="1"/>
       <c r="R864" s="1"/>
@@ -57197,7 +57217,7 @@
       <c r="L865" s="1"/>
       <c r="M865" s="1"/>
       <c r="N865" s="1"/>
-      <c r="O865" s="68"/>
+      <c r="O865" s="67"/>
       <c r="P865" s="1"/>
       <c r="Q865" s="1"/>
       <c r="R865" s="1"/>
@@ -57228,7 +57248,7 @@
       <c r="L866" s="1"/>
       <c r="M866" s="1"/>
       <c r="N866" s="1"/>
-      <c r="O866" s="68"/>
+      <c r="O866" s="67"/>
       <c r="P866" s="1"/>
       <c r="Q866" s="1"/>
       <c r="R866" s="1"/>
@@ -57259,7 +57279,7 @@
       <c r="L867" s="1"/>
       <c r="M867" s="1"/>
       <c r="N867" s="1"/>
-      <c r="O867" s="68"/>
+      <c r="O867" s="67"/>
       <c r="P867" s="1"/>
       <c r="Q867" s="1"/>
       <c r="R867" s="1"/>
@@ -57290,7 +57310,7 @@
       <c r="L868" s="1"/>
       <c r="M868" s="1"/>
       <c r="N868" s="1"/>
-      <c r="O868" s="68"/>
+      <c r="O868" s="67"/>
       <c r="P868" s="1"/>
       <c r="Q868" s="1"/>
       <c r="R868" s="1"/>
@@ -57321,7 +57341,7 @@
       <c r="L869" s="1"/>
       <c r="M869" s="1"/>
       <c r="N869" s="1"/>
-      <c r="O869" s="68"/>
+      <c r="O869" s="67"/>
       <c r="P869" s="1"/>
       <c r="Q869" s="1"/>
       <c r="R869" s="1"/>
@@ -57352,7 +57372,7 @@
       <c r="L870" s="1"/>
       <c r="M870" s="1"/>
       <c r="N870" s="1"/>
-      <c r="O870" s="68"/>
+      <c r="O870" s="67"/>
       <c r="P870" s="1"/>
       <c r="Q870" s="1"/>
       <c r="R870" s="1"/>
@@ -57383,7 +57403,7 @@
       <c r="L871" s="1"/>
       <c r="M871" s="1"/>
       <c r="N871" s="1"/>
-      <c r="O871" s="68"/>
+      <c r="O871" s="67"/>
       <c r="P871" s="1"/>
       <c r="Q871" s="1"/>
       <c r="R871" s="1"/>
@@ -57414,7 +57434,7 @@
       <c r="L872" s="1"/>
       <c r="M872" s="1"/>
       <c r="N872" s="1"/>
-      <c r="O872" s="68"/>
+      <c r="O872" s="67"/>
       <c r="P872" s="1"/>
       <c r="Q872" s="1"/>
       <c r="R872" s="1"/>
@@ -57445,7 +57465,7 @@
       <c r="L873" s="1"/>
       <c r="M873" s="1"/>
       <c r="N873" s="1"/>
-      <c r="O873" s="68"/>
+      <c r="O873" s="67"/>
       <c r="P873" s="1"/>
       <c r="Q873" s="1"/>
       <c r="R873" s="1"/>
@@ -57476,7 +57496,7 @@
       <c r="L874" s="1"/>
       <c r="M874" s="1"/>
       <c r="N874" s="1"/>
-      <c r="O874" s="68"/>
+      <c r="O874" s="67"/>
       <c r="P874" s="1"/>
       <c r="Q874" s="1"/>
       <c r="R874" s="1"/>
@@ -57507,7 +57527,7 @@
       <c r="L875" s="1"/>
       <c r="M875" s="1"/>
       <c r="N875" s="1"/>
-      <c r="O875" s="68"/>
+      <c r="O875" s="67"/>
       <c r="P875" s="1"/>
       <c r="Q875" s="1"/>
       <c r="R875" s="1"/>
@@ -57538,7 +57558,7 @@
       <c r="L876" s="1"/>
       <c r="M876" s="1"/>
       <c r="N876" s="1"/>
-      <c r="O876" s="68"/>
+      <c r="O876" s="67"/>
       <c r="P876" s="1"/>
       <c r="Q876" s="1"/>
       <c r="R876" s="1"/>
@@ -57569,7 +57589,7 @@
       <c r="L877" s="1"/>
       <c r="M877" s="1"/>
       <c r="N877" s="1"/>
-      <c r="O877" s="68"/>
+      <c r="O877" s="67"/>
       <c r="P877" s="1"/>
       <c r="Q877" s="1"/>
       <c r="R877" s="1"/>
@@ -57600,7 +57620,7 @@
       <c r="L878" s="1"/>
       <c r="M878" s="1"/>
       <c r="N878" s="1"/>
-      <c r="O878" s="68"/>
+      <c r="O878" s="67"/>
       <c r="P878" s="1"/>
       <c r="Q878" s="1"/>
       <c r="R878" s="1"/>
@@ -57631,7 +57651,7 @@
       <c r="L879" s="1"/>
       <c r="M879" s="1"/>
       <c r="N879" s="1"/>
-      <c r="O879" s="68"/>
+      <c r="O879" s="67"/>
       <c r="P879" s="1"/>
       <c r="Q879" s="1"/>
       <c r="R879" s="1"/>
@@ -57662,7 +57682,7 @@
       <c r="L880" s="1"/>
       <c r="M880" s="1"/>
       <c r="N880" s="1"/>
-      <c r="O880" s="68"/>
+      <c r="O880" s="67"/>
       <c r="P880" s="1"/>
       <c r="Q880" s="1"/>
       <c r="R880" s="1"/>
@@ -57693,7 +57713,7 @@
       <c r="L881" s="1"/>
       <c r="M881" s="1"/>
       <c r="N881" s="1"/>
-      <c r="O881" s="68"/>
+      <c r="O881" s="67"/>
       <c r="P881" s="1"/>
       <c r="Q881" s="1"/>
       <c r="R881" s="1"/>
@@ -57724,7 +57744,7 @@
       <c r="L882" s="1"/>
       <c r="M882" s="1"/>
       <c r="N882" s="1"/>
-      <c r="O882" s="68"/>
+      <c r="O882" s="67"/>
       <c r="P882" s="1"/>
       <c r="Q882" s="1"/>
       <c r="R882" s="1"/>
@@ -57755,7 +57775,7 @@
       <c r="L883" s="1"/>
       <c r="M883" s="1"/>
       <c r="N883" s="1"/>
-      <c r="O883" s="68"/>
+      <c r="O883" s="67"/>
       <c r="P883" s="1"/>
       <c r="Q883" s="1"/>
       <c r="R883" s="1"/>
@@ -57786,7 +57806,7 @@
       <c r="L884" s="1"/>
       <c r="M884" s="1"/>
       <c r="N884" s="1"/>
-      <c r="O884" s="68"/>
+      <c r="O884" s="67"/>
       <c r="P884" s="1"/>
       <c r="Q884" s="1"/>
       <c r="R884" s="1"/>
@@ -57817,7 +57837,7 @@
       <c r="L885" s="1"/>
       <c r="M885" s="1"/>
       <c r="N885" s="1"/>
-      <c r="O885" s="68"/>
+      <c r="O885" s="67"/>
       <c r="P885" s="1"/>
       <c r="Q885" s="1"/>
       <c r="R885" s="1"/>
@@ -57848,7 +57868,7 @@
       <c r="L886" s="1"/>
       <c r="M886" s="1"/>
       <c r="N886" s="1"/>
-      <c r="O886" s="68"/>
+      <c r="O886" s="67"/>
       <c r="P886" s="1"/>
       <c r="Q886" s="1"/>
       <c r="R886" s="1"/>
@@ -57879,7 +57899,7 @@
       <c r="L887" s="1"/>
       <c r="M887" s="1"/>
       <c r="N887" s="1"/>
-      <c r="O887" s="68"/>
+      <c r="O887" s="67"/>
       <c r="P887" s="1"/>
       <c r="Q887" s="1"/>
       <c r="R887" s="1"/>
@@ -57910,7 +57930,7 @@
       <c r="L888" s="1"/>
       <c r="M888" s="1"/>
       <c r="N888" s="1"/>
-      <c r="O888" s="68"/>
+      <c r="O888" s="67"/>
       <c r="P888" s="1"/>
       <c r="Q888" s="1"/>
       <c r="R888" s="1"/>
@@ -57941,7 +57961,7 @@
       <c r="L889" s="1"/>
       <c r="M889" s="1"/>
       <c r="N889" s="1"/>
-      <c r="O889" s="68"/>
+      <c r="O889" s="67"/>
       <c r="P889" s="1"/>
       <c r="Q889" s="1"/>
       <c r="R889" s="1"/>
@@ -57972,7 +57992,7 @@
       <c r="L890" s="1"/>
       <c r="M890" s="1"/>
       <c r="N890" s="1"/>
-      <c r="O890" s="68"/>
+      <c r="O890" s="67"/>
       <c r="P890" s="1"/>
       <c r="Q890" s="1"/>
       <c r="R890" s="1"/>
@@ -58003,7 +58023,7 @@
       <c r="L891" s="1"/>
       <c r="M891" s="1"/>
       <c r="N891" s="1"/>
-      <c r="O891" s="68"/>
+      <c r="O891" s="67"/>
       <c r="P891" s="1"/>
       <c r="Q891" s="1"/>
       <c r="R891" s="1"/>
@@ -58034,7 +58054,7 @@
       <c r="L892" s="1"/>
       <c r="M892" s="1"/>
       <c r="N892" s="1"/>
-      <c r="O892" s="68"/>
+      <c r="O892" s="67"/>
       <c r="P892" s="1"/>
       <c r="Q892" s="1"/>
       <c r="R892" s="1"/>
@@ -58065,7 +58085,7 @@
       <c r="L893" s="1"/>
       <c r="M893" s="1"/>
       <c r="N893" s="1"/>
-      <c r="O893" s="68"/>
+      <c r="O893" s="67"/>
       <c r="P893" s="1"/>
       <c r="Q893" s="1"/>
       <c r="R893" s="1"/>
@@ -58096,7 +58116,7 @@
       <c r="L894" s="1"/>
       <c r="M894" s="1"/>
       <c r="N894" s="1"/>
-      <c r="O894" s="68"/>
+      <c r="O894" s="67"/>
       <c r="P894" s="1"/>
       <c r="Q894" s="1"/>
       <c r="R894" s="1"/>
@@ -58127,7 +58147,7 @@
       <c r="L895" s="1"/>
       <c r="M895" s="1"/>
       <c r="N895" s="1"/>
-      <c r="O895" s="68"/>
+      <c r="O895" s="67"/>
       <c r="P895" s="1"/>
       <c r="Q895" s="1"/>
       <c r="R895" s="1"/>
@@ -58158,7 +58178,7 @@
       <c r="L896" s="1"/>
       <c r="M896" s="1"/>
       <c r="N896" s="1"/>
-      <c r="O896" s="68"/>
+      <c r="O896" s="67"/>
       <c r="P896" s="1"/>
       <c r="Q896" s="1"/>
       <c r="R896" s="1"/>
@@ -58189,7 +58209,7 @@
       <c r="L897" s="1"/>
       <c r="M897" s="1"/>
       <c r="N897" s="1"/>
-      <c r="O897" s="68"/>
+      <c r="O897" s="67"/>
       <c r="P897" s="1"/>
       <c r="Q897" s="1"/>
       <c r="R897" s="1"/>
@@ -58220,7 +58240,7 @@
       <c r="L898" s="1"/>
       <c r="M898" s="1"/>
       <c r="N898" s="1"/>
-      <c r="O898" s="68"/>
+      <c r="O898" s="67"/>
       <c r="P898" s="1"/>
       <c r="Q898" s="1"/>
       <c r="R898" s="1"/>
@@ -58251,7 +58271,7 @@
       <c r="L899" s="1"/>
       <c r="M899" s="1"/>
       <c r="N899" s="1"/>
-      <c r="O899" s="68"/>
+      <c r="O899" s="67"/>
       <c r="P899" s="1"/>
       <c r="Q899" s="1"/>
       <c r="R899" s="1"/>
@@ -58282,7 +58302,7 @@
       <c r="L900" s="1"/>
       <c r="M900" s="1"/>
       <c r="N900" s="1"/>
-      <c r="O900" s="68"/>
+      <c r="O900" s="67"/>
       <c r="P900" s="1"/>
       <c r="Q900" s="1"/>
       <c r="R900" s="1"/>
@@ -58313,7 +58333,7 @@
       <c r="L901" s="1"/>
       <c r="M901" s="1"/>
       <c r="N901" s="1"/>
-      <c r="O901" s="68"/>
+      <c r="O901" s="67"/>
       <c r="P901" s="1"/>
       <c r="Q901" s="1"/>
       <c r="R901" s="1"/>
@@ -58344,7 +58364,7 @@
       <c r="L902" s="1"/>
       <c r="M902" s="1"/>
       <c r="N902" s="1"/>
-      <c r="O902" s="68"/>
+      <c r="O902" s="67"/>
       <c r="P902" s="1"/>
       <c r="Q902" s="1"/>
       <c r="R902" s="1"/>
@@ -58375,7 +58395,7 @@
       <c r="L903" s="1"/>
       <c r="M903" s="1"/>
       <c r="N903" s="1"/>
-      <c r="O903" s="68"/>
+      <c r="O903" s="67"/>
       <c r="P903" s="1"/>
       <c r="Q903" s="1"/>
       <c r="R903" s="1"/>
@@ -58406,7 +58426,7 @@
       <c r="L904" s="1"/>
       <c r="M904" s="1"/>
       <c r="N904" s="1"/>
-      <c r="O904" s="68"/>
+      <c r="O904" s="67"/>
       <c r="P904" s="1"/>
       <c r="Q904" s="1"/>
       <c r="R904" s="1"/>
@@ -58437,7 +58457,7 @@
       <c r="L905" s="1"/>
       <c r="M905" s="1"/>
       <c r="N905" s="1"/>
-      <c r="O905" s="68"/>
+      <c r="O905" s="67"/>
       <c r="P905" s="1"/>
       <c r="Q905" s="1"/>
       <c r="R905" s="1"/>
@@ -58468,7 +58488,7 @@
       <c r="L906" s="1"/>
       <c r="M906" s="1"/>
       <c r="N906" s="1"/>
-      <c r="O906" s="68"/>
+      <c r="O906" s="67"/>
       <c r="P906" s="1"/>
       <c r="Q906" s="1"/>
       <c r="R906" s="1"/>
@@ -58499,7 +58519,7 @@
       <c r="L907" s="1"/>
       <c r="M907" s="1"/>
       <c r="N907" s="1"/>
-      <c r="O907" s="68"/>
+      <c r="O907" s="67"/>
       <c r="P907" s="1"/>
       <c r="Q907" s="1"/>
       <c r="R907" s="1"/>
@@ -58530,7 +58550,7 @@
       <c r="L908" s="1"/>
       <c r="M908" s="1"/>
       <c r="N908" s="1"/>
-      <c r="O908" s="68"/>
+      <c r="O908" s="67"/>
       <c r="P908" s="1"/>
       <c r="Q908" s="1"/>
       <c r="R908" s="1"/>
@@ -58561,7 +58581,7 @@
       <c r="L909" s="1"/>
       <c r="M909" s="1"/>
       <c r="N909" s="1"/>
-      <c r="O909" s="68"/>
+      <c r="O909" s="67"/>
       <c r="P909" s="1"/>
       <c r="Q909" s="1"/>
       <c r="R909" s="1"/>
@@ -58592,7 +58612,7 @@
       <c r="L910" s="1"/>
       <c r="M910" s="1"/>
       <c r="N910" s="1"/>
-      <c r="O910" s="68"/>
+      <c r="O910" s="67"/>
       <c r="P910" s="1"/>
       <c r="Q910" s="1"/>
       <c r="R910" s="1"/>
@@ -58623,7 +58643,7 @@
       <c r="L911" s="1"/>
       <c r="M911" s="1"/>
       <c r="N911" s="1"/>
-      <c r="O911" s="68"/>
+      <c r="O911" s="67"/>
       <c r="P911" s="1"/>
       <c r="Q911" s="1"/>
       <c r="R911" s="1"/>
@@ -58654,7 +58674,7 @@
       <c r="L912" s="1"/>
       <c r="M912" s="1"/>
       <c r="N912" s="1"/>
-      <c r="O912" s="68"/>
+      <c r="O912" s="67"/>
       <c r="P912" s="1"/>
       <c r="Q912" s="1"/>
       <c r="R912" s="1"/>
@@ -58685,7 +58705,7 @@
       <c r="L913" s="1"/>
       <c r="M913" s="1"/>
       <c r="N913" s="1"/>
-      <c r="O913" s="68"/>
+      <c r="O913" s="67"/>
       <c r="P913" s="1"/>
       <c r="Q913" s="1"/>
       <c r="R913" s="1"/>
@@ -58716,7 +58736,7 @@
       <c r="L914" s="1"/>
       <c r="M914" s="1"/>
       <c r="N914" s="1"/>
-      <c r="O914" s="68"/>
+      <c r="O914" s="67"/>
       <c r="P914" s="1"/>
       <c r="Q914" s="1"/>
       <c r="R914" s="1"/>
@@ -58747,7 +58767,7 @@
       <c r="L915" s="1"/>
       <c r="M915" s="1"/>
       <c r="N915" s="1"/>
-      <c r="O915" s="68"/>
+      <c r="O915" s="67"/>
       <c r="P915" s="1"/>
       <c r="Q915" s="1"/>
       <c r="R915" s="1"/>
@@ -58778,7 +58798,7 @@
       <c r="L916" s="1"/>
       <c r="M916" s="1"/>
       <c r="N916" s="1"/>
-      <c r="O916" s="68"/>
+      <c r="O916" s="67"/>
       <c r="P916" s="1"/>
       <c r="Q916" s="1"/>
       <c r="R916" s="1"/>
@@ -58809,7 +58829,7 @@
       <c r="L917" s="1"/>
       <c r="M917" s="1"/>
       <c r="N917" s="1"/>
-      <c r="O917" s="68"/>
+      <c r="O917" s="67"/>
       <c r="P917" s="1"/>
       <c r="Q917" s="1"/>
       <c r="R917" s="1"/>
@@ -58840,7 +58860,7 @@
       <c r="L918" s="1"/>
       <c r="M918" s="1"/>
       <c r="N918" s="1"/>
-      <c r="O918" s="68"/>
+      <c r="O918" s="67"/>
       <c r="P918" s="1"/>
       <c r="Q918" s="1"/>
       <c r="R918" s="1"/>
@@ -58871,7 +58891,7 @@
       <c r="L919" s="1"/>
       <c r="M919" s="1"/>
       <c r="N919" s="1"/>
-      <c r="O919" s="68"/>
+      <c r="O919" s="67"/>
       <c r="P919" s="1"/>
       <c r="Q919" s="1"/>
       <c r="R919" s="1"/>
@@ -58902,7 +58922,7 @@
       <c r="L920" s="1"/>
       <c r="M920" s="1"/>
       <c r="N920" s="1"/>
-      <c r="O920" s="68"/>
+      <c r="O920" s="67"/>
       <c r="P920" s="1"/>
       <c r="Q920" s="1"/>
       <c r="R920" s="1"/>
@@ -58933,7 +58953,7 @@
       <c r="L921" s="1"/>
       <c r="M921" s="1"/>
       <c r="N921" s="1"/>
-      <c r="O921" s="68"/>
+      <c r="O921" s="67"/>
       <c r="P921" s="1"/>
       <c r="Q921" s="1"/>
       <c r="R921" s="1"/>
@@ -58964,7 +58984,7 @@
       <c r="L922" s="1"/>
       <c r="M922" s="1"/>
       <c r="N922" s="1"/>
-      <c r="O922" s="68"/>
+      <c r="O922" s="67"/>
       <c r="P922" s="1"/>
       <c r="Q922" s="1"/>
       <c r="R922" s="1"/>
@@ -58995,7 +59015,7 @@
       <c r="L923" s="1"/>
       <c r="M923" s="1"/>
       <c r="N923" s="1"/>
-      <c r="O923" s="68"/>
+      <c r="O923" s="67"/>
       <c r="P923" s="1"/>
       <c r="Q923" s="1"/>
       <c r="R923" s="1"/>
@@ -59026,7 +59046,7 @@
       <c r="L924" s="1"/>
       <c r="M924" s="1"/>
       <c r="N924" s="1"/>
-      <c r="O924" s="68"/>
+      <c r="O924" s="67"/>
       <c r="P924" s="1"/>
       <c r="Q924" s="1"/>
       <c r="R924" s="1"/>
@@ -59057,7 +59077,7 @@
       <c r="L925" s="1"/>
       <c r="M925" s="1"/>
       <c r="N925" s="1"/>
-      <c r="O925" s="68"/>
+      <c r="O925" s="67"/>
       <c r="P925" s="1"/>
       <c r="Q925" s="1"/>
       <c r="R925" s="1"/>
@@ -59088,7 +59108,7 @@
       <c r="L926" s="1"/>
       <c r="M926" s="1"/>
       <c r="N926" s="1"/>
-      <c r="O926" s="68"/>
+      <c r="O926" s="67"/>
       <c r="P926" s="1"/>
       <c r="Q926" s="1"/>
       <c r="R926" s="1"/>
@@ -59119,7 +59139,7 @@
       <c r="L927" s="1"/>
       <c r="M927" s="1"/>
       <c r="N927" s="1"/>
-      <c r="O927" s="68"/>
+      <c r="O927" s="67"/>
       <c r="P927" s="1"/>
       <c r="Q927" s="1"/>
       <c r="R927" s="1"/>
@@ -59150,7 +59170,7 @@
       <c r="L928" s="1"/>
       <c r="M928" s="1"/>
       <c r="N928" s="1"/>
-      <c r="O928" s="68"/>
+      <c r="O928" s="67"/>
       <c r="P928" s="1"/>
       <c r="Q928" s="1"/>
       <c r="R928" s="1"/>
@@ -59181,7 +59201,7 @@
       <c r="L929" s="1"/>
       <c r="M929" s="1"/>
       <c r="N929" s="1"/>
-      <c r="O929" s="68"/>
+      <c r="O929" s="67"/>
       <c r="P929" s="1"/>
       <c r="Q929" s="1"/>
       <c r="R929" s="1"/>
@@ -59212,7 +59232,7 @@
       <c r="L930" s="1"/>
       <c r="M930" s="1"/>
       <c r="N930" s="1"/>
-      <c r="O930" s="68"/>
+      <c r="O930" s="67"/>
       <c r="P930" s="1"/>
       <c r="Q930" s="1"/>
       <c r="R930" s="1"/>
@@ -59243,7 +59263,7 @@
       <c r="L931" s="1"/>
       <c r="M931" s="1"/>
       <c r="N931" s="1"/>
-      <c r="O931" s="68"/>
+      <c r="O931" s="67"/>
       <c r="P931" s="1"/>
       <c r="Q931" s="1"/>
       <c r="R931" s="1"/>
@@ -59274,7 +59294,7 @@
       <c r="L932" s="1"/>
       <c r="M932" s="1"/>
       <c r="N932" s="1"/>
-      <c r="O932" s="68"/>
+      <c r="O932" s="67"/>
       <c r="P932" s="1"/>
       <c r="Q932" s="1"/>
       <c r="R932" s="1"/>
@@ -59305,7 +59325,7 @@
       <c r="L933" s="1"/>
       <c r="M933" s="1"/>
       <c r="N933" s="1"/>
-      <c r="O933" s="68"/>
+      <c r="O933" s="67"/>
       <c r="P933" s="1"/>
       <c r="Q933" s="1"/>
       <c r="R933" s="1"/>
@@ -59336,7 +59356,7 @@
       <c r="L934" s="1"/>
       <c r="M934" s="1"/>
       <c r="N934" s="1"/>
-      <c r="O934" s="68"/>
+      <c r="O934" s="67"/>
       <c r="P934" s="1"/>
       <c r="Q934" s="1"/>
       <c r="R934" s="1"/>
@@ -59367,7 +59387,7 @@
       <c r="L935" s="1"/>
       <c r="M935" s="1"/>
       <c r="N935" s="1"/>
-      <c r="O935" s="68"/>
+      <c r="O935" s="67"/>
       <c r="P935" s="1"/>
       <c r="Q935" s="1"/>
       <c r="R935" s="1"/>
@@ -59398,7 +59418,7 @@
       <c r="L936" s="1"/>
       <c r="M936" s="1"/>
       <c r="N936" s="1"/>
-      <c r="O936" s="68"/>
+      <c r="O936" s="67"/>
       <c r="P936" s="1"/>
       <c r="Q936" s="1"/>
       <c r="R936" s="1"/>
@@ -59429,7 +59449,7 @@
       <c r="L937" s="1"/>
       <c r="M937" s="1"/>
       <c r="N937" s="1"/>
-      <c r="O937" s="68"/>
+      <c r="O937" s="67"/>
       <c r="P937" s="1"/>
       <c r="Q937" s="1"/>
       <c r="R937" s="1"/>
@@ -59460,7 +59480,7 @@
       <c r="L938" s="1"/>
       <c r="M938" s="1"/>
       <c r="N938" s="1"/>
-      <c r="O938" s="68"/>
+      <c r="O938" s="67"/>
       <c r="P938" s="1"/>
       <c r="Q938" s="1"/>
       <c r="R938" s="1"/>
@@ -59491,7 +59511,7 @@
       <c r="L939" s="1"/>
       <c r="M939" s="1"/>
       <c r="N939" s="1"/>
-      <c r="O939" s="68"/>
+      <c r="O939" s="67"/>
       <c r="P939" s="1"/>
       <c r="Q939" s="1"/>
       <c r="R939" s="1"/>
@@ -59522,7 +59542,7 @@
       <c r="L940" s="1"/>
       <c r="M940" s="1"/>
       <c r="N940" s="1"/>
-      <c r="O940" s="68"/>
+      <c r="O940" s="67"/>
       <c r="P940" s="1"/>
       <c r="Q940" s="1"/>
       <c r="R940" s="1"/>
@@ -59553,7 +59573,7 @@
       <c r="L941" s="1"/>
       <c r="M941" s="1"/>
       <c r="N941" s="1"/>
-      <c r="O941" s="68"/>
+      <c r="O941" s="67"/>
       <c r="P941" s="1"/>
       <c r="Q941" s="1"/>
       <c r="R941" s="1"/>
@@ -59584,7 +59604,7 @@
       <c r="L942" s="1"/>
       <c r="M942" s="1"/>
       <c r="N942" s="1"/>
-      <c r="O942" s="68"/>
+      <c r="O942" s="67"/>
       <c r="P942" s="1"/>
       <c r="Q942" s="1"/>
       <c r="R942" s="1"/>
@@ -59615,7 +59635,7 @@
       <c r="L943" s="1"/>
       <c r="M943" s="1"/>
       <c r="N943" s="1"/>
-      <c r="O943" s="68"/>
+      <c r="O943" s="67"/>
       <c r="P943" s="1"/>
       <c r="Q943" s="1"/>
       <c r="R943" s="1"/>
@@ -59646,7 +59666,7 @@
       <c r="L944" s="1"/>
       <c r="M944" s="1"/>
       <c r="N944" s="1"/>
-      <c r="O944" s="68"/>
+      <c r="O944" s="67"/>
       <c r="P944" s="1"/>
       <c r="Q944" s="1"/>
       <c r="R944" s="1"/>
@@ -59677,7 +59697,7 @@
       <c r="L945" s="1"/>
       <c r="M945" s="1"/>
       <c r="N945" s="1"/>
-      <c r="O945" s="68"/>
+      <c r="O945" s="67"/>
       <c r="P945" s="1"/>
       <c r="Q945" s="1"/>
       <c r="R945" s="1"/>
@@ -59708,7 +59728,7 @@
       <c r="L946" s="1"/>
       <c r="M946" s="1"/>
       <c r="N946" s="1"/>
-      <c r="O946" s="68"/>
+      <c r="O946" s="67"/>
       <c r="P946" s="1"/>
       <c r="Q946" s="1"/>
       <c r="R946" s="1"/>
@@ -59739,7 +59759,7 @@
       <c r="L947" s="1"/>
       <c r="M947" s="1"/>
       <c r="N947" s="1"/>
-      <c r="O947" s="68"/>
+      <c r="O947" s="67"/>
       <c r="P947" s="1"/>
       <c r="Q947" s="1"/>
       <c r="R947" s="1"/>
@@ -59770,7 +59790,7 @@
       <c r="L948" s="1"/>
       <c r="M948" s="1"/>
       <c r="N948" s="1"/>
-      <c r="O948" s="68"/>
+      <c r="O948" s="67"/>
       <c r="P948" s="1"/>
       <c r="Q948" s="1"/>
       <c r="R948" s="1"/>
@@ -59801,7 +59821,7 @@
       <c r="L949" s="1"/>
       <c r="M949" s="1"/>
       <c r="N949" s="1"/>
-      <c r="O949" s="68"/>
+      <c r="O949" s="67"/>
       <c r="P949" s="1"/>
       <c r="Q949" s="1"/>
       <c r="R949" s="1"/>
@@ -59832,7 +59852,7 @@
       <c r="L950" s="1"/>
       <c r="M950" s="1"/>
       <c r="N950" s="1"/>
-      <c r="O950" s="68"/>
+      <c r="O950" s="67"/>
       <c r="P950" s="1"/>
       <c r="Q950" s="1"/>
       <c r="R950" s="1"/>
@@ -59863,7 +59883,7 @@
       <c r="L951" s="1"/>
       <c r="M951" s="1"/>
       <c r="N951" s="1"/>
-      <c r="O951" s="68"/>
+      <c r="O951" s="67"/>
       <c r="P951" s="1"/>
       <c r="Q951" s="1"/>
       <c r="R951" s="1"/>
@@ -59894,7 +59914,7 @@
       <c r="L952" s="1"/>
       <c r="M952" s="1"/>
       <c r="N952" s="1"/>
-      <c r="O952" s="68"/>
+      <c r="O952" s="67"/>
       <c r="P952" s="1"/>
       <c r="Q952" s="1"/>
       <c r="R952" s="1"/>
@@ -59925,7 +59945,7 @@
       <c r="L953" s="1"/>
       <c r="M953" s="1"/>
       <c r="N953" s="1"/>
-      <c r="O953" s="68"/>
+      <c r="O953" s="67"/>
       <c r="P953" s="1"/>
       <c r="Q953" s="1"/>
       <c r="R953" s="1"/>
@@ -59956,7 +59976,7 @@
       <c r="L954" s="1"/>
       <c r="M954" s="1"/>
       <c r="N954" s="1"/>
-      <c r="O954" s="68"/>
+      <c r="O954" s="67"/>
       <c r="P954" s="1"/>
       <c r="Q954" s="1"/>
       <c r="R954" s="1"/>
@@ -59987,7 +60007,7 @@
       <c r="L955" s="1"/>
       <c r="M955" s="1"/>
       <c r="N955" s="1"/>
-      <c r="O955" s="68"/>
+      <c r="O955" s="67"/>
       <c r="P955" s="1"/>
       <c r="Q955" s="1"/>
       <c r="R955" s="1"/>
@@ -60018,7 +60038,7 @@
       <c r="L956" s="1"/>
       <c r="M956" s="1"/>
       <c r="N956" s="1"/>
-      <c r="O956" s="68"/>
+      <c r="O956" s="67"/>
       <c r="P956" s="1"/>
       <c r="Q956" s="1"/>
       <c r="R956" s="1"/>
@@ -60049,7 +60069,7 @@
       <c r="L957" s="1"/>
       <c r="M957" s="1"/>
       <c r="N957" s="1"/>
-      <c r="O957" s="68"/>
+      <c r="O957" s="67"/>
       <c r="P957" s="1"/>
       <c r="Q957" s="1"/>
       <c r="R957" s="1"/>
@@ -60080,7 +60100,7 @@
       <c r="L958" s="1"/>
       <c r="M958" s="1"/>
       <c r="N958" s="1"/>
-      <c r="O958" s="68"/>
+      <c r="O958" s="67"/>
       <c r="P958" s="1"/>
       <c r="Q958" s="1"/>
       <c r="R958" s="1"/>
@@ -60111,7 +60131,7 @@
       <c r="L959" s="1"/>
       <c r="M959" s="1"/>
       <c r="N959" s="1"/>
-      <c r="O959" s="68"/>
+      <c r="O959" s="67"/>
       <c r="P959" s="1"/>
       <c r="Q959" s="1"/>
       <c r="R959" s="1"/>
@@ -60142,7 +60162,7 @@
       <c r="L960" s="1"/>
       <c r="M960" s="1"/>
       <c r="N960" s="1"/>
-      <c r="O960" s="68"/>
+      <c r="O960" s="67"/>
       <c r="P960" s="1"/>
       <c r="Q960" s="1"/>
       <c r="R960" s="1"/>
@@ -60173,7 +60193,7 @@
       <c r="L961" s="1"/>
       <c r="M961" s="1"/>
       <c r="N961" s="1"/>
-      <c r="O961" s="68"/>
+      <c r="O961" s="67"/>
       <c r="P961" s="1"/>
       <c r="Q961" s="1"/>
       <c r="R961" s="1"/>
@@ -60204,7 +60224,7 @@
       <c r="L962" s="1"/>
       <c r="M962" s="1"/>
       <c r="N962" s="1"/>
-      <c r="O962" s="68"/>
+      <c r="O962" s="67"/>
       <c r="P962" s="1"/>
       <c r="Q962" s="1"/>
       <c r="R962" s="1"/>
@@ -60235,7 +60255,7 @@
       <c r="L963" s="1"/>
       <c r="M963" s="1"/>
       <c r="N963" s="1"/>
-      <c r="O963" s="68"/>
+      <c r="O963" s="67"/>
       <c r="P963" s="1"/>
       <c r="Q963" s="1"/>
       <c r="R963" s="1"/>
@@ -60266,7 +60286,7 @@
       <c r="L964" s="1"/>
       <c r="M964" s="1"/>
       <c r="N964" s="1"/>
-      <c r="O964" s="68"/>
+      <c r="O964" s="67"/>
       <c r="P964" s="1"/>
       <c r="Q964" s="1"/>
       <c r="R964" s="1"/>
@@ -60297,7 +60317,7 @@
       <c r="L965" s="1"/>
       <c r="M965" s="1"/>
       <c r="N965" s="1"/>
-      <c r="O965" s="68"/>
+      <c r="O965" s="67"/>
       <c r="P965" s="1"/>
       <c r="Q965" s="1"/>
       <c r="R965" s="1"/>
@@ -60328,7 +60348,7 @@
       <c r="L966" s="1"/>
       <c r="M966" s="1"/>
       <c r="N966" s="1"/>
-      <c r="O966" s="68"/>
+      <c r="O966" s="67"/>
       <c r="P966" s="1"/>
       <c r="Q966" s="1"/>
       <c r="R966" s="1"/>
@@ -60359,7 +60379,7 @@
       <c r="L967" s="1"/>
       <c r="M967" s="1"/>
       <c r="N967" s="1"/>
-      <c r="O967" s="68"/>
+      <c r="O967" s="67"/>
       <c r="P967" s="1"/>
       <c r="Q967" s="1"/>
       <c r="R967" s="1"/>
@@ -60390,7 +60410,7 @@
       <c r="L968" s="1"/>
       <c r="M968" s="1"/>
       <c r="N968" s="1"/>
-      <c r="O968" s="68"/>
+      <c r="O968" s="67"/>
       <c r="P968" s="1"/>
       <c r="Q968" s="1"/>
       <c r="R968" s="1"/>
@@ -60421,7 +60441,7 @@
       <c r="L969" s="1"/>
       <c r="M969" s="1"/>
       <c r="N969" s="1"/>
-      <c r="O969" s="68"/>
+      <c r="O969" s="67"/>
       <c r="P969" s="1"/>
       <c r="Q969" s="1"/>
       <c r="R969" s="1"/>
@@ -60452,7 +60472,7 @@
       <c r="L970" s="1"/>
       <c r="M970" s="1"/>
       <c r="N970" s="1"/>
-      <c r="O970" s="68"/>
+      <c r="O970" s="67"/>
       <c r="P970" s="1"/>
       <c r="Q970" s="1"/>
       <c r="R970" s="1"/>
@@ -60483,7 +60503,7 @@
       <c r="L971" s="1"/>
       <c r="M971" s="1"/>
       <c r="N971" s="1"/>
-      <c r="O971" s="68"/>
+      <c r="O971" s="67"/>
       <c r="P971" s="1"/>
       <c r="Q971" s="1"/>
       <c r="R971" s="1"/>
@@ -60514,7 +60534,7 @@
       <c r="L972" s="1"/>
       <c r="M972" s="1"/>
       <c r="N972" s="1"/>
-      <c r="O972" s="68"/>
+      <c r="O972" s="67"/>
       <c r="P972" s="1"/>
       <c r="Q972" s="1"/>
       <c r="R972" s="1"/>
@@ -60545,7 +60565,7 @@
       <c r="L973" s="1"/>
       <c r="M973" s="1"/>
       <c r="N973" s="1"/>
-      <c r="O973" s="68"/>
+      <c r="O973" s="67"/>
       <c r="P973" s="1"/>
       <c r="Q973" s="1"/>
       <c r="R973" s="1"/>
@@ -60576,7 +60596,7 @@
       <c r="L974" s="1"/>
       <c r="M974" s="1"/>
       <c r="N974" s="1"/>
-      <c r="O974" s="68"/>
+      <c r="O974" s="67"/>
       <c r="P974" s="1"/>
       <c r="Q974" s="1"/>
       <c r="R974" s="1"/>
@@ -60607,7 +60627,7 @@
       <c r="L975" s="1"/>
       <c r="M975" s="1"/>
       <c r="N975" s="1"/>
-      <c r="O975" s="68"/>
+      <c r="O975" s="67"/>
       <c r="P975" s="1"/>
       <c r="Q975" s="1"/>
       <c r="R975" s="1"/>
@@ -60638,7 +60658,7 @@
       <c r="L976" s="1"/>
       <c r="M976" s="1"/>
       <c r="N976" s="1"/>
-      <c r="O976" s="68"/>
+      <c r="O976" s="67"/>
       <c r="P976" s="1"/>
       <c r="Q976" s="1"/>
       <c r="R976" s="1"/>
@@ -60669,7 +60689,7 @@
       <c r="L977" s="1"/>
       <c r="M977" s="1"/>
       <c r="N977" s="1"/>
-      <c r="O977" s="68"/>
+      <c r="O977" s="67"/>
       <c r="P977" s="1"/>
       <c r="Q977" s="1"/>
       <c r="R977" s="1"/>
@@ -60700,7 +60720,7 @@
       <c r="L978" s="1"/>
       <c r="M978" s="1"/>
       <c r="N978" s="1"/>
-      <c r="O978" s="68"/>
+      <c r="O978" s="67"/>
       <c r="P978" s="1"/>
       <c r="Q978" s="1"/>
       <c r="R978" s="1"/>
@@ -60731,7 +60751,7 @@
       <c r="L979" s="1"/>
       <c r="M979" s="1"/>
       <c r="N979" s="1"/>
-      <c r="O979" s="68"/>
+      <c r="O979" s="67"/>
       <c r="P979" s="1"/>
       <c r="Q979" s="1"/>
       <c r="R979" s="1"/>
@@ -60762,7 +60782,7 @@
       <c r="L980" s="1"/>
       <c r="M980" s="1"/>
       <c r="N980" s="1"/>
-      <c r="O980" s="68"/>
+      <c r="O980" s="67"/>
       <c r="P980" s="1"/>
       <c r="Q980" s="1"/>
       <c r="R980" s="1"/>
@@ -60793,7 +60813,7 @@
       <c r="L981" s="1"/>
       <c r="M981" s="1"/>
       <c r="N981" s="1"/>
-      <c r="O981" s="68"/>
+      <c r="O981" s="67"/>
       <c r="P981" s="1"/>
       <c r="Q981" s="1"/>
       <c r="R981" s="1"/>
@@ -60824,7 +60844,7 @@
       <c r="L982" s="1"/>
       <c r="M982" s="1"/>
       <c r="N982" s="1"/>
-      <c r="O982" s="68"/>
+      <c r="O982" s="67"/>
       <c r="P982" s="1"/>
       <c r="Q982" s="1"/>
       <c r="R982" s="1"/>
@@ -60855,7 +60875,7 @@
       <c r="L983" s="1"/>
       <c r="M983" s="1"/>
       <c r="N983" s="1"/>
-      <c r="O983" s="68"/>
+      <c r="O983" s="67"/>
       <c r="P983" s="1"/>
       <c r="Q983" s="1"/>
       <c r="R983" s="1"/>
@@ -60886,7 +60906,7 @@
       <c r="L984" s="1"/>
       <c r="M984" s="1"/>
       <c r="N984" s="1"/>
-      <c r="O984" s="68"/>
+      <c r="O984" s="67"/>
       <c r="P984" s="1"/>
       <c r="Q984" s="1"/>
       <c r="R984" s="1"/>
@@ -60917,7 +60937,7 @@
       <c r="L985" s="1"/>
       <c r="M985" s="1"/>
       <c r="N985" s="1"/>
-      <c r="O985" s="68"/>
+      <c r="O985" s="67"/>
       <c r="P985" s="1"/>
       <c r="Q985" s="1"/>
       <c r="R985" s="1"/>
@@ -60948,7 +60968,7 @@
       <c r="L986" s="1"/>
       <c r="M986" s="1"/>
       <c r="N986" s="1"/>
-      <c r="O986" s="68"/>
+      <c r="O986" s="67"/>
       <c r="P986" s="1"/>
       <c r="Q986" s="1"/>
       <c r="R986" s="1"/>
@@ -60979,7 +60999,7 @@
       <c r="L987" s="1"/>
       <c r="M987" s="1"/>
       <c r="N987" s="1"/>
-      <c r="O987" s="68"/>
+      <c r="O987" s="67"/>
       <c r="P987" s="1"/>
       <c r="Q987" s="1"/>
       <c r="R987" s="1"/>
@@ -61010,7 +61030,7 @@
       <c r="L988" s="1"/>
       <c r="M988" s="1"/>
       <c r="N988" s="1"/>
-      <c r="O988" s="68"/>
+      <c r="O988" s="67"/>
       <c r="P988" s="1"/>
       <c r="Q988" s="1"/>
       <c r="R988" s="1"/>
@@ -61041,7 +61061,7 @@
       <c r="L989" s="1"/>
       <c r="M989" s="1"/>
       <c r="N989" s="1"/>
-      <c r="O989" s="68"/>
+      <c r="O989" s="67"/>
       <c r="P989" s="1"/>
       <c r="Q989" s="1"/>
       <c r="R989" s="1"/>
@@ -61072,7 +61092,7 @@
       <c r="L990" s="1"/>
       <c r="M990" s="1"/>
       <c r="N990" s="1"/>
-      <c r="O990" s="68"/>
+      <c r="O990" s="67"/>
       <c r="P990" s="1"/>
       <c r="Q990" s="1"/>
       <c r="R990" s="1"/>
@@ -61103,7 +61123,7 @@
       <c r="L991" s="1"/>
       <c r="M991" s="1"/>
       <c r="N991" s="1"/>
-      <c r="O991" s="68"/>
+      <c r="O991" s="67"/>
       <c r="P991" s="1"/>
       <c r="Q991" s="1"/>
       <c r="R991" s="1"/>
@@ -61134,7 +61154,7 @@
       <c r="L992" s="1"/>
       <c r="M992" s="1"/>
       <c r="N992" s="1"/>
-      <c r="O992" s="68"/>
+      <c r="O992" s="67"/>
       <c r="P992" s="1"/>
       <c r="Q992" s="1"/>
       <c r="R992" s="1"/>
@@ -61165,7 +61185,7 @@
       <c r="L993" s="1"/>
       <c r="M993" s="1"/>
       <c r="N993" s="1"/>
-      <c r="O993" s="68"/>
+      <c r="O993" s="67"/>
       <c r="P993" s="1"/>
       <c r="Q993" s="1"/>
       <c r="R993" s="1"/>
@@ -61196,7 +61216,7 @@
       <c r="L994" s="1"/>
       <c r="M994" s="1"/>
       <c r="N994" s="1"/>
-      <c r="O994" s="68"/>
+      <c r="O994" s="67"/>
       <c r="P994" s="1"/>
       <c r="Q994" s="1"/>
       <c r="R994" s="1"/>
@@ -61227,7 +61247,7 @@
       <c r="L995" s="1"/>
       <c r="M995" s="1"/>
       <c r="N995" s="1"/>
-      <c r="O995" s="68"/>
+      <c r="O995" s="67"/>
       <c r="P995" s="1"/>
       <c r="Q995" s="1"/>
       <c r="R995" s="1"/>
@@ -61258,7 +61278,7 @@
       <c r="L996" s="1"/>
       <c r="M996" s="1"/>
       <c r="N996" s="1"/>
-      <c r="O996" s="68"/>
+      <c r="O996" s="67"/>
       <c r="P996" s="1"/>
       <c r="Q996" s="1"/>
       <c r="R996" s="1"/>
@@ -61289,7 +61309,7 @@
       <c r="L997" s="1"/>
       <c r="M997" s="1"/>
       <c r="N997" s="1"/>
-      <c r="O997" s="68"/>
+      <c r="O997" s="67"/>
       <c r="P997" s="1"/>
       <c r="Q997" s="1"/>
       <c r="R997" s="1"/>
@@ -61320,7 +61340,7 @@
       <c r="L998" s="1"/>
       <c r="M998" s="1"/>
       <c r="N998" s="1"/>
-      <c r="O998" s="68"/>
+      <c r="O998" s="67"/>
       <c r="P998" s="1"/>
       <c r="Q998" s="1"/>
       <c r="R998" s="1"/>
@@ -61351,7 +61371,7 @@
       <c r="L999" s="1"/>
       <c r="M999" s="1"/>
       <c r="N999" s="1"/>
-      <c r="O999" s="68"/>
+      <c r="O999" s="67"/>
       <c r="P999" s="1"/>
       <c r="Q999" s="1"/>
       <c r="R999" s="1"/>
@@ -61382,7 +61402,7 @@
       <c r="L1000" s="1"/>
       <c r="M1000" s="1"/>
       <c r="N1000" s="1"/>
-      <c r="O1000" s="68"/>
+      <c r="O1000" s="67"/>
       <c r="P1000" s="1"/>
       <c r="Q1000" s="1"/>
       <c r="R1000" s="1"/>
@@ -61413,7 +61433,7 @@
       <c r="L1001" s="1"/>
       <c r="M1001" s="1"/>
       <c r="N1001" s="1"/>
-      <c r="O1001" s="68"/>
+      <c r="O1001" s="67"/>
       <c r="P1001" s="1"/>
       <c r="Q1001" s="1"/>
       <c r="R1001" s="1"/>
@@ -61444,7 +61464,7 @@
       <c r="L1002" s="1"/>
       <c r="M1002" s="1"/>
       <c r="N1002" s="1"/>
-      <c r="O1002" s="68"/>
+      <c r="O1002" s="67"/>
       <c r="P1002" s="1"/>
       <c r="Q1002" s="1"/>
       <c r="R1002" s="1"/>
@@ -61475,7 +61495,7 @@
       <c r="L1003" s="1"/>
       <c r="M1003" s="1"/>
       <c r="N1003" s="1"/>
-      <c r="O1003" s="68"/>
+      <c r="O1003" s="67"/>
       <c r="P1003" s="1"/>
       <c r="Q1003" s="1"/>
       <c r="R1003" s="1"/>
@@ -61506,7 +61526,7 @@
       <c r="L1004" s="1"/>
       <c r="M1004" s="1"/>
       <c r="N1004" s="1"/>
-      <c r="O1004" s="68"/>
+      <c r="O1004" s="67"/>
       <c r="P1004" s="1"/>
       <c r="Q1004" s="1"/>
       <c r="R1004" s="1"/>
@@ -61537,7 +61557,7 @@
       <c r="L1005" s="1"/>
       <c r="M1005" s="1"/>
       <c r="N1005" s="1"/>
-      <c r="O1005" s="68"/>
+      <c r="O1005" s="67"/>
       <c r="P1005" s="1"/>
       <c r="Q1005" s="1"/>
       <c r="R1005" s="1"/>
@@ -61568,7 +61588,7 @@
       <c r="L1006" s="1"/>
       <c r="M1006" s="1"/>
       <c r="N1006" s="1"/>
-      <c r="O1006" s="68"/>
+      <c r="O1006" s="67"/>
       <c r="P1006" s="1"/>
       <c r="Q1006" s="1"/>
       <c r="R1006" s="1"/>
@@ -61599,7 +61619,7 @@
       <c r="L1007" s="1"/>
       <c r="M1007" s="1"/>
       <c r="N1007" s="1"/>
-      <c r="O1007" s="68"/>
+      <c r="O1007" s="67"/>
       <c r="P1007" s="1"/>
       <c r="Q1007" s="1"/>
       <c r="R1007" s="1"/>
@@ -61630,7 +61650,7 @@
       <c r="L1008" s="1"/>
       <c r="M1008" s="1"/>
       <c r="N1008" s="1"/>
-      <c r="O1008" s="68"/>
+      <c r="O1008" s="67"/>
       <c r="P1008" s="1"/>
       <c r="Q1008" s="1"/>
       <c r="R1008" s="1"/>
@@ -61661,7 +61681,7 @@
       <c r="L1009" s="1"/>
       <c r="M1009" s="1"/>
       <c r="N1009" s="1"/>
-      <c r="O1009" s="68"/>
+      <c r="O1009" s="67"/>
       <c r="P1009" s="1"/>
       <c r="Q1009" s="1"/>
       <c r="R1009" s="1"/>
@@ -61692,7 +61712,7 @@
       <c r="L1010" s="1"/>
       <c r="M1010" s="1"/>
       <c r="N1010" s="1"/>
-      <c r="O1010" s="68"/>
+      <c r="O1010" s="67"/>
       <c r="P1010" s="1"/>
       <c r="Q1010" s="1"/>
       <c r="R1010" s="1"/>
@@ -61723,7 +61743,7 @@
       <c r="L1011" s="1"/>
       <c r="M1011" s="1"/>
       <c r="N1011" s="1"/>
-      <c r="O1011" s="68"/>
+      <c r="O1011" s="67"/>
       <c r="P1011" s="1"/>
       <c r="Q1011" s="1"/>
       <c r="R1011" s="1"/>
@@ -61754,7 +61774,7 @@
       <c r="L1012" s="1"/>
       <c r="M1012" s="1"/>
       <c r="N1012" s="1"/>
-      <c r="O1012" s="68"/>
+      <c r="O1012" s="67"/>
       <c r="P1012" s="1"/>
       <c r="Q1012" s="1"/>
       <c r="R1012" s="1"/>
@@ -61785,7 +61805,7 @@
       <c r="L1013" s="1"/>
       <c r="M1013" s="1"/>
       <c r="N1013" s="1"/>
-      <c r="O1013" s="68"/>
+      <c r="O1013" s="67"/>
       <c r="P1013" s="1"/>
       <c r="Q1013" s="1"/>
       <c r="R1013" s="1"/>
@@ -61816,7 +61836,7 @@
       <c r="L1014" s="1"/>
       <c r="M1014" s="1"/>
       <c r="N1014" s="1"/>
-      <c r="O1014" s="68"/>
+      <c r="O1014" s="67"/>
       <c r="P1014" s="1"/>
       <c r="Q1014" s="1"/>
       <c r="R1014" s="1"/>
@@ -61847,7 +61867,7 @@
       <c r="L1015" s="1"/>
       <c r="M1015" s="1"/>
       <c r="N1015" s="1"/>
-      <c r="O1015" s="68"/>
+      <c r="O1015" s="67"/>
       <c r="P1015" s="1"/>
       <c r="Q1015" s="1"/>
       <c r="R1015" s="1"/>
@@ -61878,7 +61898,7 @@
       <c r="L1016" s="1"/>
       <c r="M1016" s="1"/>
       <c r="N1016" s="1"/>
-      <c r="O1016" s="68"/>
+      <c r="O1016" s="67"/>
       <c r="P1016" s="1"/>
       <c r="Q1016" s="1"/>
       <c r="R1016" s="1"/>
@@ -61909,7 +61929,7 @@
       <c r="L1017" s="1"/>
       <c r="M1017" s="1"/>
       <c r="N1017" s="1"/>
-      <c r="O1017" s="68"/>
+      <c r="O1017" s="67"/>
       <c r="P1017" s="1"/>
       <c r="Q1017" s="1"/>
       <c r="R1017" s="1"/>
@@ -61940,7 +61960,7 @@
       <c r="L1018" s="1"/>
       <c r="M1018" s="1"/>
       <c r="N1018" s="1"/>
-      <c r="O1018" s="68"/>
+      <c r="O1018" s="67"/>
       <c r="P1018" s="1"/>
       <c r="Q1018" s="1"/>
       <c r="R1018" s="1"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="631">
   <si>
     <t>Order</t>
   </si>
@@ -1662,6 +1662,12 @@
     <t>Telemetric</t>
   </si>
   <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
     <t>USB Hub</t>
   </si>
   <si>
@@ -3421,6 +3427,9 @@
     <t>Print</t>
   </si>
   <si>
+    <t>Maintain space</t>
+  </si>
+  <si>
     <t>So called</t>
   </si>
   <si>
@@ -3428,6 +3437,9 @@
   </si>
   <si>
     <t>My signature</t>
+  </si>
+  <si>
+    <t>Excuse me</t>
   </si>
   <si>
     <t>Cast</t>
@@ -29983,17 +29995,21 @@
       <c r="E7" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>378</v>
+      </c>
       <c r="H7" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="53">
         <v>3.0</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L7" s="55"/>
       <c r="M7" s="56"/>
@@ -30022,25 +30038,25 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="53">
         <v>4.0</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="56"/>
@@ -30069,25 +30085,25 @@
         <v>5.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="53">
         <v>5.0</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="56"/>
@@ -30116,25 +30132,25 @@
         <v>6.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="53">
         <v>6.0</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L10" s="55"/>
       <c r="M10" s="56"/>
@@ -30163,25 +30179,25 @@
         <v>7.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="53">
         <v>7.0</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L11" s="55"/>
       <c r="M11" s="56"/>
@@ -30212,25 +30228,25 @@
         <v>8.0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="53">
         <v>8.0</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L12" s="55"/>
       <c r="M12" s="56"/>
@@ -30259,25 +30275,25 @@
         <v>9.0</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="53">
         <v>9.0</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L13" s="55"/>
       <c r="M13" s="56"/>
@@ -30304,25 +30320,25 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="53">
         <v>10.0</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="56"/>
@@ -30349,25 +30365,25 @@
         <v>11.0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="21" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="53">
         <v>11.0</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L15" s="55"/>
       <c r="M15" s="56"/>
@@ -30394,25 +30410,25 @@
         <v>12.0</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I16" s="46"/>
       <c r="J16" s="53">
         <v>12.0</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -30439,25 +30455,25 @@
         <v>13.0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="53">
         <v>13.0</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -30484,25 +30500,25 @@
         <v>14.0</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="21" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="53">
         <v>14.0</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -30529,25 +30545,25 @@
         <v>15.0</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="21" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I19" s="46"/>
       <c r="J19" s="53">
         <v>15.0</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -30574,25 +30590,25 @@
         <v>16.0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I20" s="46"/>
       <c r="J20" s="53">
         <v>16.0</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -30619,25 +30635,25 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="21" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="53">
         <v>17.0</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
@@ -30664,25 +30680,25 @@
         <v>18.0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="21" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="53">
         <v>18.0</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
@@ -30709,25 +30725,25 @@
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="53">
         <v>19.0</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="56"/>
@@ -30754,25 +30770,25 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="21" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="53">
         <v>20.0</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
@@ -30799,25 +30815,25 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="53">
         <v>21.0</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
@@ -30844,25 +30860,25 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I26" s="46"/>
       <c r="J26" s="53">
         <v>22.0</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -30889,25 +30905,25 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="21" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="53">
         <v>23.0</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="56"/>
@@ -30934,29 +30950,29 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="53">
         <v>24.0</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -30983,29 +30999,29 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="53">
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -31032,29 +31048,29 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="53">
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -31078,32 +31094,32 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="61" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L31" s="63"/>
       <c r="M31" s="64"/>
@@ -31242,32 +31258,32 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="47" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L35" s="49"/>
       <c r="M35" s="50"/>
@@ -31294,29 +31310,29 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="53">
         <v>1.0</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="56"/>
@@ -31343,29 +31359,29 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="53">
         <v>2.0</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L37" s="55"/>
       <c r="M37" s="56"/>
@@ -31392,29 +31408,29 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="53">
         <v>3.0</v>
       </c>
       <c r="K38" s="54" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="56"/>
@@ -31441,29 +31457,29 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="53">
         <v>4.0</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -31490,29 +31506,29 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="53">
         <v>5.0</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -31520,7 +31536,7 @@
       <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="16" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -31541,29 +31557,29 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="53">
         <v>6.0</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -31590,29 +31606,29 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="53">
         <v>7.0</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -31639,29 +31655,29 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="53">
         <v>8.0</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -31688,29 +31704,29 @@
         <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="53">
         <v>9.0</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -31737,29 +31753,29 @@
         <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="53">
         <v>10.0</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="56"/>
@@ -31786,29 +31802,29 @@
         <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="53">
         <v>11.0</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="56"/>
@@ -31835,29 +31851,29 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="53">
         <v>12.0</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="56"/>
@@ -31884,29 +31900,29 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="53">
         <v>13.0</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L48" s="55"/>
       <c r="M48" s="56"/>
@@ -31933,7 +31949,7 @@
         <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="1"/>
@@ -31945,7 +31961,7 @@
         <v>14.0</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="56"/>
@@ -31972,7 +31988,7 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="1"/>
@@ -31984,7 +32000,7 @@
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -32011,7 +32027,7 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="1"/>
@@ -32023,7 +32039,7 @@
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -32050,7 +32066,7 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="1"/>
@@ -32062,7 +32078,7 @@
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -32089,7 +32105,7 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
@@ -32101,7 +32117,7 @@
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -32128,7 +32144,7 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -32140,7 +32156,7 @@
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32167,7 +32183,7 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -32179,7 +32195,7 @@
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32206,7 +32222,7 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -32218,7 +32234,7 @@
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32245,7 +32261,7 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -32257,7 +32273,7 @@
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32284,7 +32300,7 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -32296,7 +32312,7 @@
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32323,25 +32339,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="D59" s="20"/>
+        <v>606</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>607</v>
+      </c>
       <c r="E59" s="16" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="H59" s="67"/>
+        <v>610</v>
+      </c>
+      <c r="H59" s="21" t="s">
+        <v>611</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32368,29 +32388,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32417,29 +32437,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32463,32 +32483,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="636">
   <si>
     <t>Order</t>
   </si>
@@ -3395,6 +3395,21 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Hook up</t>
+  </si>
+  <si>
+    <t>Take care</t>
+  </si>
+  <si>
+    <t>Count on</t>
+  </si>
+  <si>
+    <t>Pile up</t>
+  </si>
+  <si>
+    <t>Move on</t>
   </si>
   <si>
     <t>Passive</t>
@@ -31951,11 +31966,21 @@
       <c r="C49" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="67"/>
+      <c r="D49" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>599</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>601</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="53">
         <v>14.0</v>
@@ -31988,7 +32013,7 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="1"/>
@@ -32000,7 +32025,7 @@
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -32027,7 +32052,7 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="1"/>
@@ -32039,7 +32064,7 @@
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -32066,7 +32091,7 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="1"/>
@@ -32078,7 +32103,7 @@
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -32105,7 +32130,7 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
@@ -32117,7 +32142,7 @@
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -32144,7 +32169,7 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -32156,7 +32181,7 @@
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32183,7 +32208,7 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -32195,7 +32220,7 @@
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32222,7 +32247,7 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -32234,7 +32259,7 @@
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32261,7 +32286,7 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -32273,7 +32298,7 @@
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32300,7 +32325,7 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -32312,7 +32337,7 @@
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32339,29 +32364,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32388,29 +32413,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32437,29 +32462,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32483,32 +32508,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="651">
   <si>
     <t>Order</t>
   </si>
@@ -3415,10 +3415,55 @@
     <t>Passive</t>
   </si>
   <si>
+    <t>Push up</t>
+  </si>
+  <si>
+    <t>Hang on</t>
+  </si>
+  <si>
+    <t>Disc brake</t>
+  </si>
+  <si>
+    <t>Stop watch</t>
+  </si>
+  <si>
+    <t>Pull down</t>
+  </si>
+  <si>
     <t>Subscript</t>
   </si>
   <si>
+    <t>Save it</t>
+  </si>
+  <si>
+    <t>I mean</t>
+  </si>
+  <si>
+    <t>So nice</t>
+  </si>
+  <si>
+    <t>I'm having</t>
+  </si>
+  <si>
+    <t>Any question</t>
+  </si>
+  <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t>Fly out</t>
+  </si>
+  <si>
+    <t>Drive through</t>
+  </si>
+  <si>
+    <t>Rocket science</t>
+  </si>
+  <si>
+    <t>Sit up</t>
+  </si>
+  <si>
+    <t>Jump in</t>
   </si>
   <si>
     <t>Tag</t>
@@ -29708,7 +29753,7 @@
     <col customWidth="1" min="3" max="3" width="11.38"/>
     <col customWidth="1" min="4" max="4" width="16.5"/>
     <col customWidth="1" min="5" max="5" width="14.38"/>
-    <col customWidth="1" min="6" max="6" width="11.38"/>
+    <col customWidth="1" min="6" max="6" width="12.25"/>
     <col customWidth="1" min="7" max="7" width="11.0"/>
     <col customWidth="1" min="8" max="8" width="16.75"/>
     <col customWidth="1" min="9" max="9" width="1.38"/>
@@ -29718,6 +29763,7 @@
     <col customWidth="1" min="13" max="13" width="5.25"/>
     <col customWidth="1" min="14" max="14" width="8.5"/>
     <col customWidth="1" min="15" max="15" width="5.13"/>
+    <col customWidth="1" min="17" max="17" width="1.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32015,11 +32061,21 @@
       <c r="C50" s="19" t="s">
         <v>602</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="67"/>
+      <c r="D50" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>607</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="53">
         <v>15.0</v>
@@ -32052,19 +32108,29 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="67"/>
+        <v>608</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>613</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="53">
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -32091,19 +32157,29 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="67"/>
+        <v>614</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>619</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="53">
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -32130,7 +32206,7 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="1"/>
@@ -32142,7 +32218,7 @@
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -32169,7 +32245,7 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -32181,7 +32257,7 @@
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32208,7 +32284,7 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -32220,7 +32296,7 @@
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32247,7 +32323,7 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -32259,7 +32335,7 @@
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32286,7 +32362,7 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -32298,7 +32374,7 @@
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32325,7 +32401,7 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -32337,7 +32413,7 @@
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32364,29 +32440,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32413,29 +32489,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32462,29 +32538,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32508,32 +32584,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="656">
   <si>
     <t>Order</t>
   </si>
@@ -3467,6 +3467,21 @@
   </si>
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>Sync in</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>No margin</t>
+  </si>
+  <si>
+    <t>Check in</t>
+  </si>
+  <si>
+    <t>Clean up</t>
   </si>
   <si>
     <t>Mnemonic</t>
@@ -32208,11 +32223,21 @@
       <c r="C53" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="67"/>
+      <c r="D53" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>625</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="53">
         <v>18.0</v>
@@ -32245,7 +32270,7 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="1"/>
@@ -32257,7 +32282,7 @@
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32284,7 +32309,7 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -32296,7 +32321,7 @@
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32323,7 +32348,7 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -32335,7 +32360,7 @@
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32362,7 +32387,7 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -32374,7 +32399,7 @@
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32401,7 +32426,7 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -32413,7 +32438,7 @@
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32440,29 +32465,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32489,29 +32514,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32538,29 +32563,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32584,32 +32609,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="661">
   <si>
     <t>Order</t>
   </si>
@@ -3485,6 +3485,21 @@
   </si>
   <si>
     <t>Mnemonic</t>
+  </si>
+  <si>
+    <t>Look alike</t>
+  </si>
+  <si>
+    <t>That's why</t>
+  </si>
+  <si>
+    <t>Worth it</t>
+  </si>
+  <si>
+    <t>Set up</t>
+  </si>
+  <si>
+    <t>Some thing</t>
   </si>
   <si>
     <t>Spell</t>
@@ -32272,11 +32287,21 @@
       <c r="C54" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="67"/>
+      <c r="D54" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>631</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="53">
         <v>19.0</v>
@@ -32309,7 +32334,7 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="1"/>
@@ -32321,7 +32346,7 @@
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32348,7 +32373,7 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="1"/>
@@ -32360,7 +32385,7 @@
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32387,7 +32412,7 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="1"/>
@@ -32399,7 +32424,7 @@
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32426,7 +32451,7 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="1"/>
@@ -32438,7 +32463,7 @@
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32465,29 +32490,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32514,29 +32539,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32563,29 +32588,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32609,32 +32634,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -3454,7 +3454,7 @@
     <t>Fly out</t>
   </si>
   <si>
-    <t>Drive through</t>
+    <t>Drive at</t>
   </si>
   <si>
     <t>Rocket science</t>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="691">
   <si>
     <t>Order</t>
   </si>
@@ -2609,6 +2609,12 @@
     <t>Gateway</t>
   </si>
   <si>
+    <t>Dongle</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
     <t>Electric Adapter</t>
   </si>
   <si>
@@ -2668,6 +2674,12 @@
     <t>Forum</t>
   </si>
   <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
     <t>Manganese Capsule</t>
   </si>
   <si>
@@ -2727,6 +2739,12 @@
     <t>Agency</t>
   </si>
   <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
     <t>Multifunctional Cutter</t>
   </si>
   <si>
@@ -2769,6 +2787,12 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Table</t>
   </si>
   <si>
     <t>Instant Cookware</t>
@@ -2828,6 +2852,12 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>Invisible</t>
   </si>
   <si>
     <t>Storage Cupboard</t>
@@ -3505,13 +3535,73 @@
     <t>Spell</t>
   </si>
   <si>
+    <t>Roll over</t>
+  </si>
+  <si>
+    <t>Wild card</t>
+  </si>
+  <si>
+    <t>Social page</t>
+  </si>
+  <si>
+    <t>Often times</t>
+  </si>
+  <si>
+    <t>Don't bother</t>
+  </si>
+  <si>
     <t>Word</t>
   </si>
   <si>
+    <t>Main domain</t>
+  </si>
+  <si>
+    <t>Make up</t>
+  </si>
+  <si>
+    <t>I understand</t>
+  </si>
+  <si>
+    <t>My branch</t>
+  </si>
+  <si>
+    <t>Primary language</t>
+  </si>
+  <si>
     <t>Caution</t>
   </si>
   <si>
+    <t>Hold on</t>
+  </si>
+  <si>
+    <t>Certain me</t>
+  </si>
+  <si>
+    <t>The deal</t>
+  </si>
+  <si>
+    <t>Flat instruction</t>
+  </si>
+  <si>
+    <t>Bye bye</t>
+  </si>
+  <si>
     <t>Parse</t>
+  </si>
+  <si>
+    <t>Come again</t>
+  </si>
+  <si>
+    <t>Use case</t>
+  </si>
+  <si>
+    <t>Quite interesting</t>
+  </si>
+  <si>
+    <t>Minimum requirement</t>
+  </si>
+  <si>
+    <t>As if</t>
   </si>
   <si>
     <t>Print</t>
@@ -4280,8 +4370,8 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29783,8 +29873,8 @@
     <col customWidth="1" min="3" max="3" width="11.38"/>
     <col customWidth="1" min="4" max="4" width="16.5"/>
     <col customWidth="1" min="5" max="5" width="14.38"/>
-    <col customWidth="1" min="6" max="6" width="12.25"/>
-    <col customWidth="1" min="7" max="7" width="11.0"/>
+    <col customWidth="1" min="6" max="6" width="13.13"/>
+    <col customWidth="1" min="7" max="7" width="17.13"/>
     <col customWidth="1" min="8" max="8" width="16.75"/>
     <col customWidth="1" min="9" max="9" width="1.38"/>
     <col customWidth="1" min="10" max="10" width="26.5"/>
@@ -30779,7 +30869,7 @@
       <c r="E22" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="1"/>
       <c r="H22" s="21" t="s">
         <v>453</v>
@@ -30824,17 +30914,21 @@
       <c r="E23" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>459</v>
+      </c>
       <c r="H23" s="21" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="53">
         <v>19.0</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="56"/>
@@ -30861,25 +30955,29 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>466</v>
+      </c>
       <c r="H24" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="53">
         <v>20.0</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
@@ -30906,25 +31004,29 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>471</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>473</v>
+      </c>
       <c r="H25" s="21" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="53">
         <v>21.0</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
@@ -30951,25 +31053,29 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>478</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>480</v>
+      </c>
       <c r="H26" s="21" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="I26" s="46"/>
       <c r="J26" s="53">
         <v>22.0</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -30996,25 +31102,29 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+        <v>485</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>487</v>
+      </c>
       <c r="H27" s="21" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="53">
         <v>23.0</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="56"/>
@@ -31041,29 +31151,29 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="53">
         <v>24.0</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -31090,29 +31200,29 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="53">
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -31139,29 +31249,29 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="53">
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -31185,32 +31295,32 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="61" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L31" s="63"/>
       <c r="M31" s="64"/>
@@ -31349,32 +31459,32 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="8" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="47" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="L35" s="49"/>
       <c r="M35" s="50"/>
@@ -31401,29 +31511,29 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="53">
         <v>1.0</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="56"/>
@@ -31450,29 +31560,29 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="53">
         <v>2.0</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L37" s="55"/>
       <c r="M37" s="56"/>
@@ -31499,29 +31609,29 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="53">
         <v>3.0</v>
       </c>
       <c r="K38" s="54" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="56"/>
@@ -31548,29 +31658,29 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="53">
         <v>4.0</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -31597,29 +31707,29 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="53">
         <v>5.0</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -31627,7 +31737,7 @@
       <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="16" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -31648,29 +31758,29 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="53">
         <v>6.0</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -31697,29 +31807,29 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="53">
         <v>7.0</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -31746,29 +31856,29 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="53">
         <v>8.0</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -31795,29 +31905,29 @@
         <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="53">
         <v>9.0</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -31844,29 +31954,29 @@
         <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="53">
         <v>10.0</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="56"/>
@@ -31893,29 +32003,29 @@
         <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="53">
         <v>11.0</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="56"/>
@@ -31942,29 +32052,29 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="53">
         <v>12.0</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="56"/>
@@ -31991,29 +32101,29 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="53">
         <v>13.0</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="L48" s="55"/>
       <c r="M48" s="56"/>
@@ -32040,29 +32150,29 @@
         <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="53">
         <v>14.0</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="56"/>
@@ -32089,29 +32199,29 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="53">
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -32138,29 +32248,29 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="53">
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -32187,29 +32297,29 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="53">
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -32236,29 +32346,29 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="53">
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -32285,29 +32395,29 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="53">
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32334,19 +32444,29 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="67"/>
+        <v>642</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>647</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="53">
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32373,19 +32493,29 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="67"/>
+        <v>648</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="G56" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>653</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="53">
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32412,19 +32542,29 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="67"/>
+        <v>654</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>659</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="53">
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32451,19 +32591,29 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="67"/>
+        <v>660</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>662</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>665</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="53">
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32490,29 +32640,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32539,29 +32689,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>643</v>
+        <v>673</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32588,29 +32738,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32634,32 +32784,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>659</v>
+        <v>689</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="698">
   <si>
     <t>Order</t>
   </si>
@@ -2317,6 +2317,9 @@
     <t>Park</t>
   </si>
   <si>
+    <t>Point</t>
+  </si>
+  <si>
     <t>Bluetooth Speaker</t>
   </si>
   <si>
@@ -2373,6 +2376,9 @@
     <t>Factory</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Keyboard Piano</t>
   </si>
   <si>
@@ -2432,6 +2438,12 @@
     <t>Charity</t>
   </si>
   <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
     <t>Compact Disc</t>
   </si>
   <si>
@@ -2491,6 +2503,9 @@
     <t>Hygiene</t>
   </si>
   <si>
+    <t>Stream</t>
+  </si>
+  <si>
     <t>UV Purifier</t>
   </si>
   <si>
@@ -2548,6 +2563,12 @@
   </si>
   <si>
     <t>Dimension</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Digit</t>
   </si>
   <si>
     <t>Woollen Blanket</t>
@@ -30689,17 +30710,19 @@
       <c r="E18" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="16" t="s">
+        <v>434</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="53">
         <v>14.0</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -30729,22 +30752,24 @@
         <v>411</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>438</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>439</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I19" s="46"/>
       <c r="J19" s="53">
         <v>15.0</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -30771,25 +30796,29 @@
         <v>16.0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+        <v>444</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>446</v>
+      </c>
       <c r="H20" s="21" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I20" s="46"/>
       <c r="J20" s="53">
         <v>16.0</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -30816,25 +30845,29 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>451</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>348</v>
+      </c>
       <c r="H21" s="21" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="53">
         <v>17.0</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
@@ -30861,25 +30894,29 @@
         <v>18.0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="1"/>
+        <v>457</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>459</v>
+      </c>
       <c r="H22" s="21" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="53">
         <v>18.0</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
@@ -30906,29 +30943,29 @@
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="53">
         <v>19.0</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="56"/>
@@ -30955,29 +30992,29 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="53">
         <v>20.0</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
@@ -31004,29 +31041,29 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="53">
         <v>21.0</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
@@ -31053,29 +31090,29 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="I26" s="46"/>
       <c r="J26" s="53">
         <v>22.0</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -31102,29 +31139,29 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="53">
         <v>23.0</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="56"/>
@@ -31151,29 +31188,29 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="53">
         <v>24.0</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -31200,29 +31237,29 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="53">
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -31249,29 +31286,29 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="53">
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -31295,32 +31332,32 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="61" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="L31" s="63"/>
       <c r="M31" s="64"/>
@@ -31459,32 +31496,32 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="8" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="47" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="L35" s="49"/>
       <c r="M35" s="50"/>
@@ -31511,29 +31548,29 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="53">
         <v>1.0</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="56"/>
@@ -31560,29 +31597,29 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="53">
         <v>2.0</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L37" s="55"/>
       <c r="M37" s="56"/>
@@ -31609,29 +31646,29 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="53">
         <v>3.0</v>
       </c>
       <c r="K38" s="54" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="56"/>
@@ -31658,29 +31695,29 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="53">
         <v>4.0</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -31707,29 +31744,29 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="53">
         <v>5.0</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -31737,7 +31774,7 @@
       <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="16" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -31758,29 +31795,29 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="53">
         <v>6.0</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -31807,29 +31844,29 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="53">
         <v>7.0</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -31856,29 +31893,29 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="53">
         <v>8.0</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -31905,29 +31942,29 @@
         <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="53">
         <v>9.0</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -31954,29 +31991,29 @@
         <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="53">
         <v>10.0</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="56"/>
@@ -32003,29 +32040,29 @@
         <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="53">
         <v>11.0</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="56"/>
@@ -32052,29 +32089,29 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="53">
         <v>12.0</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="56"/>
@@ -32101,29 +32138,29 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="53">
         <v>13.0</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="L48" s="55"/>
       <c r="M48" s="56"/>
@@ -32150,29 +32187,29 @@
         <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="53">
         <v>14.0</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="56"/>
@@ -32199,29 +32236,29 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="53">
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -32248,29 +32285,29 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="53">
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -32297,29 +32334,29 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="53">
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -32346,29 +32383,29 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="53">
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -32395,29 +32432,29 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="53">
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32444,29 +32481,29 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="53">
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32493,29 +32530,29 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="G56" s="67" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="53">
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32542,29 +32579,29 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="53">
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32591,29 +32628,29 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="53">
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32640,29 +32677,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32689,29 +32726,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32738,29 +32775,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32784,32 +32821,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="706">
   <si>
     <t>Order</t>
   </si>
@@ -2081,6 +2081,9 @@
     <t>Crop</t>
   </si>
   <si>
+    <t>Squad</t>
+  </si>
+  <si>
     <t>Workout Roller</t>
   </si>
   <si>
@@ -2140,6 +2143,9 @@
     <t>Fuel</t>
   </si>
   <si>
+    <t>Spoon</t>
+  </si>
+  <si>
     <t>Photo Frame</t>
   </si>
   <si>
@@ -2199,6 +2205,12 @@
     <t>Security</t>
   </si>
   <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
     <t>Plastic Toy</t>
   </si>
   <si>
@@ -2258,6 +2270,12 @@
     <t>Mutual</t>
   </si>
   <si>
+    <t>Render</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
     <t>Computer Server</t>
   </si>
   <si>
@@ -2320,6 +2338,9 @@
     <t>Point</t>
   </si>
   <si>
+    <t>Spool</t>
+  </si>
+  <si>
     <t>Bluetooth Speaker</t>
   </si>
   <si>
@@ -2377,6 +2398,9 @@
   </si>
   <si>
     <t>Quarter</t>
+  </si>
+  <si>
+    <t>Double</t>
   </si>
   <si>
     <t>Keyboard Piano</t>
@@ -30531,16 +30555,18 @@
         <v>413</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="16" t="s">
+        <v>414</v>
+      </c>
       <c r="H14" s="21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="53">
         <v>10.0</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="56"/>
@@ -30567,25 +30593,27 @@
         <v>11.0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="16" t="s">
+        <v>420</v>
+      </c>
       <c r="H15" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="53">
         <v>11.0</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L15" s="55"/>
       <c r="M15" s="56"/>
@@ -30612,25 +30640,29 @@
         <v>12.0</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>425</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>427</v>
+      </c>
       <c r="H16" s="21" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="I16" s="46"/>
       <c r="J16" s="53">
         <v>12.0</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -30657,25 +30689,29 @@
         <v>13.0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>432</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>434</v>
+      </c>
       <c r="H17" s="21" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="53">
         <v>13.0</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -30702,27 +30738,29 @@
         <v>14.0</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>440</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>441</v>
+      </c>
       <c r="H18" s="21" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="53">
         <v>14.0</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -30752,24 +30790,26 @@
         <v>411</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>446</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>447</v>
+      </c>
       <c r="H19" s="21" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="I19" s="46"/>
       <c r="J19" s="53">
         <v>15.0</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -30796,29 +30836,29 @@
         <v>16.0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="I20" s="46"/>
       <c r="J20" s="53">
         <v>16.0</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -30845,29 +30885,29 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>348</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="53">
         <v>17.0</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
@@ -30894,29 +30934,29 @@
         <v>18.0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="53">
         <v>18.0</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
@@ -30943,29 +30983,29 @@
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="53">
         <v>19.0</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="56"/>
@@ -30992,29 +31032,29 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="53">
         <v>20.0</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
@@ -31041,29 +31081,29 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="53">
         <v>21.0</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
@@ -31090,29 +31130,29 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="I26" s="46"/>
       <c r="J26" s="53">
         <v>22.0</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -31139,29 +31179,29 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="53">
         <v>23.0</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="56"/>
@@ -31188,29 +31228,29 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="53">
         <v>24.0</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -31237,29 +31277,29 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="53">
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -31286,29 +31326,29 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="53">
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -31332,32 +31372,32 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="61" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L31" s="63"/>
       <c r="M31" s="64"/>
@@ -31496,32 +31536,32 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="8" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="47" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L35" s="49"/>
       <c r="M35" s="50"/>
@@ -31548,29 +31588,29 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="53">
         <v>1.0</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="56"/>
@@ -31597,29 +31637,29 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="53">
         <v>2.0</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="L37" s="55"/>
       <c r="M37" s="56"/>
@@ -31646,29 +31686,29 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="53">
         <v>3.0</v>
       </c>
       <c r="K38" s="54" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="56"/>
@@ -31695,29 +31735,29 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="53">
         <v>4.0</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -31744,29 +31784,29 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="53">
         <v>5.0</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -31774,7 +31814,7 @@
       <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="16" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -31795,29 +31835,29 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="53">
         <v>6.0</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -31844,29 +31884,29 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="53">
         <v>7.0</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -31893,29 +31933,29 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="53">
         <v>8.0</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -31942,29 +31982,29 @@
         <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="53">
         <v>9.0</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -31991,29 +32031,29 @@
         <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="53">
         <v>10.0</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="56"/>
@@ -32040,29 +32080,29 @@
         <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="53">
         <v>11.0</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="56"/>
@@ -32089,29 +32129,29 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="53">
         <v>12.0</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="56"/>
@@ -32138,29 +32178,29 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="53">
         <v>13.0</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="L48" s="55"/>
       <c r="M48" s="56"/>
@@ -32187,29 +32227,29 @@
         <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="53">
         <v>14.0</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="56"/>
@@ -32236,29 +32276,29 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="53">
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -32285,29 +32325,29 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="53">
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -32334,29 +32374,29 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="53">
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -32383,29 +32423,29 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="53">
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -32432,29 +32472,29 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="53">
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32481,29 +32521,29 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="53">
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32530,29 +32570,29 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="G56" s="67" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="53">
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32579,29 +32619,29 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="53">
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32628,29 +32668,29 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="53">
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32677,29 +32717,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32726,29 +32766,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32775,29 +32815,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32821,32 +32861,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>

--- a/onlyIf31/asset/onlyIf31.xlsx
+++ b/onlyIf31/asset/onlyIf31.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="onlyIf31" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Test Sampling" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="up" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="down" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="720">
   <si>
     <t>Order</t>
   </si>
@@ -1727,6 +1727,12 @@
     <t>Sector</t>
   </si>
   <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
     <t>USB Light</t>
   </si>
   <si>
@@ -1786,6 +1792,12 @@
     <t>Property</t>
   </si>
   <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
     <t>Mosquito Zapper</t>
   </si>
   <si>
@@ -1845,6 +1857,12 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>Lever</t>
+  </si>
+  <si>
     <t>Thermal Paste</t>
   </si>
   <si>
@@ -1904,6 +1922,12 @@
     <t>Retail</t>
   </si>
   <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
     <t>TV Mount</t>
   </si>
   <si>
@@ -1963,6 +1987,12 @@
     <t>Insurance</t>
   </si>
   <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
     <t>Electronic Slate</t>
   </si>
   <si>
@@ -2022,6 +2052,12 @@
     <t>Attribute</t>
   </si>
   <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
     <t>Board Game</t>
   </si>
   <si>
@@ -2081,6 +2117,9 @@
     <t>Crop</t>
   </si>
   <si>
+    <t>Loan</t>
+  </si>
+  <si>
     <t>Squad</t>
   </si>
   <si>
@@ -2141,6 +2180,9 @@
   </si>
   <si>
     <t>Fuel</t>
+  </si>
+  <si>
+    <t>Rail</t>
   </si>
   <si>
     <t>Spoon</t>
@@ -30272,17 +30314,21 @@
       <c r="E8" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="H8" s="21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="53">
         <v>4.0</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L8" s="55"/>
       <c r="M8" s="56"/>
@@ -30311,25 +30357,29 @@
         <v>5.0</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+        <v>390</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>392</v>
+      </c>
       <c r="H9" s="21" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="53">
         <v>5.0</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L9" s="55"/>
       <c r="M9" s="56"/>
@@ -30358,25 +30408,29 @@
         <v>6.0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+        <v>397</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>399</v>
+      </c>
       <c r="H10" s="21" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="I10" s="46"/>
       <c r="J10" s="53">
         <v>6.0</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L10" s="55"/>
       <c r="M10" s="56"/>
@@ -30405,25 +30459,29 @@
         <v>7.0</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+        <v>404</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>406</v>
+      </c>
       <c r="H11" s="21" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="I11" s="46"/>
       <c r="J11" s="53">
         <v>7.0</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L11" s="55"/>
       <c r="M11" s="56"/>
@@ -30454,25 +30512,29 @@
         <v>8.0</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+        <v>411</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>413</v>
+      </c>
       <c r="H12" s="21" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="53">
         <v>8.0</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L12" s="55"/>
       <c r="M12" s="56"/>
@@ -30501,25 +30563,29 @@
         <v>9.0</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>418</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>420</v>
+      </c>
       <c r="H13" s="21" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="I13" s="46"/>
       <c r="J13" s="53">
         <v>9.0</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L13" s="55"/>
       <c r="M13" s="56"/>
@@ -30546,27 +30612,29 @@
         <v>10.0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>425</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>426</v>
+      </c>
       <c r="G14" s="16" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="53">
         <v>10.0</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="L14" s="55"/>
       <c r="M14" s="56"/>
@@ -30593,27 +30661,29 @@
         <v>11.0</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>432</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="G15" s="16" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="I15" s="46"/>
       <c r="J15" s="53">
         <v>11.0</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="L15" s="55"/>
       <c r="M15" s="56"/>
@@ -30640,29 +30710,29 @@
         <v>12.0</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="I16" s="46"/>
       <c r="J16" s="53">
         <v>12.0</v>
       </c>
       <c r="K16" s="54" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="L16" s="55"/>
       <c r="M16" s="56"/>
@@ -30689,29 +30759,29 @@
         <v>13.0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="53">
         <v>13.0</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="L17" s="55"/>
       <c r="M17" s="56"/>
@@ -30738,29 +30808,29 @@
         <v>14.0</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="I18" s="46"/>
       <c r="J18" s="53">
         <v>14.0</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="L18" s="55"/>
       <c r="M18" s="56"/>
@@ -30787,29 +30857,29 @@
         <v>15.0</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="I19" s="46"/>
       <c r="J19" s="53">
         <v>15.0</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="56"/>
@@ -30836,29 +30906,29 @@
         <v>16.0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="I20" s="46"/>
       <c r="J20" s="53">
         <v>16.0</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="L20" s="55"/>
       <c r="M20" s="56"/>
@@ -30885,29 +30955,29 @@
         <v>17.0</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>348</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="I21" s="46"/>
       <c r="J21" s="53">
         <v>17.0</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="56"/>
@@ -30934,29 +31004,29 @@
         <v>18.0</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="53">
         <v>18.0</v>
       </c>
       <c r="K22" s="54" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="56"/>
@@ -30983,29 +31053,29 @@
         <v>19.0</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="53">
         <v>19.0</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="56"/>
@@ -31032,29 +31102,29 @@
         <v>20.0</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="53">
         <v>20.0</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="L24" s="55"/>
       <c r="M24" s="56"/>
@@ -31081,29 +31151,29 @@
         <v>21.0</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="I25" s="46"/>
       <c r="J25" s="53">
         <v>21.0</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="L25" s="55"/>
       <c r="M25" s="56"/>
@@ -31130,29 +31200,29 @@
         <v>22.0</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="I26" s="46"/>
       <c r="J26" s="53">
         <v>22.0</v>
       </c>
       <c r="K26" s="54" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="L26" s="55"/>
       <c r="M26" s="56"/>
@@ -31179,29 +31249,29 @@
         <v>23.0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="53">
         <v>23.0</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="L27" s="55"/>
       <c r="M27" s="56"/>
@@ -31228,29 +31298,29 @@
         <v>24.0</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="53">
         <v>24.0</v>
       </c>
       <c r="K28" s="54" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="L28" s="55"/>
       <c r="M28" s="56"/>
@@ -31277,29 +31347,29 @@
         <v>25.0</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="53">
         <v>25.0</v>
       </c>
       <c r="K29" s="54" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="L29" s="55"/>
       <c r="M29" s="56"/>
@@ -31326,29 +31396,29 @@
         <v>26.0</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="53">
         <v>26.0</v>
       </c>
       <c r="K30" s="54" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="L30" s="55"/>
       <c r="M30" s="56"/>
@@ -31372,32 +31442,32 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="26" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="E31" s="60" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="61" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="K31" s="62" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="L31" s="63"/>
       <c r="M31" s="64"/>
@@ -31536,32 +31606,32 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="8" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="47" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="K35" s="48" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="L35" s="49"/>
       <c r="M35" s="50"/>
@@ -31588,29 +31658,29 @@
         <v>1.0</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="53">
         <v>1.0</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="L36" s="55"/>
       <c r="M36" s="56"/>
@@ -31637,29 +31707,29 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="53">
         <v>2.0</v>
       </c>
       <c r="K37" s="54" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L37" s="55"/>
       <c r="M37" s="56"/>
@@ -31686,29 +31756,29 @@
         <v>3.0</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="53">
         <v>3.0</v>
       </c>
       <c r="K38" s="54" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="L38" s="55"/>
       <c r="M38" s="56"/>
@@ -31735,29 +31805,29 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="53">
         <v>4.0</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -31784,29 +31854,29 @@
         <v>5.0</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="53">
         <v>5.0</v>
       </c>
       <c r="K40" s="54" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -31814,7 +31884,7 @@
       <c r="O40" s="58"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="16" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -31835,29 +31905,29 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="53">
         <v>6.0</v>
       </c>
       <c r="K41" s="54" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -31884,29 +31954,29 @@
         <v>7.0</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="53">
         <v>7.0</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -31933,29 +32003,29 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="53">
         <v>8.0</v>
       </c>
       <c r="K43" s="54" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -31982,29 +32052,29 @@
         <v>9.0</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="53">
         <v>9.0</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -32031,29 +32101,29 @@
         <v>10.0</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="53">
         <v>10.0</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="L45" s="55"/>
       <c r="M45" s="56"/>
@@ -32080,29 +32150,29 @@
         <v>11.0</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="53">
         <v>11.0</v>
       </c>
       <c r="K46" s="54" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="L46" s="55"/>
       <c r="M46" s="56"/>
@@ -32129,29 +32199,29 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="53">
         <v>12.0</v>
       </c>
       <c r="K47" s="54" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="L47" s="55"/>
       <c r="M47" s="56"/>
@@ -32178,29 +32248,29 @@
         <v>13.0</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="53">
         <v>13.0</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="L48" s="55"/>
       <c r="M48" s="56"/>
@@ -32227,29 +32297,29 @@
         <v>14.0</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="53">
         <v>14.0</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="56"/>
@@ -32276,29 +32346,29 @@
         <v>15.0</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="53">
         <v>15.0</v>
       </c>
       <c r="K50" s="54" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="L50" s="55"/>
       <c r="M50" s="56"/>
@@ -32325,29 +32395,29 @@
         <v>16.0</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="53">
         <v>16.0</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="L51" s="55"/>
       <c r="M51" s="56"/>
@@ -32374,29 +32444,29 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="53">
         <v>17.0</v>
       </c>
       <c r="K52" s="54" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="L52" s="55"/>
       <c r="M52" s="56"/>
@@ -32423,29 +32493,29 @@
         <v>18.0</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="53">
         <v>18.0</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="L53" s="55"/>
       <c r="M53" s="56"/>
@@ -32472,29 +32542,29 @@
         <v>19.0</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="53">
         <v>19.0</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="L54" s="55"/>
       <c r="M54" s="56"/>
@@ -32521,29 +32591,29 @@
         <v>20.0</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="53">
         <v>20.0</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
@@ -32570,29 +32640,29 @@
         <v>21.0</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="G56" s="67" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="53">
         <v>21.0</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
@@ -32619,29 +32689,29 @@
         <v>22.0</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="53">
         <v>22.0</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
@@ -32668,29 +32738,29 @@
         <v>23.0</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="53">
         <v>23.0</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
@@ -32717,29 +32787,29 @@
         <v>24.0</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="53">
         <v>24.0</v>
       </c>
       <c r="K59" s="54" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
@@ -32766,29 +32836,29 @@
         <v>25.0</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="53">
         <v>25.0</v>
       </c>
       <c r="K60" s="54" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
@@ -32815,29 +32885,29 @@
         <v>26.0</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="53">
         <v>26.0</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
@@ -32861,32 +32931,32 @@
     <row r="62">
       <c r="A62" s="1"/>
       <c r="B62" s="26" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="61" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="K62" s="62" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="L62" s="63"/>
       <c r="M62" s="64"/>
